--- a/Files/NFL PREDICTIONS 2022.xlsx
+++ b/Files/NFL PREDICTIONS 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\jpvollaro_git\football_picks_webapp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E9CF1-B409-4F9B-8680-C8D60BEE01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC04C7A-BF60-4B74-9603-20F4E6831F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="113">
   <si>
     <t>KERRY</t>
   </si>
@@ -847,12 +847,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG347"/>
+  <dimension ref="A1:AG350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A88" sqref="A88"/>
-      <selection pane="bottomLeft" activeCell="Y112" sqref="Y112"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4548,7 @@
       <c r="E128" s="4"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -4594,12 +4594,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C131" s="8"/>
       <c r="E131" s="4"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>95</v>
       </c>
@@ -4607,80 +4607,281 @@
       <c r="E132" s="4"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
+      <c r="B133" t="s">
+        <v>45</v>
+      </c>
       <c r="C133" s="8"/>
       <c r="E133" s="4"/>
+      <c r="F133" t="s">
+        <v>45</v>
+      </c>
       <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I133" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M133" t="s">
+        <v>45</v>
+      </c>
+      <c r="O133" t="s">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>49</v>
       </c>
       <c r="C134" s="8"/>
+      <c r="D134" t="s">
+        <v>49</v>
+      </c>
       <c r="E134" s="4"/>
       <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K134" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>49</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C135" s="8"/>
       <c r="E135" s="4"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>73</v>
       </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
       <c r="C136" s="8"/>
+      <c r="D136" t="s">
+        <v>73</v>
+      </c>
       <c r="E136" s="4"/>
       <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q136" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
       <c r="C137" s="8"/>
       <c r="E137" s="4"/>
+      <c r="F137" t="s">
+        <v>84</v>
+      </c>
       <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I137" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K137" t="s">
+        <v>84</v>
+      </c>
+      <c r="M137" t="s">
+        <v>84</v>
+      </c>
+      <c r="O137" t="s">
+        <v>84</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U137" t="s">
+        <v>84</v>
+      </c>
+      <c r="W137" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
       <c r="E138" s="4"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139">
+        <v>29</v>
+      </c>
       <c r="C139" s="8"/>
+      <c r="D139">
+        <v>17</v>
+      </c>
       <c r="E139" s="4"/>
+      <c r="F139">
+        <v>13</v>
+      </c>
       <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I139" s="4">
+        <v>24</v>
+      </c>
+      <c r="K139">
+        <v>17</v>
+      </c>
+      <c r="M139">
+        <v>17</v>
+      </c>
+      <c r="O139">
+        <v>21</v>
+      </c>
+      <c r="Q139">
+        <v>10</v>
+      </c>
+      <c r="S139" s="2">
+        <v>31</v>
+      </c>
+      <c r="U139">
+        <v>20</v>
+      </c>
+      <c r="W139">
+        <v>17</v>
+      </c>
+      <c r="Y139">
+        <v>26</v>
+      </c>
+      <c r="AC139">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>27</v>
+      </c>
       <c r="C140" s="8"/>
+      <c r="D140">
+        <v>31</v>
+      </c>
       <c r="E140" s="4"/>
+      <c r="F140">
+        <v>30</v>
+      </c>
       <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I140" s="4">
+        <v>23</v>
+      </c>
+      <c r="K140">
+        <v>31</v>
+      </c>
+      <c r="M140">
+        <v>21</v>
+      </c>
+      <c r="O140">
+        <v>17</v>
+      </c>
+      <c r="Q140">
+        <v>24</v>
+      </c>
+      <c r="S140" s="2">
+        <v>23</v>
+      </c>
+      <c r="U140">
+        <v>24</v>
+      </c>
+      <c r="W140">
+        <v>38</v>
+      </c>
+      <c r="Y140">
+        <v>20</v>
+      </c>
+      <c r="AC140">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C141" s="8"/>
       <c r="E141" s="4"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142" t="s">
         <v>78</v>
       </c>
       <c r="C142" s="8"/>
       <c r="E142" s="4"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
       <c r="C143" s="8"/>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
       <c r="E143" s="4"/>
+      <c r="F143" t="s">
+        <v>27</v>
+      </c>
       <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I143" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K143" t="s">
+        <v>27</v>
+      </c>
+      <c r="M143" t="s">
+        <v>27</v>
+      </c>
+      <c r="O143" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>27</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U143" t="s">
+        <v>27</v>
+      </c>
+      <c r="W143" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C144" s="8"/>
       <c r="E144" s="4"/>
       <c r="H144" s="8"/>
@@ -4716,7 +4917,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C149" s="8"/>
       <c r="E149" s="4"/>
@@ -4724,7 +4925,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C150" s="8"/>
       <c r="E150" s="4"/>
@@ -4736,11 +4937,23 @@
       <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
       <c r="C152" s="8"/>
       <c r="E152" s="4"/>
       <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
       <c r="C153" s="8"/>
       <c r="E153" s="4"/>
       <c r="H153" s="8"/>
@@ -4752,7 +4965,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C155" s="8"/>
       <c r="E155" s="4"/>
@@ -4760,7 +4973,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C156" s="8"/>
       <c r="E156" s="4"/>
@@ -4772,8 +4985,8 @@
       <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>97</v>
+      <c r="A158" t="s">
+        <v>84</v>
       </c>
       <c r="C158" s="8"/>
       <c r="E158" s="4"/>
@@ -4781,28 +4994,28 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C159" s="8"/>
       <c r="E159" s="4"/>
       <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>79</v>
-      </c>
       <c r="C160" s="8"/>
       <c r="E160" s="4"/>
       <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C161" s="8"/>
       <c r="E161" s="4"/>
       <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C162" s="8"/>
       <c r="E162" s="4"/>
@@ -4810,7 +5023,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C163" s="8"/>
       <c r="E163" s="4"/>
@@ -4823,7 +5036,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C165" s="8"/>
       <c r="E165" s="4"/>
@@ -4831,7 +5044,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C166" s="8"/>
       <c r="E166" s="4"/>
@@ -4844,7 +5057,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C168" s="8"/>
       <c r="E168" s="4"/>
@@ -4852,7 +5065,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C169" s="8"/>
       <c r="E169" s="4"/>
@@ -4864,11 +5077,17 @@
       <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>29</v>
+      </c>
       <c r="C171" s="8"/>
       <c r="E171" s="4"/>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
       <c r="C172" s="8"/>
       <c r="E172" s="4"/>
       <c r="H172" s="8"/>
@@ -4879,17 +5098,11 @@
       <c r="H173" s="8"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>82</v>
-      </c>
       <c r="C174" s="8"/>
       <c r="E174" s="4"/>
       <c r="H174" s="8"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>22</v>
-      </c>
       <c r="C175" s="8"/>
       <c r="E175" s="4"/>
       <c r="H175" s="8"/>
@@ -4900,8 +5113,8 @@
       <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
-        <v>98</v>
+      <c r="A177" t="s">
+        <v>82</v>
       </c>
       <c r="C177" s="8"/>
       <c r="E177" s="4"/>
@@ -4909,28 +5122,28 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C178" s="8"/>
       <c r="E178" s="4"/>
       <c r="H178" s="8"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>53</v>
-      </c>
       <c r="C179" s="8"/>
       <c r="E179" s="4"/>
       <c r="H179" s="8"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C180" s="8"/>
       <c r="E180" s="4"/>
       <c r="H180" s="8"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C181" s="8"/>
       <c r="E181" s="4"/>
@@ -4938,7 +5151,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C182" s="8"/>
       <c r="E182" s="4"/>
@@ -4950,11 +5163,17 @@
       <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>22</v>
+      </c>
       <c r="C184" s="8"/>
       <c r="E184" s="4"/>
       <c r="H184" s="8"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
       <c r="C185" s="8"/>
       <c r="E185" s="4"/>
       <c r="H185" s="8"/>
@@ -4965,17 +5184,11 @@
       <c r="H186" s="8"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>92</v>
-      </c>
       <c r="C187" s="8"/>
       <c r="E187" s="4"/>
       <c r="H187" s="8"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>26</v>
-      </c>
       <c r="C188" s="8"/>
       <c r="E188" s="4"/>
       <c r="H188" s="8"/>
@@ -4986,8 +5199,8 @@
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
-        <v>99</v>
+      <c r="A190" t="s">
+        <v>92</v>
       </c>
       <c r="C190" s="8"/>
       <c r="E190" s="4"/>
@@ -4995,28 +5208,28 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C191" s="8"/>
       <c r="E191" s="4"/>
       <c r="H191" s="8"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>24</v>
-      </c>
       <c r="C192" s="8"/>
       <c r="E192" s="4"/>
       <c r="H192" s="8"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" s="8"/>
       <c r="E193" s="4"/>
       <c r="H193" s="8"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C194" s="8"/>
       <c r="E194" s="4"/>
@@ -5024,7 +5237,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C195" s="8"/>
       <c r="E195" s="4"/>
@@ -5036,11 +5249,17 @@
       <c r="H196" s="8"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>20</v>
+      </c>
       <c r="C197" s="8"/>
       <c r="E197" s="4"/>
       <c r="H197" s="8"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>74</v>
+      </c>
       <c r="C198" s="8"/>
       <c r="E198" s="4"/>
       <c r="H198" s="8"/>
@@ -5051,17 +5270,11 @@
       <c r="H199" s="8"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>53</v>
-      </c>
       <c r="C200" s="8"/>
       <c r="E200" s="4"/>
       <c r="H200" s="8"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>28</v>
-      </c>
       <c r="C201" s="8"/>
       <c r="E201" s="4"/>
       <c r="H201" s="8"/>
@@ -5072,8 +5285,8 @@
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="13" t="s">
-        <v>100</v>
+      <c r="A203" t="s">
+        <v>53</v>
       </c>
       <c r="C203" s="8"/>
       <c r="E203" s="4"/>
@@ -5081,28 +5294,28 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C204" s="8"/>
       <c r="E204" s="4"/>
       <c r="H204" s="8"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>47</v>
-      </c>
       <c r="C205" s="8"/>
       <c r="E205" s="4"/>
       <c r="H205" s="8"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C206" s="8"/>
       <c r="E206" s="4"/>
       <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C207" s="8"/>
       <c r="E207" s="4"/>
@@ -5110,7 +5323,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C208" s="8"/>
       <c r="E208" s="4"/>
@@ -5122,11 +5335,17 @@
       <c r="H209" s="8"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>53</v>
+      </c>
       <c r="C210" s="8"/>
       <c r="E210" s="4"/>
       <c r="H210" s="8"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
       <c r="C211" s="8"/>
       <c r="E211" s="4"/>
       <c r="H211" s="8"/>
@@ -5137,17 +5356,11 @@
       <c r="H212" s="8"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>24</v>
-      </c>
       <c r="C213" s="8"/>
       <c r="E213" s="4"/>
       <c r="H213" s="8"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>29</v>
-      </c>
       <c r="C214" s="8"/>
       <c r="E214" s="4"/>
       <c r="H214" s="8"/>
@@ -5158,8 +5371,8 @@
       <c r="H215" s="8"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="13" t="s">
-        <v>101</v>
+      <c r="A216" t="s">
+        <v>24</v>
       </c>
       <c r="C216" s="8"/>
       <c r="E216" s="4"/>
@@ -5167,28 +5380,28 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C217" s="8"/>
       <c r="E217" s="4"/>
       <c r="H217" s="8"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>44</v>
-      </c>
       <c r="C218" s="8"/>
       <c r="E218" s="4"/>
       <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="C219" s="8"/>
       <c r="E219" s="4"/>
       <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C220" s="8"/>
       <c r="E220" s="4"/>
@@ -5196,7 +5409,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C221" s="8"/>
       <c r="E221" s="4"/>
@@ -5209,7 +5422,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C223" s="8"/>
       <c r="E223" s="4"/>
@@ -5217,7 +5430,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C224" s="8"/>
       <c r="E224" s="4"/>
@@ -5230,7 +5443,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C226" s="8"/>
       <c r="E226" s="4"/>
@@ -5238,7 +5451,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C227" s="8"/>
       <c r="E227" s="4"/>
@@ -5251,7 +5464,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C229" s="8"/>
       <c r="E229" s="4"/>
@@ -5259,7 +5472,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C230" s="8"/>
       <c r="E230" s="4"/>
@@ -5271,11 +5484,17 @@
       <c r="H231" s="8"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>26</v>
+      </c>
       <c r="C232" s="8"/>
       <c r="E232" s="4"/>
       <c r="H232" s="8"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
       <c r="C233" s="8"/>
       <c r="E233" s="4"/>
       <c r="H233" s="8"/>
@@ -5286,17 +5505,11 @@
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>73</v>
-      </c>
       <c r="C235" s="8"/>
       <c r="E235" s="4"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>22</v>
-      </c>
       <c r="C236" s="8"/>
       <c r="E236" s="4"/>
       <c r="H236" s="8"/>
@@ -5307,8 +5520,8 @@
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="13" t="s">
-        <v>102</v>
+      <c r="A238" t="s">
+        <v>73</v>
       </c>
       <c r="C238" s="8"/>
       <c r="E238" s="4"/>
@@ -5316,28 +5529,28 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C239" s="8"/>
       <c r="E239" s="4"/>
       <c r="H239" s="8"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>80</v>
-      </c>
       <c r="C240" s="8"/>
       <c r="E240" s="4"/>
       <c r="H240" s="8"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="C241" s="8"/>
       <c r="E241" s="4"/>
       <c r="H241" s="8"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C242" s="8"/>
       <c r="E242" s="4"/>
@@ -5345,7 +5558,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C243" s="8"/>
       <c r="E243" s="4"/>
@@ -5357,11 +5570,17 @@
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>24</v>
+      </c>
       <c r="C245" s="8"/>
       <c r="E245" s="4"/>
       <c r="H245" s="8"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>73</v>
+      </c>
       <c r="C246" s="8"/>
       <c r="E246" s="4"/>
       <c r="H246" s="8"/>
@@ -5372,17 +5591,11 @@
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>19</v>
-      </c>
       <c r="C248" s="8"/>
       <c r="E248" s="4"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>21</v>
-      </c>
       <c r="C249" s="8"/>
       <c r="E249" s="4"/>
       <c r="H249" s="8"/>
@@ -5393,8 +5606,8 @@
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
-        <v>103</v>
+      <c r="A251" t="s">
+        <v>19</v>
       </c>
       <c r="C251" s="8"/>
       <c r="E251" s="4"/>
@@ -5402,28 +5615,28 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C252" s="8"/>
       <c r="E252" s="4"/>
       <c r="H252" s="8"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>45</v>
-      </c>
       <c r="C253" s="8"/>
       <c r="E253" s="4"/>
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="C254" s="8"/>
       <c r="E254" s="4"/>
       <c r="H254" s="8"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C255" s="8"/>
       <c r="E255" s="4"/>
@@ -5431,7 +5644,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C256" s="8"/>
       <c r="E256" s="4"/>
@@ -5444,7 +5657,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C258" s="8"/>
       <c r="E258" s="4"/>
@@ -5452,7 +5665,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C259" s="8"/>
       <c r="E259" s="4"/>
@@ -5465,7 +5678,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C261" s="8"/>
       <c r="E261" s="4"/>
@@ -5473,7 +5686,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C262" s="8"/>
       <c r="E262" s="4"/>
@@ -5486,7 +5699,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C264" s="8"/>
       <c r="E264" s="4"/>
@@ -5494,7 +5707,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C265" s="8"/>
       <c r="E265" s="4"/>
@@ -5507,7 +5720,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C267" s="8"/>
       <c r="E267" s="4"/>
@@ -5515,7 +5728,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C268" s="8"/>
       <c r="E268" s="4"/>
@@ -5528,7 +5741,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C270" s="8"/>
       <c r="E270" s="4"/>
@@ -5536,7 +5749,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C271" s="8"/>
       <c r="E271" s="4"/>
@@ -5549,7 +5762,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C273" s="8"/>
       <c r="E273" s="4"/>
@@ -5557,7 +5770,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C274" s="8"/>
       <c r="E274" s="4"/>
@@ -5570,7 +5783,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C276" s="8"/>
       <c r="E276" s="4"/>
@@ -5578,7 +5791,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C277" s="8"/>
       <c r="E277" s="4"/>
@@ -5591,7 +5804,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C279" s="8"/>
       <c r="E279" s="4"/>
@@ -5599,7 +5812,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C280" s="8"/>
       <c r="E280" s="4"/>
@@ -5612,7 +5825,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C282" s="8"/>
       <c r="E282" s="4"/>
@@ -5620,7 +5833,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C283" s="8"/>
       <c r="E283" s="4"/>
@@ -5633,7 +5846,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C285" s="8"/>
       <c r="E285" s="4"/>
@@ -5641,7 +5854,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C286" s="8"/>
       <c r="E286" s="4"/>
@@ -5654,7 +5867,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C288" s="8"/>
       <c r="E288" s="4"/>
@@ -5662,7 +5875,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C289" s="8"/>
       <c r="E289" s="4"/>
@@ -5675,7 +5888,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C291" s="8"/>
       <c r="E291" s="4"/>
@@ -5683,7 +5896,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C292" s="8"/>
       <c r="E292" s="4"/>
@@ -5696,7 +5909,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C294" s="8"/>
       <c r="E294" s="4"/>
@@ -5704,63 +5917,63 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C295" s="8"/>
       <c r="E295" s="4"/>
       <c r="H295" s="8"/>
-      <c r="R295" s="7"/>
-      <c r="T295" s="7"/>
-      <c r="W295" s="7"/>
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C296" s="8"/>
       <c r="E296" s="4"/>
       <c r="H296" s="8"/>
-      <c r="R296" s="7"/>
-      <c r="T296" s="7"/>
-      <c r="W296" s="7"/>
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C297" s="8"/>
       <c r="E297" s="4"/>
-      <c r="G297" s="7"/>
       <c r="H297" s="8"/>
-      <c r="S297" s="3"/>
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C298" s="8"/>
       <c r="E298" s="4"/>
-      <c r="G298" s="7"/>
       <c r="H298" s="8"/>
-      <c r="S298" s="3"/>
+      <c r="R298" s="7"/>
+      <c r="T298" s="7"/>
+      <c r="W298" s="7"/>
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
       <c r="E299" s="4"/>
-      <c r="G299" s="7"/>
       <c r="H299" s="8"/>
+      <c r="R299" s="7"/>
+      <c r="T299" s="7"/>
+      <c r="W299" s="7"/>
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A300" s="13" t="s">
-        <v>105</v>
+      <c r="A300" t="s">
+        <v>28</v>
       </c>
       <c r="C300" s="8"/>
       <c r="E300" s="4"/>
       <c r="G300" s="7"/>
       <c r="H300" s="8"/>
+      <c r="S300" s="3"/>
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>84</v>
+      </c>
       <c r="C301" s="8"/>
       <c r="E301" s="4"/>
       <c r="G301" s="7"/>
       <c r="H301" s="8"/>
+      <c r="S301" s="3"/>
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
@@ -5769,567 +5982,579 @@
       <c r="H302" s="8"/>
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C303" s="8"/>
       <c r="E303" s="4"/>
       <c r="G303" s="7"/>
       <c r="H303" s="8"/>
-      <c r="W303" s="4"/>
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C304" s="8"/>
       <c r="E304" s="4"/>
       <c r="G304" s="7"/>
       <c r="H304" s="8"/>
-      <c r="W304" s="4"/>
     </row>
     <row r="305" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="C305" s="8"/>
+      <c r="E305" s="4"/>
+      <c r="G305" s="7"/>
+      <c r="H305" s="8"/>
+    </row>
+    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C306" s="8"/>
+      <c r="E306" s="4"/>
+      <c r="G306" s="7"/>
+      <c r="H306" s="8"/>
+      <c r="W306" s="4"/>
+    </row>
+    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C307" s="8"/>
+      <c r="E307" s="4"/>
+      <c r="G307" s="7"/>
+      <c r="H307" s="8"/>
+      <c r="W307" s="4"/>
+    </row>
+    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>106</v>
       </c>
-      <c r="C305" s="4">
-        <f>SUM(C2:C304)</f>
+      <c r="C308" s="4">
+        <f>SUM(C2:C307)</f>
         <v>60</v>
       </c>
-      <c r="E305" s="4">
-        <f>SUM(E2:E304)</f>
+      <c r="E308" s="4">
+        <f>SUM(E2:E307)</f>
         <v>95</v>
       </c>
-      <c r="G305" s="7"/>
-      <c r="H305" s="4">
-        <f>SUM(H2:H304)</f>
+      <c r="G308" s="7"/>
+      <c r="H308" s="4">
+        <f>SUM(H2:H307)</f>
         <v>95</v>
       </c>
-      <c r="J305">
-        <f>SUM(J2:J304)</f>
+      <c r="J308">
+        <f>SUM(J2:J307)</f>
         <v>70</v>
       </c>
-      <c r="L305">
-        <f>SUM(L2:L304)</f>
+      <c r="L308">
+        <f>SUM(L2:L307)</f>
         <v>80</v>
       </c>
-      <c r="N305">
-        <f>SUM(N2:N304)</f>
+      <c r="N308">
+        <f>SUM(N2:N307)</f>
         <v>70</v>
       </c>
-      <c r="P305">
-        <f>SUM(P2:P304)</f>
+      <c r="P308">
+        <f>SUM(P2:P307)</f>
         <v>50</v>
       </c>
-      <c r="R305">
-        <f>SUM(R2:R304)</f>
+      <c r="R308">
+        <f>SUM(R2:R307)</f>
         <v>80</v>
       </c>
-      <c r="T305">
-        <f>SUM(T2:T304)</f>
+      <c r="T308">
+        <f>SUM(T2:T307)</f>
         <v>105</v>
       </c>
-      <c r="V305">
-        <f>SUM(V2:V304)</f>
+      <c r="V308">
+        <f>SUM(V2:V307)</f>
         <v>130</v>
       </c>
-      <c r="W305" s="4"/>
-      <c r="X305">
-        <f>SUM(X2:X304)</f>
+      <c r="W308" s="4"/>
+      <c r="X308">
+        <f>SUM(X2:X307)</f>
         <v>60</v>
       </c>
-      <c r="Z305">
-        <f>SUM(Z2:Z304)</f>
+      <c r="Z308">
+        <f>SUM(Z2:Z307)</f>
         <v>90</v>
       </c>
-      <c r="AB305">
-        <f>SUM(AB2:AB304)</f>
+      <c r="AB308">
+        <f>SUM(AB2:AB307)</f>
         <v>80</v>
       </c>
-      <c r="AD305">
-        <f>SUM(AD2:AD304)</f>
+      <c r="AD308">
+        <f>SUM(AD2:AD307)</f>
         <v>95</v>
       </c>
-      <c r="AF305">
-        <f>SUM(AF2:AF304)</f>
+      <c r="AF308">
+        <f>SUM(AF2:AF307)</f>
         <v>60</v>
       </c>
-      <c r="AG305" s="4">
-        <f>SUM(C305:AF305)</f>
+      <c r="AG308" s="4">
+        <f>SUM(C308:AF308)</f>
         <v>1220</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G306" s="7"/>
-      <c r="H306" s="7"/>
-      <c r="W306" s="4"/>
-    </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G307" s="7"/>
-      <c r="H307" s="7"/>
-      <c r="W307" s="4"/>
-    </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
-      <c r="W308" s="4"/>
-    </row>
     <row r="309" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>107</v>
-      </c>
-      <c r="B309" t="s">
-        <v>71</v>
-      </c>
-      <c r="D309" t="s">
-        <v>75</v>
-      </c>
-      <c r="F309" t="s">
-        <v>81</v>
-      </c>
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
-      <c r="I309" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="W309" s="4"/>
     </row>
     <row r="310" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>2</v>
-      </c>
-      <c r="B310">
-        <v>45</v>
-      </c>
-      <c r="D310" t="s">
-        <v>2</v>
-      </c>
-      <c r="E310">
-        <v>85</v>
-      </c>
-      <c r="F310" t="s">
-        <v>10</v>
-      </c>
-      <c r="H310">
-        <v>95</v>
-      </c>
-      <c r="I310" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J310">
-        <v>130</v>
-      </c>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
       <c r="W310" s="4"/>
     </row>
     <row r="311" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>14</v>
-      </c>
-      <c r="B311">
-        <v>45</v>
-      </c>
-      <c r="D311" t="s">
-        <v>108</v>
-      </c>
-      <c r="E311">
-        <v>75</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G311">
-        <v>85</v>
-      </c>
-      <c r="H311">
-        <v>85</v>
-      </c>
-      <c r="I311" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J311">
-        <v>105</v>
-      </c>
+      <c r="G311" s="7"/>
+      <c r="H311" s="7"/>
       <c r="W311" s="4"/>
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>109</v>
-      </c>
-      <c r="B312">
-        <v>20</v>
+        <v>107</v>
+      </c>
+      <c r="B312" t="s">
+        <v>71</v>
       </c>
       <c r="D312" t="s">
-        <v>9</v>
-      </c>
-      <c r="E312">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F312" t="s">
-        <v>9</v>
-      </c>
-      <c r="H312">
-        <v>85</v>
-      </c>
-      <c r="I312" t="s">
-        <v>2</v>
-      </c>
-      <c r="J312">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="G312" s="7"/>
+      <c r="H312" s="7"/>
+      <c r="I312" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="W312" s="4"/>
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D313" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E313">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H313">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I313" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J313">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="W313" s="4"/>
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B314">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D314" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E314">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G314">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H314">
-        <v>80</v>
-      </c>
-      <c r="I314" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="I314" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J314">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="W314" s="4"/>
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B315">
         <v>20</v>
       </c>
       <c r="D315" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E315">
-        <v>50</v>
-      </c>
-      <c r="F315" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G315">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F315" t="s">
+        <v>9</v>
       </c>
       <c r="H315">
-        <v>80</v>
-      </c>
-      <c r="I315" s="4" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="I315" t="s">
+        <v>2</v>
       </c>
       <c r="J315">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W315" s="4"/>
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B316">
         <v>20</v>
       </c>
       <c r="D316" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E316">
-        <v>50</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
       </c>
       <c r="H316">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I316" s="4" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="J316">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="W316" s="4"/>
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B317">
         <v>20</v>
       </c>
       <c r="D317" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E317">
         <v>50</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G317">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H317">
-        <v>60</v>
-      </c>
-      <c r="I317" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="I317" t="s">
+        <v>14</v>
       </c>
       <c r="J317">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="W317" s="4"/>
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E318">
         <v>50</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="G318">
+        <v>60</v>
       </c>
       <c r="H318">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I318" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J318">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W318" s="4"/>
     </row>
     <row r="319" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D319" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E319">
         <v>50</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G319">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H319">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="J319">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W319" s="4"/>
     </row>
     <row r="320" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E320">
+        <v>50</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G320">
         <v>40</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G320">
-        <v>60</v>
       </c>
       <c r="H320">
         <v>60</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J320">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W320" s="4"/>
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B321">
         <v>10</v>
       </c>
       <c r="D321" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E321">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G321">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H321">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J321">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W321" s="4"/>
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
         <v>15</v>
       </c>
-      <c r="B322">
-        <v>10</v>
-      </c>
-      <c r="D322" t="s">
-        <v>3</v>
-      </c>
       <c r="E322">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G322">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H322">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J322">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W322" s="4"/>
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D323" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E323">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G323">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H323">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J323">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W323" s="4"/>
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324">
+        <v>10</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>40</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G324">
+        <v>40</v>
+      </c>
+      <c r="H324">
+        <v>50</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>60</v>
+      </c>
+      <c r="W324" s="4"/>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325">
+        <v>30</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G325">
+        <v>50</v>
+      </c>
+      <c r="H325">
+        <v>50</v>
+      </c>
+      <c r="I325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J325">
+        <v>60</v>
+      </c>
+      <c r="W325" s="4"/>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326">
+        <v>30</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G326">
+        <v>50</v>
+      </c>
+      <c r="H326">
+        <v>50</v>
+      </c>
+      <c r="I326" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J326">
+        <v>60</v>
+      </c>
+      <c r="W326" s="4"/>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>9</v>
       </c>
-      <c r="B324">
+      <c r="B327">
         <v>0</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D327" t="s">
         <v>0</v>
       </c>
-      <c r="E324">
-        <v>20</v>
-      </c>
-      <c r="F324" s="4" t="s">
+      <c r="E327">
+        <v>20</v>
+      </c>
+      <c r="F327" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G324">
+      <c r="G327">
         <v>30</v>
       </c>
-      <c r="H324">
+      <c r="H327">
         <v>40</v>
       </c>
-      <c r="I324" s="4" t="s">
+      <c r="I327" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J324">
+      <c r="J327">
         <v>50</v>
       </c>
-      <c r="W324" s="4"/>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W325" s="4"/>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W326" s="4"/>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W327" s="4"/>
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.25">
@@ -6374,8 +6599,17 @@
     <row r="341" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W341" s="4"/>
     </row>
-    <row r="347" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B347" s="7"/>
+    <row r="342" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W342" s="4"/>
+    </row>
+    <row r="343" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W343" s="4"/>
+    </row>
+    <row r="344" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W344" s="4"/>
+    </row>
+    <row r="350" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B350" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/NFL PREDICTIONS 2022.xlsx
+++ b/Files/NFL PREDICTIONS 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\jpvollaro_git\football_picks_webapp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC04C7A-BF60-4B74-9603-20F4E6831F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B9AC7-3E60-452D-9A3E-C75B252DD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25365" yWindow="1110" windowWidth="25140" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="114">
   <si>
     <t>KERRY</t>
   </si>
@@ -75,304 +75,307 @@
     <t>JORDAN</t>
   </si>
   <si>
+    <t>MICHAEL_</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>OLIVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final </t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>AFC CHAMP</t>
+  </si>
+  <si>
+    <t>BILLS</t>
+  </si>
+  <si>
+    <t>CHIEFS</t>
+  </si>
+  <si>
+    <t>BENGALS</t>
+  </si>
+  <si>
+    <t>COLTS</t>
+  </si>
+  <si>
+    <t>NFC CHAMP</t>
+  </si>
+  <si>
+    <t>RAMS</t>
+  </si>
+  <si>
+    <t>VIKINGS</t>
+  </si>
+  <si>
+    <t>BUCCANEERS</t>
+  </si>
+  <si>
+    <t>EAGLES</t>
+  </si>
+  <si>
+    <t>CARDINALS</t>
+  </si>
+  <si>
+    <t>PACKERS</t>
+  </si>
+  <si>
+    <t>COWBOYS</t>
+  </si>
+  <si>
+    <t>SUPERBOWL CHAMP</t>
+  </si>
+  <si>
+    <t>LEAGUE MVP</t>
+  </si>
+  <si>
+    <t>BURROW</t>
+  </si>
+  <si>
+    <t>MAHOMES</t>
+  </si>
+  <si>
+    <t>MATT RYAN</t>
+  </si>
+  <si>
+    <t>JOSH ALLEN</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>HERBERT</t>
+  </si>
+  <si>
+    <t>RODGERS</t>
+  </si>
+  <si>
+    <t>BEST RECORD</t>
+  </si>
+  <si>
+    <t>RAVENS</t>
+  </si>
+  <si>
+    <t>WORST RECORD</t>
+  </si>
+  <si>
+    <t>TEXANS</t>
+  </si>
+  <si>
+    <t>JETS</t>
+  </si>
+  <si>
+    <t>FALCONS</t>
+  </si>
+  <si>
+    <t>JAGUARS</t>
+  </si>
+  <si>
+    <t>SEAHAWKS</t>
+  </si>
+  <si>
+    <t>BEARS</t>
+  </si>
+  <si>
+    <t>PANTHERS</t>
+  </si>
+  <si>
+    <t>FIRST COACH FIRED</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RAIDERS</t>
+  </si>
+  <si>
+    <t>PATRIOTS</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>FAVORITE TEAM REGULAR SEASON RECORD</t>
+  </si>
+  <si>
+    <t>VIKINGS 15-2</t>
+  </si>
+  <si>
+    <t>TITIANS 14-3</t>
+  </si>
+  <si>
+    <t>COWBOYS 12 AND 5</t>
+  </si>
+  <si>
+    <t>GIANTS_3 6 AND 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEELERS 9 AND 8 </t>
+  </si>
+  <si>
+    <t>DOLPHINS 10AND7</t>
+  </si>
+  <si>
+    <t>PATROITS 10 AND 7</t>
+  </si>
+  <si>
+    <t>CHARGERS 11 AND 6</t>
+  </si>
+  <si>
+    <t>BENGALS 12 AND 5</t>
+  </si>
+  <si>
+    <t>RAIDERS 10 AND 7</t>
+  </si>
+  <si>
+    <t>PANTHERS_1 8 AND 9</t>
+  </si>
+  <si>
+    <t>PANTHERS_2 6 AND 11</t>
+  </si>
+  <si>
+    <t>GIANTS_1 4 and 13</t>
+  </si>
+  <si>
+    <t>GIANTS_2 9 AND 8</t>
+  </si>
+  <si>
+    <t>GIANTS_4 7 AND 10</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCCANEERS </t>
+  </si>
+  <si>
+    <t>CHARGERS</t>
+  </si>
+  <si>
+    <t>BRONCOS</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>CHIFS</t>
+  </si>
+  <si>
+    <t>CHEIFS</t>
+  </si>
+  <si>
+    <t>COMMANDERS</t>
+  </si>
+  <si>
+    <t>LIONS</t>
+  </si>
+  <si>
+    <t>TITANS</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>STEELERS</t>
+  </si>
+  <si>
+    <t>BROWNS</t>
+  </si>
+  <si>
+    <t>49ERS</t>
+  </si>
+  <si>
+    <t>49ers</t>
+  </si>
+  <si>
+    <t>DOLPHINS</t>
+  </si>
+  <si>
+    <t>GIANTS</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>SAINTS</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
+  </si>
+  <si>
+    <t>WEEK 11</t>
+  </si>
+  <si>
+    <t>WEEK 12</t>
+  </si>
+  <si>
+    <t>WEEK 13</t>
+  </si>
+  <si>
+    <t>WEEK 14</t>
+  </si>
+  <si>
+    <t>WEEK 15</t>
+  </si>
+  <si>
+    <t>WEEK 16</t>
+  </si>
+  <si>
+    <t>WEEK 17</t>
+  </si>
+  <si>
+    <t>WEEK 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIOTS </t>
+  </si>
+  <si>
+    <t>PLAYOFFS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>STANDINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMES </t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHAEL </t>
+  </si>
+  <si>
     <t>MICAHEL</t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>OLIVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final </t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>AFC CHAMP</t>
-  </si>
-  <si>
-    <t>BILLS</t>
-  </si>
-  <si>
-    <t>CHIEFS</t>
-  </si>
-  <si>
-    <t>BENGALS</t>
-  </si>
-  <si>
-    <t>COLTS</t>
-  </si>
-  <si>
-    <t>NFC CHAMP</t>
-  </si>
-  <si>
-    <t>RAMS</t>
-  </si>
-  <si>
-    <t>VIKINGS</t>
-  </si>
-  <si>
-    <t>BUCCANEERS</t>
-  </si>
-  <si>
-    <t>EAGLES</t>
-  </si>
-  <si>
-    <t>CARDINALS</t>
-  </si>
-  <si>
-    <t>PACKERS</t>
-  </si>
-  <si>
-    <t>COWBOYS</t>
-  </si>
-  <si>
-    <t>SUPERBOWL CHAMP</t>
-  </si>
-  <si>
-    <t>LEAGUE MVP</t>
-  </si>
-  <si>
-    <t>BURROW</t>
-  </si>
-  <si>
-    <t>MAHOMES</t>
-  </si>
-  <si>
-    <t>MATT RYAN</t>
-  </si>
-  <si>
-    <t>JOSH ALLEN</t>
-  </si>
-  <si>
-    <t>ALLEN</t>
-  </si>
-  <si>
-    <t>HERBERT</t>
-  </si>
-  <si>
-    <t>RODGERS</t>
-  </si>
-  <si>
-    <t>BEST RECORD</t>
-  </si>
-  <si>
-    <t>RAVENS</t>
-  </si>
-  <si>
-    <t>WORST RECORD</t>
-  </si>
-  <si>
-    <t>TEXANS</t>
-  </si>
-  <si>
-    <t>JETS</t>
-  </si>
-  <si>
-    <t>FALCONS</t>
-  </si>
-  <si>
-    <t>JAGUARS</t>
-  </si>
-  <si>
-    <t>SEAHAWKS</t>
-  </si>
-  <si>
-    <t>BEARS</t>
-  </si>
-  <si>
-    <t>PANTHERS</t>
-  </si>
-  <si>
-    <t>FIRST COACH FIRED</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RAIDERS</t>
-  </si>
-  <si>
-    <t>PATRIOTS</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>FAVORITE TEAM REGULAR SEASON RECORD</t>
-  </si>
-  <si>
-    <t>VIKINGS 15-2</t>
-  </si>
-  <si>
-    <t>TITIANS 14-3</t>
-  </si>
-  <si>
-    <t>COWBOYS 12 AND 5</t>
-  </si>
-  <si>
-    <t>GIANTS_3 6 AND 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEELERS 9 AND 8 </t>
-  </si>
-  <si>
-    <t>DOLPHINS 10AND7</t>
-  </si>
-  <si>
-    <t>PATROITS 10 AND 7</t>
-  </si>
-  <si>
-    <t>CHARGERS 11 AND 6</t>
-  </si>
-  <si>
-    <t>BENGALS 12 AND 5</t>
-  </si>
-  <si>
-    <t>RAIDERS 10 AND 7</t>
-  </si>
-  <si>
-    <t>PANTHERS_1 8 AND 9</t>
-  </si>
-  <si>
-    <t>PANTHERS_2 6 AND 11</t>
-  </si>
-  <si>
-    <t>GIANTS_1 4 and 13</t>
-  </si>
-  <si>
-    <t>GIANTS_2 9 AND 8</t>
-  </si>
-  <si>
-    <t>GIANTS_4 7 AND 10</t>
-  </si>
-  <si>
-    <t>WEEK 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCCANEERS </t>
-  </si>
-  <si>
-    <t>CHARGERS</t>
-  </si>
-  <si>
-    <t>BRONCOS</t>
-  </si>
-  <si>
-    <t>WEEK 2</t>
-  </si>
-  <si>
-    <t>CHIFS</t>
-  </si>
-  <si>
-    <t>CHEIFS</t>
-  </si>
-  <si>
-    <t>COMMANDERS</t>
-  </si>
-  <si>
-    <t>LIONS</t>
-  </si>
-  <si>
-    <t>TITANS</t>
-  </si>
-  <si>
-    <t>WEEK 3</t>
-  </si>
-  <si>
-    <t>STEELERS</t>
-  </si>
-  <si>
-    <t>BROWNS</t>
-  </si>
-  <si>
-    <t>49ERS</t>
-  </si>
-  <si>
-    <t>49ers</t>
-  </si>
-  <si>
-    <t>DOLPHINS</t>
-  </si>
-  <si>
-    <t>GIANTS</t>
-  </si>
-  <si>
-    <t>WEEK 4</t>
-  </si>
-  <si>
-    <t>WEEK 5</t>
-  </si>
-  <si>
-    <t>WEEK 6</t>
-  </si>
-  <si>
-    <t>WEEK 7</t>
-  </si>
-  <si>
-    <t>SAINTS</t>
-  </si>
-  <si>
-    <t>WEEK 8</t>
-  </si>
-  <si>
-    <t>WEEK 9</t>
-  </si>
-  <si>
-    <t>WEEK 10</t>
-  </si>
-  <si>
-    <t>WEEK 11</t>
-  </si>
-  <si>
-    <t>WEEK 12</t>
-  </si>
-  <si>
-    <t>WEEK 13</t>
-  </si>
-  <si>
-    <t>WEEK 14</t>
-  </si>
-  <si>
-    <t>WEEK 15</t>
-  </si>
-  <si>
-    <t>WEEK 16</t>
-  </si>
-  <si>
-    <t>WEEK 17</t>
-  </si>
-  <si>
-    <t>WEEK 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRIOTS </t>
-  </si>
-  <si>
-    <t>PLAYOFFS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>STANDINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAMES </t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHAEL </t>
   </si>
 </sst>
 </file>
@@ -847,12 +850,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG350"/>
+  <dimension ref="A1:AG353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A88" sqref="A88"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="K220" sqref="K220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +866,7 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
@@ -995,7 +998,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2">
-        <v>0</v>
+        <v>-255</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1028,20 +1031,20 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-140</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AG2">
         <f>SUM(C2:AF2)</f>
-        <v>0</v>
+        <v>-660</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -4886,7 +4889,7 @@
       <c r="E144" s="4"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>96</v>
       </c>
@@ -4894,543 +4897,1614 @@
       <c r="E145" s="4"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>80</v>
       </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
       <c r="C146" s="8"/>
       <c r="E146" s="4"/>
+      <c r="F146" t="s">
+        <v>80</v>
+      </c>
       <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>80</v>
+      </c>
+      <c r="O146" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>80</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="8"/>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
       <c r="E147" s="4"/>
       <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K147" t="s">
+        <v>29</v>
+      </c>
+      <c r="U147" t="s">
+        <v>29</v>
+      </c>
+      <c r="W147" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C148" s="8"/>
       <c r="E148" s="4"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
       <c r="C149" s="8"/>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
       <c r="E149" s="4"/>
       <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" t="s">
+        <v>20</v>
+      </c>
+      <c r="M149" t="s">
+        <v>20</v>
+      </c>
+      <c r="O149" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>20</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U149" t="s">
+        <v>20</v>
+      </c>
+      <c r="W149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="8"/>
       <c r="E150" s="4"/>
+      <c r="F150" t="s">
+        <v>73</v>
+      </c>
       <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AC150" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C151" s="8"/>
       <c r="E151" s="4"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>30</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C152" s="8"/>
+      <c r="D152">
+        <v>17</v>
+      </c>
       <c r="E152" s="4"/>
+      <c r="F152">
+        <v>38</v>
+      </c>
       <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="4">
+        <v>27</v>
+      </c>
+      <c r="K152">
+        <v>27</v>
+      </c>
+      <c r="M152">
+        <v>24</v>
+      </c>
+      <c r="O152">
+        <v>10</v>
+      </c>
+      <c r="Q152">
+        <v>24</v>
+      </c>
+      <c r="S152" s="2">
+        <v>23</v>
+      </c>
+      <c r="U152">
+        <v>24</v>
+      </c>
+      <c r="W152">
+        <v>33</v>
+      </c>
+      <c r="AA152">
+        <v>10</v>
+      </c>
+      <c r="AC152">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>25</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C153" s="8"/>
+      <c r="D153">
+        <v>27</v>
+      </c>
       <c r="E153" s="4"/>
+      <c r="F153">
+        <v>23</v>
+      </c>
       <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="4">
+        <v>24</v>
+      </c>
+      <c r="K153">
+        <v>24</v>
+      </c>
+      <c r="M153">
+        <v>21</v>
+      </c>
+      <c r="O153">
+        <v>24</v>
+      </c>
+      <c r="Q153">
+        <v>28</v>
+      </c>
+      <c r="S153" s="2">
+        <v>31</v>
+      </c>
+      <c r="U153">
+        <v>28</v>
+      </c>
+      <c r="W153">
+        <v>29</v>
+      </c>
+      <c r="AA153">
+        <v>7</v>
+      </c>
+      <c r="AC153">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C154" s="8"/>
       <c r="E154" s="4"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="B155" t="s">
+        <v>84</v>
       </c>
       <c r="C155" s="8"/>
       <c r="E155" s="4"/>
+      <c r="F155" t="s">
+        <v>84</v>
+      </c>
       <c r="H155" s="8"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K155" t="s">
+        <v>84</v>
+      </c>
+      <c r="M155" t="s">
+        <v>84</v>
+      </c>
+      <c r="O155" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>84</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U155" t="s">
+        <v>84</v>
+      </c>
+      <c r="W155" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C156" s="8"/>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
       <c r="E156" s="4"/>
       <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AC156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C157" s="8"/>
       <c r="E157" s="4"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>84</v>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C158" s="8"/>
       <c r="E158" s="4"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
       </c>
       <c r="C159" s="8"/>
+      <c r="D159">
+        <v>34</v>
+      </c>
       <c r="E159" s="4"/>
+      <c r="F159">
+        <v>38</v>
+      </c>
       <c r="H159" s="8"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="4">
+        <v>26</v>
+      </c>
+      <c r="K159">
+        <v>30</v>
+      </c>
+      <c r="M159">
+        <v>24</v>
+      </c>
+      <c r="O159">
+        <v>31</v>
+      </c>
+      <c r="Q159">
+        <v>34</v>
+      </c>
+      <c r="S159" s="2">
+        <v>20</v>
+      </c>
+      <c r="U159">
+        <v>30</v>
+      </c>
+      <c r="W159">
+        <v>42</v>
+      </c>
+      <c r="Y159">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>79</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
       <c r="C160" s="8"/>
+      <c r="D160">
+        <v>14</v>
+      </c>
       <c r="E160" s="4"/>
+      <c r="F160">
+        <v>20</v>
+      </c>
       <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="I160" s="4">
+        <v>22</v>
+      </c>
+      <c r="K160">
+        <v>17</v>
+      </c>
+      <c r="M160">
+        <v>14</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="Q160">
+        <v>27</v>
+      </c>
+      <c r="S160" s="2">
+        <v>27</v>
+      </c>
+      <c r="U160">
+        <v>20</v>
+      </c>
+      <c r="W160">
+        <v>24</v>
+      </c>
+      <c r="Y160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C161" s="8"/>
       <c r="E161" s="4"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
       </c>
       <c r="C162" s="8"/>
+      <c r="D162">
+        <v>14</v>
+      </c>
       <c r="E162" s="4"/>
+      <c r="F162">
+        <v>24</v>
+      </c>
       <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="4">
+        <v>10</v>
+      </c>
+      <c r="K162">
+        <v>13</v>
+      </c>
+      <c r="M162">
+        <v>24</v>
+      </c>
+      <c r="O162">
+        <v>10</v>
+      </c>
+      <c r="Q162">
+        <v>17</v>
+      </c>
+      <c r="S162" s="2">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>21</v>
+      </c>
+      <c r="W162">
+        <v>13</v>
+      </c>
+      <c r="Y162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
       </c>
       <c r="C163" s="8"/>
+      <c r="D163">
+        <v>34</v>
+      </c>
       <c r="E163" s="4"/>
+      <c r="F163">
+        <v>34</v>
+      </c>
       <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="4">
+        <v>31</v>
+      </c>
+      <c r="K163">
+        <v>27</v>
+      </c>
+      <c r="M163">
+        <v>21</v>
+      </c>
+      <c r="O163">
+        <v>21</v>
+      </c>
+      <c r="Q163">
+        <v>24</v>
+      </c>
+      <c r="S163" s="2">
+        <v>41</v>
+      </c>
+      <c r="U163">
+        <v>28</v>
+      </c>
+      <c r="W163">
+        <v>35</v>
+      </c>
+      <c r="Y163">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C164" s="8"/>
       <c r="E164" s="4"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
       </c>
       <c r="C165" s="8"/>
+      <c r="D165">
+        <v>14</v>
+      </c>
       <c r="E165" s="4"/>
+      <c r="F165">
+        <v>27</v>
+      </c>
       <c r="H165" s="8"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="4">
+        <v>17</v>
+      </c>
+      <c r="K165">
+        <v>17</v>
+      </c>
+      <c r="M165">
+        <v>10</v>
+      </c>
+      <c r="O165">
+        <v>13</v>
+      </c>
+      <c r="Q165">
+        <v>13</v>
+      </c>
+      <c r="S165" s="2">
+        <v>13</v>
+      </c>
+      <c r="U165">
+        <v>24</v>
+      </c>
+      <c r="W165">
+        <v>17</v>
+      </c>
+      <c r="Y165">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
       </c>
       <c r="C166" s="8"/>
+      <c r="D166">
+        <v>34</v>
+      </c>
       <c r="E166" s="4"/>
+      <c r="F166">
+        <v>23</v>
+      </c>
       <c r="H166" s="8"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="4">
+        <v>22</v>
+      </c>
+      <c r="K166">
+        <v>23</v>
+      </c>
+      <c r="M166">
+        <v>21</v>
+      </c>
+      <c r="O166">
+        <v>10</v>
+      </c>
+      <c r="Q166">
+        <v>21</v>
+      </c>
+      <c r="S166" s="2">
+        <v>24</v>
+      </c>
+      <c r="U166">
+        <v>28</v>
+      </c>
+      <c r="W166">
+        <v>24</v>
+      </c>
+      <c r="Y166">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C167" s="8"/>
       <c r="E167" s="4"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C168" s="8"/>
       <c r="E168" s="4"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C169" s="8"/>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
       <c r="E169" s="4"/>
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
       <c r="H169" s="8"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169" t="s">
+        <v>27</v>
+      </c>
+      <c r="M169" t="s">
+        <v>27</v>
+      </c>
+      <c r="O169" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>27</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U169" t="s">
+        <v>27</v>
+      </c>
+      <c r="W169" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C170" s="8"/>
       <c r="E170" s="4"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>29</v>
-      </c>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C171" s="8"/>
       <c r="E171" s="4"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>27</v>
-      </c>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C172" s="8"/>
       <c r="E172" s="4"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C173" s="8"/>
       <c r="E173" s="4"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>82</v>
+      </c>
       <c r="C174" s="8"/>
+      <c r="D174" t="s">
+        <v>82</v>
+      </c>
       <c r="E174" s="4"/>
       <c r="H174" s="8"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K174" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>22</v>
+      </c>
       <c r="C175" s="8"/>
       <c r="E175" s="4"/>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
       <c r="H175" s="8"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M175" t="s">
+        <v>22</v>
+      </c>
+      <c r="O175" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>22</v>
+      </c>
+      <c r="S175" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U175" t="s">
+        <v>22</v>
+      </c>
+      <c r="W175" t="s">
+        <v>22</v>
+      </c>
+      <c r="X175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C176" s="8"/>
       <c r="E176" s="4"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>82</v>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C177" s="8"/>
       <c r="E177" s="4"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C178" s="8"/>
+      <c r="D178" t="s">
+        <v>19</v>
+      </c>
       <c r="E178" s="4"/>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
       <c r="H178" s="8"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K178" t="s">
+        <v>19</v>
+      </c>
+      <c r="M178" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>19</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U178" t="s">
+        <v>19</v>
+      </c>
+      <c r="W178" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>53</v>
+      </c>
       <c r="C179" s="8"/>
       <c r="E179" s="4"/>
       <c r="H179" s="8"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="O179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C180" s="8"/>
       <c r="E180" s="4"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C181" s="8"/>
       <c r="E181" s="4"/>
       <c r="H181" s="8"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>22</v>
+      </c>
+      <c r="W181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C182" s="8"/>
+      <c r="D182" t="s">
+        <v>30</v>
+      </c>
       <c r="E182" s="4"/>
+      <c r="F182" t="s">
+        <v>30</v>
+      </c>
       <c r="H182" s="8"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K182" t="s">
+        <v>30</v>
+      </c>
+      <c r="O182" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>30</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U182" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C183" s="8"/>
       <c r="E183" s="4"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
       </c>
       <c r="C184" s="8"/>
+      <c r="D184">
+        <v>21</v>
+      </c>
       <c r="E184" s="4"/>
+      <c r="F184">
+        <v>24</v>
+      </c>
       <c r="H184" s="8"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="4">
+        <v>27</v>
+      </c>
+      <c r="K184">
+        <v>27</v>
+      </c>
+      <c r="M184">
+        <v>28</v>
+      </c>
+      <c r="O184">
+        <v>10</v>
+      </c>
+      <c r="Q184">
+        <v>20</v>
+      </c>
+      <c r="S184" s="2">
+        <v>23</v>
+      </c>
+      <c r="U184">
+        <v>28</v>
+      </c>
+      <c r="W184">
+        <v>23</v>
+      </c>
+      <c r="AA184">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>84</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185">
+        <v>17</v>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185">
         <v>30</v>
       </c>
-      <c r="C185" s="8"/>
-      <c r="E185" s="4"/>
       <c r="H185" s="8"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="4">
+        <v>23</v>
+      </c>
+      <c r="K185">
+        <v>31</v>
+      </c>
+      <c r="M185">
+        <v>24</v>
+      </c>
+      <c r="O185">
+        <v>35</v>
+      </c>
+      <c r="Q185">
+        <v>23</v>
+      </c>
+      <c r="S185" s="2">
+        <v>30</v>
+      </c>
+      <c r="U185">
+        <v>23</v>
+      </c>
+      <c r="W185">
+        <v>27</v>
+      </c>
+      <c r="AA185">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C186" s="8"/>
       <c r="E186" s="4"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>92</v>
+      </c>
       <c r="C187" s="8"/>
       <c r="E187" s="4"/>
+      <c r="F187" t="s">
+        <v>92</v>
+      </c>
       <c r="H187" s="8"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>92</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>26</v>
+      </c>
       <c r="C188" s="8"/>
+      <c r="D188" t="s">
+        <v>26</v>
+      </c>
       <c r="E188" s="4"/>
       <c r="H188" s="8"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K188" t="s">
+        <v>26</v>
+      </c>
+      <c r="O188" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>26</v>
+      </c>
+      <c r="U188" t="s">
+        <v>26</v>
+      </c>
+      <c r="W188" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C189" s="8"/>
       <c r="E189" s="4"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>92</v>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C190" s="8"/>
       <c r="E190" s="4"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C191" s="8"/>
       <c r="E191" s="4"/>
+      <c r="F191" t="s">
+        <v>52</v>
+      </c>
       <c r="H191" s="8"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K191" t="s">
+        <v>52</v>
+      </c>
+      <c r="O191" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>52</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U191" t="s">
+        <v>52</v>
+      </c>
+      <c r="W191" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
       <c r="C192" s="8"/>
+      <c r="D192" t="s">
+        <v>24</v>
+      </c>
       <c r="E192" s="4"/>
       <c r="H192" s="8"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="M192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C193" s="8"/>
       <c r="E193" s="4"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C194" s="8"/>
+      <c r="D194" t="s">
+        <v>86</v>
+      </c>
       <c r="E194" s="4"/>
+      <c r="F194" t="s">
+        <v>86</v>
+      </c>
       <c r="H194" s="8"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M194" t="s">
+        <v>86</v>
+      </c>
+      <c r="O194" t="s">
+        <v>86</v>
+      </c>
+      <c r="U194" t="s">
+        <v>86</v>
+      </c>
+      <c r="W194" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C195" s="8"/>
       <c r="E195" s="4"/>
       <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K195" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>73</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C196" s="8"/>
       <c r="E196" s="4"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
       </c>
       <c r="C197" s="8"/>
+      <c r="D197">
+        <v>21</v>
+      </c>
       <c r="E197" s="4"/>
+      <c r="F197">
+        <v>13</v>
+      </c>
       <c r="H197" s="8"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="4">
+        <v>15</v>
+      </c>
+      <c r="K197">
+        <v>23</v>
+      </c>
+      <c r="M197">
+        <v>10</v>
+      </c>
+      <c r="O197">
+        <v>13</v>
+      </c>
+      <c r="Q197">
+        <v>26</v>
+      </c>
+      <c r="S197" s="2">
+        <v>20</v>
+      </c>
+      <c r="U197">
+        <v>10</v>
+      </c>
+      <c r="W197">
+        <v>14</v>
+      </c>
+      <c r="Y197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
       </c>
       <c r="C198" s="8"/>
+      <c r="D198">
+        <v>27</v>
+      </c>
       <c r="E198" s="4"/>
+      <c r="F198">
+        <v>24</v>
+      </c>
       <c r="H198" s="8"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="4">
+        <v>22</v>
+      </c>
+      <c r="K198">
+        <v>20</v>
+      </c>
+      <c r="M198">
+        <v>10</v>
+      </c>
+      <c r="O198">
+        <v>21</v>
+      </c>
+      <c r="Q198">
+        <v>24</v>
+      </c>
+      <c r="S198" s="2">
+        <v>17</v>
+      </c>
+      <c r="U198">
+        <v>10</v>
+      </c>
+      <c r="W198">
+        <v>27</v>
+      </c>
+      <c r="Y198">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C199" s="8"/>
       <c r="E199" s="4"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>53</v>
+      </c>
       <c r="C200" s="8"/>
+      <c r="D200" t="s">
+        <v>53</v>
+      </c>
       <c r="E200" s="4"/>
+      <c r="F200" t="s">
+        <v>53</v>
+      </c>
       <c r="H200" s="8"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O200" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
       <c r="C201" s="8"/>
       <c r="E201" s="4"/>
       <c r="H201" s="8"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K201" t="s">
+        <v>28</v>
+      </c>
+      <c r="M201" t="s">
+        <v>28</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U201" t="s">
+        <v>28</v>
+      </c>
+      <c r="W201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C202" s="8"/>
       <c r="E202" s="4"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>53</v>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A203" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C203" s="8"/>
       <c r="E203" s="4"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C204" s="8"/>
       <c r="E204" s="4"/>
+      <c r="F204" t="s">
+        <v>84</v>
+      </c>
       <c r="H204" s="8"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q204" t="s">
+        <v>84</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W204" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
       <c r="C205" s="8"/>
       <c r="E205" s="4"/>
       <c r="H205" s="8"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="I205" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M205" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O205" t="s">
+        <v>47</v>
+      </c>
+      <c r="U205" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C206" s="8"/>
       <c r="E206" s="4"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C207" s="8"/>
       <c r="E207" s="4"/>
       <c r="H207" s="8"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O207" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C208" s="8"/>
       <c r="E208" s="4"/>
+      <c r="F208" t="s">
+        <v>78</v>
+      </c>
       <c r="H208" s="8"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K208" t="s">
+        <v>78</v>
+      </c>
+      <c r="M208" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>78</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U208" t="s">
+        <v>78</v>
+      </c>
+      <c r="W208" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
       <c r="E209" s="4"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
       </c>
       <c r="C210" s="8"/>
       <c r="E210" s="4"/>
+      <c r="F210">
+        <v>17</v>
+      </c>
       <c r="H210" s="8"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="4">
+        <v>17</v>
+      </c>
+      <c r="K210">
+        <v>17</v>
+      </c>
+      <c r="O210">
+        <v>21</v>
+      </c>
+      <c r="Q210">
+        <v>24</v>
+      </c>
+      <c r="S210" s="2">
+        <v>31</v>
+      </c>
+      <c r="U210">
+        <v>17</v>
+      </c>
+      <c r="W210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
       </c>
       <c r="C211" s="8"/>
       <c r="E211" s="4"/>
+      <c r="F211">
+        <v>24</v>
+      </c>
       <c r="H211" s="8"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="4">
+        <v>28</v>
+      </c>
+      <c r="K211">
+        <v>31</v>
+      </c>
+      <c r="O211">
+        <v>28</v>
+      </c>
+      <c r="Q211">
+        <v>27</v>
+      </c>
+      <c r="S211" s="2">
+        <v>27</v>
+      </c>
+      <c r="U211">
+        <v>30</v>
+      </c>
+      <c r="W211">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
       <c r="E212" s="4"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213">
+        <v>99</v>
+      </c>
       <c r="C213" s="8"/>
       <c r="E213" s="4"/>
+      <c r="F213">
+        <v>17</v>
+      </c>
       <c r="H213" s="8"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="4">
+        <v>20</v>
+      </c>
+      <c r="K213">
+        <v>24</v>
+      </c>
+      <c r="O213">
+        <v>19</v>
+      </c>
+      <c r="Q213">
+        <v>21</v>
+      </c>
+      <c r="S213" s="2">
+        <v>20</v>
+      </c>
+      <c r="U213">
+        <v>20</v>
+      </c>
+      <c r="W213">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>83</v>
+      </c>
+      <c r="B214">
+        <v>99</v>
+      </c>
       <c r="C214" s="8"/>
       <c r="E214" s="4"/>
+      <c r="F214">
+        <v>34</v>
+      </c>
       <c r="H214" s="8"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="4">
+        <v>13</v>
+      </c>
+      <c r="K214">
+        <v>20</v>
+      </c>
+      <c r="O214">
+        <v>11</v>
+      </c>
+      <c r="Q214">
+        <v>20</v>
+      </c>
+      <c r="S214" s="2">
+        <v>17</v>
+      </c>
+      <c r="U214">
+        <v>24</v>
+      </c>
+      <c r="W214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
       <c r="E215" s="4"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
       </c>
       <c r="C216" s="8"/>
       <c r="E216" s="4"/>
+      <c r="F216">
+        <v>17</v>
+      </c>
       <c r="H216" s="8"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="4">
+        <v>20</v>
+      </c>
+      <c r="K216">
+        <v>17</v>
+      </c>
+      <c r="O216">
+        <v>28</v>
+      </c>
+      <c r="Q216">
+        <v>27</v>
+      </c>
+      <c r="S216" s="2">
+        <v>27</v>
+      </c>
+      <c r="U216">
+        <v>26</v>
+      </c>
+      <c r="W216">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
       </c>
       <c r="C217" s="8"/>
       <c r="E217" s="4"/>
+      <c r="F217">
+        <v>30</v>
+      </c>
       <c r="H217" s="8"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="4">
+        <v>23</v>
+      </c>
+      <c r="K217">
+        <v>30</v>
+      </c>
+      <c r="O217">
+        <v>31</v>
+      </c>
+      <c r="Q217">
+        <v>34</v>
+      </c>
+      <c r="S217" s="2">
+        <v>34</v>
+      </c>
+      <c r="U217">
+        <v>31</v>
+      </c>
+      <c r="W217">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
       <c r="E218" s="4"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="13" t="s">
-        <v>101</v>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>24</v>
       </c>
       <c r="C219" s="8"/>
       <c r="E219" s="4"/>
       <c r="H219" s="8"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="S219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W219" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C220" s="8"/>
       <c r="E220" s="4"/>
+      <c r="F220" t="s">
+        <v>29</v>
+      </c>
       <c r="H220" s="8"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>44</v>
-      </c>
+      <c r="I220" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K220" t="s">
+        <v>29</v>
+      </c>
+      <c r="O220" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>29</v>
+      </c>
+      <c r="U220" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
       <c r="E221" s="4"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="C222" s="8"/>
       <c r="E222" s="4"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C223" s="8"/>
       <c r="E223" s="4"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C224" s="8"/>
       <c r="E224" s="4"/>
@@ -5443,7 +6517,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C226" s="8"/>
       <c r="E226" s="4"/>
@@ -5451,7 +6525,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C227" s="8"/>
       <c r="E227" s="4"/>
@@ -5464,7 +6538,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C229" s="8"/>
       <c r="E229" s="4"/>
@@ -5472,7 +6546,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C230" s="8"/>
       <c r="E230" s="4"/>
@@ -5485,7 +6559,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C232" s="8"/>
       <c r="E232" s="4"/>
@@ -5493,7 +6567,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C233" s="8"/>
       <c r="E233" s="4"/>
@@ -5505,11 +6579,17 @@
       <c r="H234" s="8"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>26</v>
+      </c>
       <c r="C235" s="8"/>
       <c r="E235" s="4"/>
       <c r="H235" s="8"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>28</v>
+      </c>
       <c r="C236" s="8"/>
       <c r="E236" s="4"/>
       <c r="H236" s="8"/>
@@ -5520,17 +6600,11 @@
       <c r="H237" s="8"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>73</v>
-      </c>
       <c r="C238" s="8"/>
       <c r="E238" s="4"/>
       <c r="H238" s="8"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>22</v>
-      </c>
       <c r="C239" s="8"/>
       <c r="E239" s="4"/>
       <c r="H239" s="8"/>
@@ -5541,8 +6615,8 @@
       <c r="H240" s="8"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
-        <v>102</v>
+      <c r="A241" t="s">
+        <v>73</v>
       </c>
       <c r="C241" s="8"/>
       <c r="E241" s="4"/>
@@ -5550,28 +6624,28 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C242" s="8"/>
       <c r="E242" s="4"/>
       <c r="H242" s="8"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>80</v>
-      </c>
       <c r="C243" s="8"/>
       <c r="E243" s="4"/>
       <c r="H243" s="8"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="C244" s="8"/>
       <c r="E244" s="4"/>
       <c r="H244" s="8"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C245" s="8"/>
       <c r="E245" s="4"/>
@@ -5579,7 +6653,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C246" s="8"/>
       <c r="E246" s="4"/>
@@ -5591,11 +6665,17 @@
       <c r="H247" s="8"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>24</v>
+      </c>
       <c r="C248" s="8"/>
       <c r="E248" s="4"/>
       <c r="H248" s="8"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>73</v>
+      </c>
       <c r="C249" s="8"/>
       <c r="E249" s="4"/>
       <c r="H249" s="8"/>
@@ -5606,17 +6686,11 @@
       <c r="H250" s="8"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>19</v>
-      </c>
       <c r="C251" s="8"/>
       <c r="E251" s="4"/>
       <c r="H251" s="8"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>21</v>
-      </c>
       <c r="C252" s="8"/>
       <c r="E252" s="4"/>
       <c r="H252" s="8"/>
@@ -5627,8 +6701,8 @@
       <c r="H253" s="8"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="13" t="s">
-        <v>103</v>
+      <c r="A254" t="s">
+        <v>19</v>
       </c>
       <c r="C254" s="8"/>
       <c r="E254" s="4"/>
@@ -5636,28 +6710,28 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C255" s="8"/>
       <c r="E255" s="4"/>
       <c r="H255" s="8"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>45</v>
-      </c>
       <c r="C256" s="8"/>
       <c r="E256" s="4"/>
       <c r="H256" s="8"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="C257" s="8"/>
       <c r="E257" s="4"/>
       <c r="H257" s="8"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C258" s="8"/>
       <c r="E258" s="4"/>
@@ -5665,7 +6739,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C259" s="8"/>
       <c r="E259" s="4"/>
@@ -5678,7 +6752,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C261" s="8"/>
       <c r="E261" s="4"/>
@@ -5686,7 +6760,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C262" s="8"/>
       <c r="E262" s="4"/>
@@ -5699,7 +6773,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C264" s="8"/>
       <c r="E264" s="4"/>
@@ -5707,7 +6781,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C265" s="8"/>
       <c r="E265" s="4"/>
@@ -5720,7 +6794,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C267" s="8"/>
       <c r="E267" s="4"/>
@@ -5728,7 +6802,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C268" s="8"/>
       <c r="E268" s="4"/>
@@ -5741,7 +6815,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C270" s="8"/>
       <c r="E270" s="4"/>
@@ -5749,7 +6823,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C271" s="8"/>
       <c r="E271" s="4"/>
@@ -5762,7 +6836,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C273" s="8"/>
       <c r="E273" s="4"/>
@@ -5770,7 +6844,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C274" s="8"/>
       <c r="E274" s="4"/>
@@ -5783,7 +6857,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C276" s="8"/>
       <c r="E276" s="4"/>
@@ -5791,7 +6865,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C277" s="8"/>
       <c r="E277" s="4"/>
@@ -5804,7 +6878,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C279" s="8"/>
       <c r="E279" s="4"/>
@@ -5812,7 +6886,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C280" s="8"/>
       <c r="E280" s="4"/>
@@ -5825,7 +6899,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C282" s="8"/>
       <c r="E282" s="4"/>
@@ -5833,7 +6907,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C283" s="8"/>
       <c r="E283" s="4"/>
@@ -5846,7 +6920,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C285" s="8"/>
       <c r="E285" s="4"/>
@@ -5854,7 +6928,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C286" s="8"/>
       <c r="E286" s="4"/>
@@ -5867,7 +6941,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C288" s="8"/>
       <c r="E288" s="4"/>
@@ -5875,7 +6949,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C289" s="8"/>
       <c r="E289" s="4"/>
@@ -5888,7 +6962,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C291" s="8"/>
       <c r="E291" s="4"/>
@@ -5896,7 +6970,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C292" s="8"/>
       <c r="E292" s="4"/>
@@ -5909,7 +6983,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C294" s="8"/>
       <c r="E294" s="4"/>
@@ -5917,7 +6991,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C295" s="8"/>
       <c r="E295" s="4"/>
@@ -5930,7 +7004,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C297" s="8"/>
       <c r="E297" s="4"/>
@@ -5938,63 +7012,63 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C298" s="8"/>
       <c r="E298" s="4"/>
       <c r="H298" s="8"/>
-      <c r="R298" s="7"/>
-      <c r="T298" s="7"/>
-      <c r="W298" s="7"/>
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C299" s="8"/>
       <c r="E299" s="4"/>
       <c r="H299" s="8"/>
-      <c r="R299" s="7"/>
-      <c r="T299" s="7"/>
-      <c r="W299" s="7"/>
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C300" s="8"/>
       <c r="E300" s="4"/>
-      <c r="G300" s="7"/>
       <c r="H300" s="8"/>
-      <c r="S300" s="3"/>
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C301" s="8"/>
       <c r="E301" s="4"/>
-      <c r="G301" s="7"/>
       <c r="H301" s="8"/>
-      <c r="S301" s="3"/>
+      <c r="R301" s="7"/>
+      <c r="T301" s="7"/>
+      <c r="W301" s="7"/>
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C302" s="8"/>
       <c r="E302" s="4"/>
-      <c r="G302" s="7"/>
       <c r="H302" s="8"/>
+      <c r="R302" s="7"/>
+      <c r="T302" s="7"/>
+      <c r="W302" s="7"/>
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A303" s="13" t="s">
-        <v>105</v>
+      <c r="A303" t="s">
+        <v>28</v>
       </c>
       <c r="C303" s="8"/>
       <c r="E303" s="4"/>
       <c r="G303" s="7"/>
       <c r="H303" s="8"/>
+      <c r="S303" s="3"/>
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>84</v>
+      </c>
       <c r="C304" s="8"/>
       <c r="E304" s="4"/>
       <c r="G304" s="7"/>
       <c r="H304" s="8"/>
+      <c r="S304" s="3"/>
     </row>
     <row r="305" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C305" s="8"/>
@@ -6003,567 +7077,579 @@
       <c r="H305" s="8"/>
     </row>
     <row r="306" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="C306" s="8"/>
       <c r="E306" s="4"/>
       <c r="G306" s="7"/>
       <c r="H306" s="8"/>
-      <c r="W306" s="4"/>
     </row>
     <row r="307" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C307" s="8"/>
       <c r="E307" s="4"/>
       <c r="G307" s="7"/>
       <c r="H307" s="8"/>
-      <c r="W307" s="4"/>
     </row>
     <row r="308" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="C308" s="8"/>
+      <c r="E308" s="4"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="8"/>
+    </row>
+    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C309" s="8"/>
+      <c r="E309" s="4"/>
+      <c r="G309" s="7"/>
+      <c r="H309" s="8"/>
+      <c r="W309" s="4"/>
+    </row>
+    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C310" s="8"/>
+      <c r="E310" s="4"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="8"/>
+      <c r="W310" s="4"/>
+    </row>
+    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>106</v>
       </c>
-      <c r="C308" s="4">
-        <f>SUM(C2:C307)</f>
+      <c r="C311" s="4">
+        <f>SUM(C2:C310)</f>
+        <v>-195</v>
+      </c>
+      <c r="E311" s="4">
+        <f>SUM(E2:E310)</f>
+        <v>95</v>
+      </c>
+      <c r="G311" s="7"/>
+      <c r="H311" s="4">
+        <f>SUM(H2:H310)</f>
+        <v>95</v>
+      </c>
+      <c r="J311">
+        <f>SUM(J2:J310)</f>
+        <v>70</v>
+      </c>
+      <c r="L311">
+        <f>SUM(L2:L310)</f>
+        <v>80</v>
+      </c>
+      <c r="N311">
+        <f>SUM(N2:N310)</f>
+        <v>70</v>
+      </c>
+      <c r="P311">
+        <f>SUM(P2:P310)</f>
+        <v>50</v>
+      </c>
+      <c r="R311">
+        <f>SUM(R2:R310)</f>
+        <v>80</v>
+      </c>
+      <c r="T311">
+        <f>SUM(T2:T310)</f>
+        <v>105</v>
+      </c>
+      <c r="V311">
+        <f>SUM(V2:V310)</f>
+        <v>130</v>
+      </c>
+      <c r="W311" s="4"/>
+      <c r="X311">
+        <f>SUM(X2:X310)</f>
         <v>60</v>
       </c>
-      <c r="E308" s="4">
-        <f>SUM(E2:E307)</f>
-        <v>95</v>
-      </c>
-      <c r="G308" s="7"/>
-      <c r="H308" s="4">
-        <f>SUM(H2:H307)</f>
-        <v>95</v>
-      </c>
-      <c r="J308">
-        <f>SUM(J2:J307)</f>
-        <v>70</v>
-      </c>
-      <c r="L308">
-        <f>SUM(L2:L307)</f>
+      <c r="Z311">
+        <f>SUM(Z2:Z310)</f>
         <v>80</v>
       </c>
-      <c r="N308">
-        <f>SUM(N2:N307)</f>
-        <v>70</v>
-      </c>
-      <c r="P308">
-        <f>SUM(P2:P307)</f>
-        <v>50</v>
-      </c>
-      <c r="R308">
-        <f>SUM(R2:R307)</f>
-        <v>80</v>
-      </c>
-      <c r="T308">
-        <f>SUM(T2:T307)</f>
-        <v>105</v>
-      </c>
-      <c r="V308">
-        <f>SUM(V2:V307)</f>
-        <v>130</v>
-      </c>
-      <c r="W308" s="4"/>
-      <c r="X308">
-        <f>SUM(X2:X307)</f>
-        <v>60</v>
-      </c>
-      <c r="Z308">
-        <f>SUM(Z2:Z307)</f>
-        <v>90</v>
-      </c>
-      <c r="AB308">
-        <f>SUM(AB2:AB307)</f>
-        <v>80</v>
-      </c>
-      <c r="AD308">
-        <f>SUM(AD2:AD307)</f>
-        <v>95</v>
-      </c>
-      <c r="AF308">
-        <f>SUM(AF2:AF307)</f>
-        <v>60</v>
-      </c>
-      <c r="AG308" s="4">
-        <f>SUM(C308:AF308)</f>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G309" s="7"/>
-      <c r="H309" s="7"/>
-      <c r="W309" s="4"/>
-    </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G310" s="7"/>
-      <c r="H310" s="7"/>
-      <c r="W310" s="4"/>
-    </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G311" s="7"/>
-      <c r="H311" s="7"/>
-      <c r="W311" s="4"/>
+      <c r="AB311">
+        <f>SUM(AB2:AB310)</f>
+        <v>-60</v>
+      </c>
+      <c r="AD311">
+        <f>SUM(AD2:AD310)</f>
+        <v>-60</v>
+      </c>
+      <c r="AF311">
+        <f>SUM(AF2:AF310)</f>
+        <v>-40</v>
+      </c>
+      <c r="AG311" s="4">
+        <f>SUM(C311:AF311)</f>
+        <v>560</v>
+      </c>
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>107</v>
-      </c>
-      <c r="B312" t="s">
-        <v>71</v>
-      </c>
-      <c r="D312" t="s">
-        <v>75</v>
-      </c>
-      <c r="F312" t="s">
-        <v>81</v>
-      </c>
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
-      <c r="I312" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="W312" s="4"/>
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>2</v>
-      </c>
-      <c r="B313">
-        <v>45</v>
-      </c>
-      <c r="D313" t="s">
-        <v>2</v>
-      </c>
-      <c r="E313">
-        <v>85</v>
-      </c>
-      <c r="F313" t="s">
-        <v>10</v>
-      </c>
-      <c r="H313">
-        <v>95</v>
-      </c>
-      <c r="I313" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J313">
-        <v>130</v>
-      </c>
+      <c r="G313" s="7"/>
+      <c r="H313" s="7"/>
       <c r="W313" s="4"/>
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>14</v>
-      </c>
-      <c r="B314">
-        <v>45</v>
-      </c>
-      <c r="D314" t="s">
-        <v>108</v>
-      </c>
-      <c r="E314">
-        <v>75</v>
-      </c>
-      <c r="F314" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G314">
-        <v>85</v>
-      </c>
-      <c r="H314">
-        <v>85</v>
-      </c>
-      <c r="I314" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J314">
-        <v>105</v>
-      </c>
+      <c r="G314" s="7"/>
+      <c r="H314" s="7"/>
       <c r="W314" s="4"/>
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>109</v>
-      </c>
-      <c r="B315">
-        <v>20</v>
+        <v>107</v>
+      </c>
+      <c r="B315" t="s">
+        <v>71</v>
       </c>
       <c r="D315" t="s">
-        <v>9</v>
-      </c>
-      <c r="E315">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F315" t="s">
-        <v>9</v>
-      </c>
-      <c r="H315">
-        <v>85</v>
-      </c>
-      <c r="I315" t="s">
-        <v>2</v>
-      </c>
-      <c r="J315">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="G315" s="7"/>
+      <c r="H315" s="7"/>
+      <c r="I315" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="W315" s="4"/>
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D316" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E316">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F316" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H316">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I316" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J316">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="W316" s="4"/>
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B317">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D317" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E317">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G317">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H317">
-        <v>80</v>
-      </c>
-      <c r="I317" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="J317">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="W317" s="4"/>
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B318">
         <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E318">
-        <v>50</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G318">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F318" t="s">
+        <v>9</v>
       </c>
       <c r="H318">
-        <v>80</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="I318" t="s">
+        <v>2</v>
       </c>
       <c r="J318">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W318" s="4"/>
     </row>
     <row r="319" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B319">
         <v>20</v>
       </c>
       <c r="D319" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E319">
-        <v>50</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="F319" t="s">
+        <v>14</v>
       </c>
       <c r="H319">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="J319">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="W319" s="4"/>
     </row>
     <row r="320" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B320">
         <v>20</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E320">
         <v>50</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G320">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H320">
-        <v>60</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="I320" t="s">
+        <v>14</v>
       </c>
       <c r="J320">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="W320" s="4"/>
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B321">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D321" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="E321">
         <v>50</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="G321">
+        <v>60</v>
       </c>
       <c r="H321">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J321">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W321" s="4"/>
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B322">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D322" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E322">
         <v>50</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G322">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H322">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="J322">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W322" s="4"/>
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B323">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E323">
+        <v>50</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G323">
         <v>40</v>
-      </c>
-      <c r="F323" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G323">
-        <v>60</v>
       </c>
       <c r="H323">
         <v>60</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J323">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W323" s="4"/>
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B324">
         <v>10</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E324">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G324">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H324">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J324">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W324" s="4"/>
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325">
+        <v>10</v>
+      </c>
+      <c r="D325" t="s">
         <v>15</v>
       </c>
-      <c r="B325">
-        <v>10</v>
-      </c>
-      <c r="D325" t="s">
-        <v>3</v>
-      </c>
       <c r="E325">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G325">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H325">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J325">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W325" s="4"/>
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E326">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G326">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H326">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J326">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W326" s="4"/>
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>40</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G327">
+        <v>40</v>
+      </c>
+      <c r="H327">
+        <v>50</v>
+      </c>
+      <c r="I327" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>60</v>
+      </c>
+      <c r="W327" s="4"/>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>30</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G328">
+        <v>50</v>
+      </c>
+      <c r="H328">
+        <v>50</v>
+      </c>
+      <c r="I328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J328">
+        <v>60</v>
+      </c>
+      <c r="W328" s="4"/>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329">
+        <v>30</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G329">
+        <v>50</v>
+      </c>
+      <c r="H329">
+        <v>50</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J329">
+        <v>60</v>
+      </c>
+      <c r="W329" s="4"/>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>9</v>
       </c>
-      <c r="B327">
+      <c r="B330">
         <v>0</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D330" t="s">
         <v>0</v>
       </c>
-      <c r="E327">
-        <v>20</v>
-      </c>
-      <c r="F327" s="4" t="s">
+      <c r="E330">
+        <v>20</v>
+      </c>
+      <c r="F330" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G327">
+      <c r="G330">
         <v>30</v>
       </c>
-      <c r="H327">
+      <c r="H330">
         <v>40</v>
       </c>
-      <c r="I327" s="4" t="s">
+      <c r="I330" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J327">
+      <c r="J330">
         <v>50</v>
       </c>
-      <c r="W327" s="4"/>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W328" s="4"/>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W329" s="4"/>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W330" s="4"/>
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.25">
@@ -6584,32 +7670,41 @@
     <row r="336" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W336" s="4"/>
     </row>
-    <row r="337" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W337" s="4"/>
     </row>
-    <row r="338" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W338" s="4"/>
     </row>
-    <row r="339" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W339" s="4"/>
     </row>
-    <row r="340" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W340" s="4"/>
     </row>
-    <row r="341" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W341" s="4"/>
     </row>
-    <row r="342" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W342" s="4"/>
     </row>
-    <row r="343" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W343" s="4"/>
     </row>
-    <row r="344" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W344" s="4"/>
     </row>
-    <row r="350" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B350" s="7"/>
+    <row r="345" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W345" s="4"/>
+    </row>
+    <row r="346" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W346" s="4"/>
+    </row>
+    <row r="347" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W347" s="4"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/NFL PREDICTIONS 2022.xlsx
+++ b/Files/NFL PREDICTIONS 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\jpvollaro_git\football_picks_webapp\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\Optum\jpvollaro_git\football_picks_webapp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B9AC7-3E60-452D-9A3E-C75B252DD6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A2A01A-542A-4FF8-B03E-F5DD7A4A38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25365" yWindow="1110" windowWidth="25140" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="115">
   <si>
     <t>KERRY</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>MICAHEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -570,6 +573,17 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,12 +864,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG353"/>
+  <dimension ref="A1:AG375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A88" sqref="A88"/>
-      <selection pane="bottomLeft" activeCell="K220" sqref="K220"/>
+      <selection pane="bottomLeft" activeCell="Y267" sqref="Y267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,12 +6225,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C209" s="8"/>
       <c r="E209" s="4"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -6251,7 +6265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -6286,12 +6300,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C212" s="8"/>
       <c r="E212" s="4"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>83</v>
       </c>
@@ -6361,12 +6375,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C215" s="8"/>
       <c r="E215" s="4"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>86</v>
       </c>
@@ -6401,7 +6415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -6436,12 +6450,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C218" s="8"/>
       <c r="E218" s="4"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -6455,7 +6469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -6481,12 +6495,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
       <c r="E221" s="4"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>101</v>
       </c>
@@ -6494,358 +6508,1807 @@
       <c r="E222" s="4"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A223" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="8"/>
-      <c r="E223" s="4"/>
-      <c r="H223" s="8"/>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B223" s="38"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" s="40"/>
+      <c r="F223" s="38"/>
+      <c r="G223" s="38"/>
+      <c r="H223" s="41"/>
+      <c r="I223" s="38"/>
+      <c r="J223" s="38"/>
+      <c r="K223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L223" s="38"/>
+      <c r="M223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N223" s="38"/>
+      <c r="O223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P223" s="38"/>
+      <c r="Q223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R223" s="38"/>
+      <c r="S223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T223" s="38"/>
+      <c r="U223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="V223" s="38"/>
+      <c r="W223" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="X223" s="38"/>
+      <c r="Y223" s="38"/>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A224" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C224" s="8"/>
-      <c r="E224" s="4"/>
-      <c r="H224" s="8"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C225" s="8"/>
-      <c r="E225" s="4"/>
-      <c r="H225" s="8"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B224" s="38"/>
+      <c r="C224" s="41"/>
+      <c r="D224" s="38"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G224" s="38"/>
+      <c r="H224" s="41"/>
+      <c r="I224" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J224" s="38"/>
+      <c r="K224" s="38"/>
+      <c r="L224" s="38"/>
+      <c r="M224" s="38"/>
+      <c r="N224" s="38"/>
+      <c r="O224" s="38"/>
+      <c r="P224" s="38"/>
+      <c r="Q224" s="38"/>
+      <c r="R224" s="38"/>
+      <c r="S224" s="38"/>
+      <c r="T224" s="38"/>
+      <c r="U224" s="38"/>
+      <c r="V224" s="38"/>
+      <c r="W224" s="38"/>
+      <c r="X224" s="38"/>
+      <c r="Y224" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A225" s="38"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="41"/>
+      <c r="D225" s="38"/>
+      <c r="E225" s="40"/>
+      <c r="F225" s="38"/>
+      <c r="G225" s="38"/>
+      <c r="H225" s="41"/>
+      <c r="I225" s="38"/>
+      <c r="J225" s="38"/>
+      <c r="K225" s="38"/>
+      <c r="L225" s="38"/>
+      <c r="M225" s="38"/>
+      <c r="N225" s="38"/>
+      <c r="O225" s="38"/>
+      <c r="P225" s="38"/>
+      <c r="Q225" s="38"/>
+      <c r="R225" s="38"/>
+      <c r="S225" s="38"/>
+      <c r="T225" s="38"/>
+      <c r="U225" s="38"/>
+      <c r="V225" s="38"/>
+      <c r="W225" s="38"/>
+      <c r="X225" s="38"/>
+      <c r="Y225" s="38"/>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A226" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="38">
+        <v>0</v>
+      </c>
+      <c r="C226" s="41"/>
+      <c r="D226" s="38">
+        <v>34</v>
+      </c>
+      <c r="E226" s="40"/>
+      <c r="F226" s="38">
+        <v>27</v>
+      </c>
+      <c r="G226" s="38"/>
+      <c r="H226" s="41"/>
+      <c r="I226" s="40">
+        <v>27</v>
+      </c>
+      <c r="J226" s="38"/>
+      <c r="K226" s="38">
+        <v>27</v>
+      </c>
+      <c r="L226" s="38"/>
+      <c r="M226" s="38">
+        <v>21</v>
+      </c>
+      <c r="N226" s="38"/>
+      <c r="O226" s="38">
+        <v>28</v>
+      </c>
+      <c r="P226" s="38"/>
+      <c r="Q226" s="38">
+        <v>24</v>
+      </c>
+      <c r="R226" s="38"/>
+      <c r="S226" s="39">
+        <v>34</v>
+      </c>
+      <c r="T226" s="38"/>
+      <c r="U226" s="38">
+        <v>35</v>
+      </c>
+      <c r="V226" s="38"/>
+      <c r="W226" s="38">
+        <v>42</v>
+      </c>
+      <c r="X226" s="38"/>
+      <c r="Y226" s="38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A227" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" s="38">
+        <v>0</v>
+      </c>
+      <c r="C227" s="41"/>
+      <c r="D227" s="38">
+        <v>10</v>
+      </c>
+      <c r="E227" s="40"/>
+      <c r="F227" s="38">
+        <v>13</v>
+      </c>
+      <c r="G227" s="38"/>
+      <c r="H227" s="41"/>
+      <c r="I227" s="40">
+        <v>17</v>
+      </c>
+      <c r="J227" s="38"/>
+      <c r="K227" s="38">
+        <v>13</v>
+      </c>
+      <c r="L227" s="38"/>
+      <c r="M227" s="38">
+        <v>24</v>
+      </c>
+      <c r="N227" s="38"/>
+      <c r="O227" s="38">
+        <v>24</v>
+      </c>
+      <c r="P227" s="38"/>
+      <c r="Q227" s="38">
+        <v>14</v>
+      </c>
+      <c r="R227" s="38"/>
+      <c r="S227" s="39">
+        <v>24</v>
+      </c>
+      <c r="T227" s="38"/>
+      <c r="U227" s="38">
+        <v>17</v>
+      </c>
+      <c r="V227" s="38"/>
+      <c r="W227" s="38">
+        <v>17</v>
+      </c>
+      <c r="X227" s="38"/>
+      <c r="Y227" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A228" s="38"/>
+      <c r="B228" s="38"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="38"/>
+      <c r="E228" s="40"/>
+      <c r="F228" s="38"/>
+      <c r="G228" s="38"/>
+      <c r="H228" s="41"/>
+      <c r="I228" s="38"/>
+      <c r="J228" s="38"/>
+      <c r="K228" s="38"/>
+      <c r="L228" s="38"/>
+      <c r="M228" s="38"/>
+      <c r="N228" s="38"/>
+      <c r="O228" s="38"/>
+      <c r="P228" s="38"/>
+      <c r="Q228" s="38"/>
+      <c r="R228" s="38"/>
+      <c r="S228" s="38"/>
+      <c r="T228" s="38"/>
+      <c r="U228" s="38"/>
+      <c r="V228" s="38"/>
+      <c r="W228" s="38"/>
+      <c r="X228" s="38"/>
+      <c r="Y228" s="38"/>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A229" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B229" s="38">
+        <v>0</v>
+      </c>
+      <c r="C229" s="41"/>
+      <c r="D229" s="38">
+        <v>17</v>
+      </c>
+      <c r="E229" s="40"/>
+      <c r="F229" s="38">
+        <v>13</v>
+      </c>
+      <c r="G229" s="38"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="40">
+        <v>17</v>
+      </c>
+      <c r="J229" s="38"/>
+      <c r="K229" s="38">
+        <v>17</v>
+      </c>
+      <c r="L229" s="38"/>
+      <c r="M229" s="38">
+        <v>20</v>
+      </c>
+      <c r="N229" s="38"/>
+      <c r="O229" s="38">
+        <v>11</v>
+      </c>
+      <c r="P229" s="38"/>
+      <c r="Q229" s="38">
+        <v>20</v>
+      </c>
+      <c r="R229" s="38"/>
+      <c r="S229" s="39">
+        <v>13</v>
+      </c>
+      <c r="T229" s="38"/>
+      <c r="U229" s="38">
+        <v>20</v>
+      </c>
+      <c r="V229" s="38"/>
+      <c r="W229" s="38">
+        <v>17</v>
+      </c>
+      <c r="X229" s="38"/>
+      <c r="Y229" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A230" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B230" s="38">
+        <v>0</v>
+      </c>
+      <c r="C230" s="41"/>
+      <c r="D230" s="38">
+        <v>13</v>
+      </c>
+      <c r="E230" s="40"/>
+      <c r="F230" s="38">
+        <v>20</v>
+      </c>
+      <c r="G230" s="38"/>
+      <c r="H230" s="41"/>
+      <c r="I230" s="40">
+        <v>21</v>
+      </c>
+      <c r="J230" s="38"/>
+      <c r="K230" s="38">
+        <v>23</v>
+      </c>
+      <c r="L230" s="38"/>
+      <c r="M230" s="38">
+        <v>17</v>
+      </c>
+      <c r="N230" s="38"/>
+      <c r="O230" s="38">
+        <v>22</v>
+      </c>
+      <c r="P230" s="38"/>
+      <c r="Q230" s="38">
+        <v>24</v>
+      </c>
+      <c r="R230" s="38"/>
+      <c r="S230" s="39">
+        <v>23</v>
+      </c>
+      <c r="T230" s="38"/>
+      <c r="U230" s="38">
+        <v>24</v>
+      </c>
+      <c r="V230" s="38"/>
+      <c r="W230" s="38">
+        <v>21</v>
+      </c>
+      <c r="X230" s="38"/>
+      <c r="Y230" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A231" s="38"/>
+      <c r="B231" s="38"/>
+      <c r="C231" s="41"/>
+      <c r="D231" s="38"/>
+      <c r="E231" s="40"/>
+      <c r="F231" s="38"/>
+      <c r="G231" s="38"/>
+      <c r="H231" s="41"/>
+      <c r="I231" s="38"/>
+      <c r="J231" s="38"/>
+      <c r="K231" s="38"/>
+      <c r="L231" s="38"/>
+      <c r="M231" s="38"/>
+      <c r="N231" s="38"/>
+      <c r="O231" s="38"/>
+      <c r="P231" s="38"/>
+      <c r="Q231" s="38"/>
+      <c r="R231" s="38"/>
+      <c r="S231" s="38"/>
+      <c r="T231" s="38"/>
+      <c r="U231" s="38"/>
+      <c r="V231" s="38"/>
+      <c r="W231" s="38"/>
+      <c r="X231" s="38"/>
+      <c r="Y231" s="38"/>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A232" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B232" s="38">
+        <v>0</v>
+      </c>
+      <c r="C232" s="41"/>
+      <c r="D232" s="38">
+        <v>17</v>
+      </c>
+      <c r="E232" s="40"/>
+      <c r="F232" s="38">
+        <v>10</v>
+      </c>
+      <c r="G232" s="38"/>
+      <c r="H232" s="41"/>
+      <c r="I232" s="40">
+        <v>16</v>
+      </c>
+      <c r="J232" s="38"/>
+      <c r="K232" s="38">
+        <v>13</v>
+      </c>
+      <c r="L232" s="38"/>
+      <c r="M232" s="38">
+        <v>24</v>
+      </c>
+      <c r="N232" s="38"/>
+      <c r="O232" s="38">
+        <v>3</v>
+      </c>
+      <c r="P232" s="38"/>
+      <c r="Q232" s="38">
+        <v>24</v>
+      </c>
+      <c r="R232" s="38"/>
+      <c r="S232" s="39">
+        <v>23</v>
+      </c>
+      <c r="T232" s="38"/>
+      <c r="U232" s="38">
+        <v>17</v>
+      </c>
+      <c r="V232" s="38"/>
+      <c r="W232" s="38">
+        <v>13</v>
+      </c>
+      <c r="X232" s="38"/>
+      <c r="Y232" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A233" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B233" s="38">
+        <v>0</v>
+      </c>
+      <c r="C233" s="41"/>
+      <c r="D233" s="38">
+        <v>23</v>
+      </c>
+      <c r="E233" s="40"/>
+      <c r="F233" s="38">
+        <v>20</v>
+      </c>
+      <c r="G233" s="38"/>
+      <c r="H233" s="41"/>
+      <c r="I233" s="40">
+        <v>21</v>
+      </c>
+      <c r="J233" s="38"/>
+      <c r="K233" s="38">
+        <v>27</v>
+      </c>
+      <c r="L233" s="38"/>
+      <c r="M233" s="38">
+        <v>20</v>
+      </c>
+      <c r="N233" s="38"/>
+      <c r="O233" s="38">
+        <v>21</v>
+      </c>
+      <c r="P233" s="38"/>
+      <c r="Q233" s="38">
+        <v>31</v>
+      </c>
+      <c r="R233" s="38"/>
+      <c r="S233" s="39">
+        <v>20</v>
+      </c>
+      <c r="T233" s="38"/>
+      <c r="U233" s="38">
+        <v>31</v>
+      </c>
+      <c r="V233" s="38"/>
+      <c r="W233" s="38">
+        <v>14</v>
+      </c>
+      <c r="X233" s="38"/>
+      <c r="Y233" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A234" s="38"/>
+      <c r="B234" s="38"/>
+      <c r="C234" s="41"/>
+      <c r="D234" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E234" s="40"/>
+      <c r="F234" s="38"/>
+      <c r="G234" s="38"/>
+      <c r="H234" s="41"/>
+      <c r="I234" s="38"/>
+      <c r="J234" s="38"/>
+      <c r="K234" s="38"/>
+      <c r="L234" s="38"/>
+      <c r="M234" s="38"/>
+      <c r="N234" s="38"/>
+      <c r="O234" s="38"/>
+      <c r="P234" s="38"/>
+      <c r="Q234" s="38"/>
+      <c r="R234" s="38"/>
+      <c r="S234" s="38"/>
+      <c r="T234" s="38"/>
+      <c r="U234" s="38"/>
+      <c r="V234" s="38"/>
+      <c r="W234" s="38"/>
+      <c r="X234" s="38"/>
+      <c r="Y234" s="38"/>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A235" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B235" s="38">
+        <v>0</v>
+      </c>
+      <c r="C235" s="41"/>
+      <c r="D235" s="38">
+        <v>34</v>
+      </c>
+      <c r="E235" s="40"/>
+      <c r="F235" s="38">
+        <v>17</v>
+      </c>
+      <c r="G235" s="38"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="40">
+        <v>21</v>
+      </c>
+      <c r="J235" s="38"/>
+      <c r="K235" s="38">
+        <v>27</v>
+      </c>
+      <c r="L235" s="38"/>
+      <c r="M235" s="38">
+        <v>21</v>
+      </c>
+      <c r="N235" s="38"/>
+      <c r="O235" s="38">
+        <v>31</v>
+      </c>
+      <c r="P235" s="38"/>
+      <c r="Q235" s="38">
+        <v>24</v>
+      </c>
+      <c r="R235" s="38"/>
+      <c r="S235" s="39">
+        <v>20</v>
+      </c>
+      <c r="T235" s="38"/>
+      <c r="U235" s="38">
+        <v>27</v>
+      </c>
+      <c r="V235" s="38"/>
+      <c r="W235" s="38">
+        <v>27</v>
+      </c>
+      <c r="X235" s="38"/>
+      <c r="Y235" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A236" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" s="38">
+        <v>0</v>
+      </c>
+      <c r="C236" s="41"/>
+      <c r="D236" s="38">
+        <v>10</v>
+      </c>
+      <c r="E236" s="40"/>
+      <c r="F236" s="38">
+        <v>34</v>
+      </c>
+      <c r="G236" s="38"/>
+      <c r="H236" s="41"/>
+      <c r="I236" s="40">
+        <v>30</v>
+      </c>
+      <c r="J236" s="38"/>
+      <c r="K236" s="38">
+        <v>27</v>
+      </c>
+      <c r="L236" s="38"/>
+      <c r="M236" s="38">
+        <v>35</v>
+      </c>
+      <c r="N236" s="38"/>
+      <c r="O236" s="38">
+        <v>28</v>
+      </c>
+      <c r="P236" s="38"/>
+      <c r="Q236" s="38">
+        <v>37</v>
+      </c>
+      <c r="R236" s="38"/>
+      <c r="S236" s="39">
+        <v>40</v>
+      </c>
+      <c r="T236" s="38"/>
+      <c r="U236" s="38">
+        <v>31</v>
+      </c>
+      <c r="V236" s="38"/>
+      <c r="W236" s="38">
+        <v>38</v>
+      </c>
+      <c r="X236" s="38"/>
+      <c r="Y236" s="38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A237" s="38"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="41"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="40"/>
+      <c r="F237" s="38"/>
+      <c r="G237" s="38"/>
+      <c r="H237" s="41"/>
+      <c r="I237" s="38"/>
+      <c r="J237" s="38"/>
+      <c r="K237" s="38"/>
+      <c r="L237" s="38"/>
+      <c r="M237" s="38"/>
+      <c r="N237" s="38"/>
+      <c r="O237" s="38"/>
+      <c r="P237" s="38"/>
+      <c r="Q237" s="38"/>
+      <c r="R237" s="38"/>
+      <c r="S237" s="38"/>
+      <c r="T237" s="38"/>
+      <c r="U237" s="38"/>
+      <c r="V237" s="38"/>
+      <c r="W237" s="38"/>
+      <c r="X237" s="38"/>
+      <c r="Y237" s="38"/>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A238" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B238" s="38">
+        <v>0</v>
+      </c>
+      <c r="C238" s="41"/>
+      <c r="D238" s="38">
+        <v>13</v>
+      </c>
+      <c r="E238" s="40"/>
+      <c r="F238" s="38">
+        <v>28</v>
+      </c>
+      <c r="G238" s="38"/>
+      <c r="H238" s="41"/>
+      <c r="I238" s="40">
+        <v>23</v>
+      </c>
+      <c r="J238" s="38"/>
+      <c r="K238" s="38">
+        <v>27</v>
+      </c>
+      <c r="L238" s="38"/>
+      <c r="M238" s="38">
+        <v>24</v>
+      </c>
+      <c r="N238" s="38"/>
+      <c r="O238" s="38">
+        <v>21</v>
+      </c>
+      <c r="P238" s="38"/>
+      <c r="Q238" s="38">
+        <v>28</v>
+      </c>
+      <c r="R238" s="38"/>
+      <c r="S238" s="39">
+        <v>31</v>
+      </c>
+      <c r="T238" s="38"/>
+      <c r="U238" s="38">
+        <v>21</v>
+      </c>
+      <c r="V238" s="38"/>
+      <c r="W238" s="38">
+        <v>17</v>
+      </c>
+      <c r="X238" s="38"/>
+      <c r="Y238" s="38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A239" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" s="38">
+        <v>0</v>
+      </c>
+      <c r="C239" s="41"/>
+      <c r="D239" s="38">
+        <v>17</v>
+      </c>
+      <c r="E239" s="40"/>
+      <c r="F239" s="38">
+        <v>31</v>
+      </c>
+      <c r="G239" s="38"/>
+      <c r="H239" s="41"/>
+      <c r="I239" s="40">
+        <v>27</v>
+      </c>
+      <c r="J239" s="38"/>
+      <c r="K239" s="38">
+        <v>26</v>
+      </c>
+      <c r="L239" s="38"/>
+      <c r="M239" s="38">
+        <v>21</v>
+      </c>
+      <c r="N239" s="38"/>
+      <c r="O239" s="38">
+        <v>34</v>
+      </c>
+      <c r="P239" s="38"/>
+      <c r="Q239" s="38">
+        <v>33</v>
+      </c>
+      <c r="R239" s="38"/>
+      <c r="S239" s="39">
+        <v>37</v>
+      </c>
+      <c r="T239" s="38"/>
+      <c r="U239" s="38">
+        <v>30</v>
+      </c>
+      <c r="V239" s="38"/>
+      <c r="W239" s="38">
+        <v>31</v>
+      </c>
+      <c r="X239" s="38"/>
+      <c r="Y239" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A240" s="38"/>
+      <c r="B240" s="38"/>
+      <c r="C240" s="41"/>
+      <c r="D240" s="38"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="38"/>
+      <c r="G240" s="38"/>
+      <c r="H240" s="41"/>
+      <c r="I240" s="38"/>
+      <c r="J240" s="38"/>
+      <c r="K240" s="38"/>
+      <c r="L240" s="38"/>
+      <c r="M240" s="38"/>
+      <c r="N240" s="38"/>
+      <c r="O240" s="38"/>
+      <c r="P240" s="38"/>
+      <c r="Q240" s="38"/>
+      <c r="R240" s="38"/>
+      <c r="S240" s="38"/>
+      <c r="T240" s="38"/>
+      <c r="U240" s="38"/>
+      <c r="V240" s="38"/>
+      <c r="W240" s="38"/>
+      <c r="X240" s="38"/>
+      <c r="Y240" s="38"/>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A241" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" s="38">
+        <v>0</v>
+      </c>
+      <c r="C241" s="41"/>
+      <c r="D241" s="38">
+        <v>10</v>
+      </c>
+      <c r="E241" s="40"/>
+      <c r="F241" s="38">
+        <v>24</v>
+      </c>
+      <c r="G241" s="38"/>
+      <c r="H241" s="41"/>
+      <c r="I241" s="40">
+        <v>22</v>
+      </c>
+      <c r="J241" s="38"/>
+      <c r="K241" s="38">
+        <v>31</v>
+      </c>
+      <c r="L241" s="38"/>
+      <c r="M241" s="38">
+        <v>28</v>
+      </c>
+      <c r="N241" s="38"/>
+      <c r="O241" s="38">
+        <v>14</v>
+      </c>
+      <c r="P241" s="38"/>
+      <c r="Q241" s="38">
+        <v>21</v>
+      </c>
+      <c r="R241" s="38"/>
+      <c r="S241" s="39">
+        <v>20</v>
+      </c>
+      <c r="T241" s="38"/>
+      <c r="U241" s="38">
+        <v>30</v>
+      </c>
+      <c r="V241" s="38"/>
+      <c r="W241" s="38">
+        <v>42</v>
+      </c>
+      <c r="X241" s="38"/>
+      <c r="Y241" s="38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A242" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B242" s="38">
+        <v>0</v>
+      </c>
+      <c r="C242" s="41"/>
+      <c r="D242" s="38">
+        <v>17</v>
+      </c>
+      <c r="E242" s="40"/>
+      <c r="F242" s="38">
+        <v>16</v>
+      </c>
+      <c r="G242" s="38"/>
+      <c r="H242" s="41"/>
+      <c r="I242" s="40">
+        <v>19</v>
+      </c>
+      <c r="J242" s="38"/>
+      <c r="K242" s="38">
+        <v>20</v>
+      </c>
+      <c r="L242" s="38"/>
+      <c r="M242" s="38">
+        <v>10</v>
+      </c>
+      <c r="N242" s="38"/>
+      <c r="O242" s="38">
+        <v>15</v>
+      </c>
+      <c r="P242" s="38"/>
+      <c r="Q242" s="38">
+        <v>17</v>
+      </c>
+      <c r="R242" s="38"/>
+      <c r="S242" s="39">
+        <v>13</v>
+      </c>
+      <c r="T242" s="38"/>
+      <c r="U242" s="38">
+        <v>21</v>
+      </c>
+      <c r="V242" s="38"/>
+      <c r="W242" s="38">
+        <v>16</v>
+      </c>
+      <c r="X242" s="38"/>
+      <c r="Y242" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A243" s="38"/>
+      <c r="B243" s="38"/>
+      <c r="C243" s="41"/>
+      <c r="D243" s="38"/>
+      <c r="E243" s="40"/>
+      <c r="F243" s="38"/>
+      <c r="G243" s="38"/>
+      <c r="H243" s="41"/>
+      <c r="I243" s="38"/>
+      <c r="J243" s="38"/>
+      <c r="K243" s="38"/>
+      <c r="L243" s="38"/>
+      <c r="M243" s="38"/>
+      <c r="N243" s="38"/>
+      <c r="O243" s="38"/>
+      <c r="P243" s="38"/>
+      <c r="Q243" s="38"/>
+      <c r="R243" s="38"/>
+      <c r="S243" s="38"/>
+      <c r="T243" s="38"/>
+      <c r="U243" s="38"/>
+      <c r="V243" s="38"/>
+      <c r="W243" s="38"/>
+      <c r="X243" s="38"/>
+      <c r="Y243" s="38"/>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A244" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B244" s="38">
+        <v>0</v>
+      </c>
+      <c r="C244" s="41"/>
+      <c r="D244" s="38">
+        <v>17</v>
+      </c>
+      <c r="E244" s="40"/>
+      <c r="F244" s="38">
+        <v>20</v>
+      </c>
+      <c r="G244" s="38"/>
+      <c r="H244" s="41"/>
+      <c r="I244" s="40">
+        <v>28</v>
+      </c>
+      <c r="J244" s="38"/>
+      <c r="K244" s="38">
+        <v>24</v>
+      </c>
+      <c r="L244" s="38"/>
+      <c r="M244" s="38">
+        <v>24</v>
+      </c>
+      <c r="N244" s="38"/>
+      <c r="O244" s="38">
+        <v>24</v>
+      </c>
+      <c r="P244" s="38"/>
+      <c r="Q244" s="38">
+        <v>21</v>
+      </c>
+      <c r="R244" s="38"/>
+      <c r="S244" s="39">
+        <v>34</v>
+      </c>
+      <c r="T244" s="38"/>
+      <c r="U244" s="38">
+        <v>24</v>
+      </c>
+      <c r="V244" s="38"/>
+      <c r="W244" s="38">
+        <v>28</v>
+      </c>
+      <c r="X244" s="38"/>
+      <c r="Y244" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A245" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B245" s="38">
+        <v>0</v>
+      </c>
+      <c r="C245" s="41"/>
+      <c r="D245" s="38">
+        <v>23</v>
+      </c>
+      <c r="E245" s="40"/>
+      <c r="F245" s="38">
+        <v>27</v>
+      </c>
+      <c r="G245" s="38"/>
+      <c r="H245" s="41"/>
+      <c r="I245" s="40">
+        <v>19</v>
+      </c>
+      <c r="J245" s="38"/>
+      <c r="K245" s="38">
+        <v>27</v>
+      </c>
+      <c r="L245" s="38"/>
+      <c r="M245" s="38">
+        <v>10</v>
+      </c>
+      <c r="N245" s="38"/>
+      <c r="O245" s="38">
+        <v>21</v>
+      </c>
+      <c r="P245" s="38"/>
+      <c r="Q245" s="38">
+        <v>20</v>
+      </c>
+      <c r="R245" s="38"/>
+      <c r="S245" s="39">
+        <v>23</v>
+      </c>
+      <c r="T245" s="38"/>
+      <c r="U245" s="38">
+        <v>21</v>
+      </c>
+      <c r="V245" s="38"/>
+      <c r="W245" s="38">
+        <v>23</v>
+      </c>
+      <c r="X245" s="38"/>
+      <c r="Y245" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A246" s="38"/>
+      <c r="B246" s="38"/>
+      <c r="C246" s="41"/>
+      <c r="D246" s="38"/>
+      <c r="E246" s="40"/>
+      <c r="F246" s="38"/>
+      <c r="G246" s="38"/>
+      <c r="H246" s="41"/>
+      <c r="I246" s="38"/>
+      <c r="J246" s="38"/>
+      <c r="K246" s="38"/>
+      <c r="L246" s="38"/>
+      <c r="M246" s="38"/>
+      <c r="N246" s="38"/>
+      <c r="O246" s="38"/>
+      <c r="P246" s="38"/>
+      <c r="Q246" s="38"/>
+      <c r="R246" s="38"/>
+      <c r="S246" s="38"/>
+      <c r="T246" s="38"/>
+      <c r="U246" s="38"/>
+      <c r="V246" s="38"/>
+      <c r="W246" s="38"/>
+      <c r="X246" s="38"/>
+      <c r="Y246" s="38"/>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A247" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" s="38">
+        <v>0</v>
+      </c>
+      <c r="C247" s="41"/>
+      <c r="D247" s="38">
+        <v>17</v>
+      </c>
+      <c r="E247" s="40"/>
+      <c r="F247" s="38">
+        <v>10</v>
+      </c>
+      <c r="G247" s="38"/>
+      <c r="H247" s="41"/>
+      <c r="I247" s="40">
+        <v>10</v>
+      </c>
+      <c r="J247" s="38"/>
+      <c r="K247" s="38">
+        <v>17</v>
+      </c>
+      <c r="L247" s="38"/>
+      <c r="M247" s="38">
+        <v>10</v>
+      </c>
+      <c r="N247" s="38"/>
+      <c r="O247" s="38">
+        <v>6</v>
+      </c>
+      <c r="P247" s="38"/>
+      <c r="Q247" s="38">
+        <v>17</v>
+      </c>
+      <c r="R247" s="38"/>
+      <c r="S247" s="39">
+        <v>13</v>
+      </c>
+      <c r="T247" s="38"/>
+      <c r="U247" s="38">
+        <v>20</v>
+      </c>
+      <c r="V247" s="38"/>
+      <c r="W247" s="38">
+        <v>16</v>
+      </c>
+      <c r="X247" s="38"/>
+      <c r="Y247" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A248" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" s="38">
+        <v>0</v>
+      </c>
+      <c r="C248" s="41"/>
+      <c r="D248" s="38">
+        <v>23</v>
+      </c>
+      <c r="E248" s="40"/>
+      <c r="F248" s="38">
+        <v>24</v>
+      </c>
+      <c r="G248" s="38"/>
+      <c r="H248" s="41"/>
+      <c r="I248" s="40">
+        <v>20</v>
+      </c>
+      <c r="J248" s="38"/>
+      <c r="K248" s="38">
+        <v>24</v>
+      </c>
+      <c r="L248" s="38"/>
+      <c r="M248" s="38">
+        <v>21</v>
+      </c>
+      <c r="N248" s="38"/>
+      <c r="O248" s="38">
+        <v>10</v>
+      </c>
+      <c r="P248" s="38"/>
+      <c r="Q248" s="38">
+        <v>24</v>
+      </c>
+      <c r="R248" s="38"/>
+      <c r="S248" s="39">
+        <v>31</v>
+      </c>
+      <c r="T248" s="38"/>
+      <c r="U248" s="38">
+        <v>28</v>
+      </c>
+      <c r="V248" s="38"/>
+      <c r="W248" s="38">
+        <v>35</v>
+      </c>
+      <c r="X248" s="38"/>
+      <c r="Y248" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A249" s="38"/>
+      <c r="B249" s="38"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="40"/>
+      <c r="F249" s="38"/>
+      <c r="G249" s="38"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="38"/>
+      <c r="J249" s="38"/>
+      <c r="K249" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L249" s="38"/>
+      <c r="M249" s="38"/>
+      <c r="N249" s="38"/>
+      <c r="O249" s="38"/>
+      <c r="P249" s="38"/>
+      <c r="Q249" s="38"/>
+      <c r="R249" s="38"/>
+      <c r="S249" s="38"/>
+      <c r="T249" s="38"/>
+      <c r="U249" s="38"/>
+      <c r="V249" s="38"/>
+      <c r="W249" s="38"/>
+      <c r="X249" s="38"/>
+      <c r="Y249" s="38"/>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A250" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B250" s="38">
+        <v>0</v>
+      </c>
+      <c r="C250" s="41"/>
+      <c r="D250" s="38">
+        <v>10</v>
+      </c>
+      <c r="E250" s="40"/>
+      <c r="F250" s="38">
+        <v>13</v>
+      </c>
+      <c r="G250" s="38"/>
+      <c r="H250" s="41"/>
+      <c r="I250" s="40">
+        <v>15</v>
+      </c>
+      <c r="J250" s="38"/>
+      <c r="K250" s="38">
+        <v>20</v>
+      </c>
+      <c r="L250" s="38"/>
+      <c r="M250" s="38">
+        <v>10</v>
+      </c>
+      <c r="N250" s="38"/>
+      <c r="O250" s="38">
+        <v>24</v>
+      </c>
+      <c r="P250" s="38"/>
+      <c r="Q250" s="38">
+        <v>27</v>
+      </c>
+      <c r="R250" s="38"/>
+      <c r="S250" s="39">
+        <v>10</v>
+      </c>
+      <c r="T250" s="38"/>
+      <c r="U250" s="38">
+        <v>28</v>
+      </c>
+      <c r="V250" s="38"/>
+      <c r="W250" s="38">
+        <v>12</v>
+      </c>
+      <c r="X250" s="38"/>
+      <c r="Y250" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A251" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B251" s="38">
+        <v>0</v>
+      </c>
+      <c r="C251" s="41"/>
+      <c r="D251" s="38">
+        <v>34</v>
+      </c>
+      <c r="E251" s="40"/>
+      <c r="F251" s="38">
+        <v>27</v>
+      </c>
+      <c r="G251" s="38"/>
+      <c r="H251" s="41"/>
+      <c r="I251" s="40">
+        <v>22</v>
+      </c>
+      <c r="J251" s="38"/>
+      <c r="K251" s="38">
+        <v>27</v>
+      </c>
+      <c r="L251" s="38"/>
+      <c r="M251" s="38">
+        <v>28</v>
+      </c>
+      <c r="N251" s="38"/>
+      <c r="O251" s="38">
+        <v>34</v>
+      </c>
+      <c r="P251" s="38"/>
+      <c r="Q251" s="38">
+        <v>33</v>
+      </c>
+      <c r="R251" s="38"/>
+      <c r="S251" s="39">
+        <v>31</v>
+      </c>
+      <c r="T251" s="38"/>
+      <c r="U251" s="38">
+        <v>31</v>
+      </c>
+      <c r="V251" s="38"/>
+      <c r="W251" s="38">
+        <v>26</v>
+      </c>
+      <c r="X251" s="38"/>
+      <c r="Y251" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A252" s="38"/>
+      <c r="B252" s="38"/>
+      <c r="C252" s="41"/>
+      <c r="D252" s="38"/>
+      <c r="E252" s="40"/>
+      <c r="F252" s="38"/>
+      <c r="G252" s="38"/>
+      <c r="H252" s="41"/>
+      <c r="I252" s="38"/>
+      <c r="J252" s="38"/>
+      <c r="K252" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L252" s="38"/>
+      <c r="M252" s="38"/>
+      <c r="N252" s="38"/>
+      <c r="O252" s="38"/>
+      <c r="P252" s="38"/>
+      <c r="Q252" s="38"/>
+      <c r="R252" s="38"/>
+      <c r="S252" s="38"/>
+      <c r="T252" s="38"/>
+      <c r="U252" s="38"/>
+      <c r="V252" s="38"/>
+      <c r="W252" s="38"/>
+      <c r="X252" s="38"/>
+      <c r="Y252" s="38"/>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A253" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" s="38">
+        <v>0</v>
+      </c>
+      <c r="C253" s="41"/>
+      <c r="D253" s="38">
+        <v>17</v>
+      </c>
+      <c r="E253" s="40"/>
+      <c r="F253" s="38">
+        <v>17</v>
+      </c>
+      <c r="G253" s="38"/>
+      <c r="H253" s="41"/>
+      <c r="I253" s="40">
+        <v>20</v>
+      </c>
+      <c r="J253" s="38"/>
+      <c r="K253" s="38">
+        <v>23</v>
+      </c>
+      <c r="L253" s="38"/>
+      <c r="M253" s="38">
+        <v>34</v>
+      </c>
+      <c r="N253" s="38"/>
+      <c r="O253" s="38">
+        <v>31</v>
+      </c>
+      <c r="P253" s="38"/>
+      <c r="Q253" s="38">
+        <v>28</v>
+      </c>
+      <c r="R253" s="38"/>
+      <c r="S253" s="39">
+        <v>27</v>
+      </c>
+      <c r="T253" s="38"/>
+      <c r="U253" s="38">
+        <v>28</v>
+      </c>
+      <c r="V253" s="38"/>
+      <c r="W253" s="38">
+        <v>24</v>
+      </c>
+      <c r="X253" s="38"/>
+      <c r="Y253" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A254" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="38">
+        <v>0</v>
+      </c>
+      <c r="C254" s="41"/>
+      <c r="D254" s="38">
+        <v>23</v>
+      </c>
+      <c r="E254" s="40"/>
+      <c r="F254" s="38">
+        <v>34</v>
+      </c>
+      <c r="G254" s="38"/>
+      <c r="H254" s="41"/>
+      <c r="I254" s="40">
+        <v>21</v>
+      </c>
+      <c r="J254" s="38"/>
+      <c r="K254" s="38">
+        <v>27</v>
+      </c>
+      <c r="L254" s="38"/>
+      <c r="M254" s="38">
+        <v>14</v>
+      </c>
+      <c r="N254" s="38"/>
+      <c r="O254" s="38">
+        <v>28</v>
+      </c>
+      <c r="P254" s="38"/>
+      <c r="Q254" s="38">
+        <v>24</v>
+      </c>
+      <c r="R254" s="38"/>
+      <c r="S254" s="39">
+        <v>20</v>
+      </c>
+      <c r="T254" s="38"/>
+      <c r="U254" s="38">
+        <v>31</v>
+      </c>
+      <c r="V254" s="38"/>
+      <c r="W254" s="38">
+        <v>26</v>
+      </c>
+      <c r="X254" s="38"/>
+      <c r="Y254" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A255" s="38"/>
+      <c r="B255" s="38"/>
+      <c r="C255" s="41"/>
+      <c r="D255" s="38"/>
+      <c r="E255" s="40"/>
+      <c r="F255" s="38"/>
+      <c r="G255" s="38"/>
+      <c r="H255" s="41"/>
+      <c r="I255" s="38"/>
+      <c r="J255" s="38"/>
+      <c r="K255" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L255" s="38"/>
+      <c r="M255" s="38"/>
+      <c r="N255" s="38"/>
+      <c r="O255" s="38"/>
+      <c r="P255" s="38"/>
+      <c r="Q255" s="38"/>
+      <c r="R255" s="38"/>
+      <c r="S255" s="38"/>
+      <c r="T255" s="38"/>
+      <c r="U255" s="38"/>
+      <c r="V255" s="38"/>
+      <c r="W255" s="38"/>
+      <c r="X255" s="38"/>
+      <c r="Y255" s="38"/>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A256" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C226" s="8"/>
-      <c r="E226" s="4"/>
-      <c r="H226" s="8"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B256" s="38">
+        <v>0</v>
+      </c>
+      <c r="C256" s="41"/>
+      <c r="D256" s="38">
+        <v>23</v>
+      </c>
+      <c r="E256" s="40"/>
+      <c r="F256" s="38">
+        <v>20</v>
+      </c>
+      <c r="G256" s="38"/>
+      <c r="H256" s="41"/>
+      <c r="I256" s="40">
+        <v>18</v>
+      </c>
+      <c r="J256" s="38"/>
+      <c r="K256" s="38">
+        <v>23</v>
+      </c>
+      <c r="L256" s="38"/>
+      <c r="M256" s="38">
+        <v>14</v>
+      </c>
+      <c r="N256" s="38"/>
+      <c r="O256" s="38">
+        <v>21</v>
+      </c>
+      <c r="P256" s="38"/>
+      <c r="Q256" s="38">
+        <v>24</v>
+      </c>
+      <c r="R256" s="38"/>
+      <c r="S256" s="39">
+        <v>27</v>
+      </c>
+      <c r="T256" s="38"/>
+      <c r="U256" s="38">
+        <v>27</v>
+      </c>
+      <c r="V256" s="38"/>
+      <c r="W256" s="38">
+        <v>29</v>
+      </c>
+      <c r="X256" s="38"/>
+      <c r="Y256" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A257" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C227" s="8"/>
-      <c r="E227" s="4"/>
-      <c r="H227" s="8"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C228" s="8"/>
-      <c r="E228" s="4"/>
-      <c r="H228" s="8"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>29</v>
-      </c>
-      <c r="C229" s="8"/>
-      <c r="E229" s="4"/>
-      <c r="H229" s="8"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>86</v>
-      </c>
-      <c r="C230" s="8"/>
-      <c r="E230" s="4"/>
-      <c r="H230" s="8"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C231" s="8"/>
-      <c r="E231" s="4"/>
-      <c r="H231" s="8"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>74</v>
-      </c>
-      <c r="C232" s="8"/>
-      <c r="E232" s="4"/>
-      <c r="H232" s="8"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>24</v>
-      </c>
-      <c r="C233" s="8"/>
-      <c r="E233" s="4"/>
-      <c r="H233" s="8"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C234" s="8"/>
-      <c r="E234" s="4"/>
-      <c r="H234" s="8"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B257" s="38">
+        <v>0</v>
+      </c>
+      <c r="C257" s="41"/>
+      <c r="D257" s="38">
+        <v>17</v>
+      </c>
+      <c r="E257" s="40"/>
+      <c r="F257" s="38">
+        <v>23</v>
+      </c>
+      <c r="G257" s="38"/>
+      <c r="H257" s="41"/>
+      <c r="I257" s="40">
+        <v>21</v>
+      </c>
+      <c r="J257" s="38"/>
+      <c r="K257" s="38">
+        <v>24</v>
+      </c>
+      <c r="L257" s="38"/>
+      <c r="M257" s="38">
+        <v>10</v>
+      </c>
+      <c r="N257" s="38"/>
+      <c r="O257" s="38">
+        <v>16</v>
+      </c>
+      <c r="P257" s="38"/>
+      <c r="Q257" s="38">
+        <v>21</v>
+      </c>
+      <c r="R257" s="38"/>
+      <c r="S257" s="39">
+        <v>24</v>
+      </c>
+      <c r="T257" s="38"/>
+      <c r="U257" s="38">
+        <v>20</v>
+      </c>
+      <c r="V257" s="38"/>
+      <c r="W257" s="38">
         <v>26</v>
       </c>
-      <c r="C235" s="8"/>
-      <c r="E235" s="4"/>
-      <c r="H235" s="8"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="X257" s="38"/>
+      <c r="Y257" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A258" s="38"/>
+      <c r="B258" s="38"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="38"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="38"/>
+      <c r="G258" s="38"/>
+      <c r="H258" s="41"/>
+      <c r="I258" s="38"/>
+      <c r="J258" s="38"/>
+      <c r="K258" s="38"/>
+      <c r="L258" s="38"/>
+      <c r="M258" s="38"/>
+      <c r="N258" s="38"/>
+      <c r="O258" s="38"/>
+      <c r="P258" s="38"/>
+      <c r="Q258" s="38"/>
+      <c r="R258" s="38"/>
+      <c r="S258" s="38"/>
+      <c r="T258" s="38"/>
+      <c r="U258" s="38"/>
+      <c r="V258" s="38"/>
+      <c r="W258" s="38"/>
+      <c r="X258" s="38"/>
+      <c r="Y258" s="38"/>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A259" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="38"/>
+      <c r="C259" s="41"/>
+      <c r="D259" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E259" s="40"/>
+      <c r="F259" s="38"/>
+      <c r="G259" s="38"/>
+      <c r="H259" s="41"/>
+      <c r="I259" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M259" t="s">
+        <v>26</v>
+      </c>
+      <c r="O259" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>26</v>
+      </c>
+      <c r="U259" t="s">
+        <v>26</v>
+      </c>
+      <c r="W259" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A260" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C236" s="8"/>
-      <c r="E236" s="4"/>
-      <c r="H236" s="8"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C237" s="8"/>
-      <c r="E237" s="4"/>
-      <c r="H237" s="8"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C238" s="8"/>
-      <c r="E238" s="4"/>
-      <c r="H238" s="8"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C239" s="8"/>
-      <c r="E239" s="4"/>
-      <c r="H239" s="8"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C240" s="8"/>
-      <c r="E240" s="4"/>
-      <c r="H240" s="8"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B260" s="38"/>
+      <c r="C260" s="41"/>
+      <c r="D260" s="38"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G260" s="38"/>
+      <c r="H260" s="41"/>
+      <c r="K260" t="s">
+        <v>28</v>
+      </c>
+      <c r="S260" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A261" s="38"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="38"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="38"/>
+      <c r="G261" s="38"/>
+      <c r="H261" s="41"/>
+    </row>
+    <row r="262" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C241" s="8"/>
-      <c r="E241" s="4"/>
-      <c r="H241" s="8"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B262" s="38"/>
+      <c r="C262" s="41"/>
+      <c r="D262" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E262" s="40"/>
+      <c r="F262" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G262" s="38"/>
+      <c r="H262" s="41"/>
+      <c r="I262" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="O262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S262" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W262" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y262" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A263" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C242" s="8"/>
-      <c r="E242" s="4"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="8"/>
-      <c r="E243" s="4"/>
-      <c r="H243" s="8"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="13" t="s">
+      <c r="B263" s="38"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="38"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="38"/>
+      <c r="G263" s="38"/>
+      <c r="H263" s="41"/>
+    </row>
+    <row r="264" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="41"/>
+      <c r="E264" s="40"/>
+      <c r="H264" s="41"/>
+      <c r="I264" s="40"/>
+      <c r="S264" s="39"/>
+    </row>
+    <row r="265" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C265" s="41"/>
+      <c r="E265" s="40"/>
+      <c r="H265" s="41"/>
+      <c r="I265" s="40"/>
+      <c r="S265" s="39"/>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C244" s="8"/>
-      <c r="E244" s="4"/>
-      <c r="H244" s="8"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>30</v>
-      </c>
-      <c r="C245" s="8"/>
-      <c r="E245" s="4"/>
-      <c r="H245" s="8"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>80</v>
-      </c>
-      <c r="C246" s="8"/>
-      <c r="E246" s="4"/>
-      <c r="H246" s="8"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C247" s="8"/>
-      <c r="E247" s="4"/>
-      <c r="H247" s="8"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>24</v>
-      </c>
-      <c r="C248" s="8"/>
-      <c r="E248" s="4"/>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>73</v>
-      </c>
-      <c r="C249" s="8"/>
-      <c r="E249" s="4"/>
-      <c r="H249" s="8"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C250" s="8"/>
-      <c r="E250" s="4"/>
-      <c r="H250" s="8"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C251" s="8"/>
-      <c r="E251" s="4"/>
-      <c r="H251" s="8"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C252" s="8"/>
-      <c r="E252" s="4"/>
-      <c r="H252" s="8"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C253" s="8"/>
-      <c r="E253" s="4"/>
-      <c r="H253" s="8"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>19</v>
-      </c>
-      <c r="C254" s="8"/>
-      <c r="E254" s="4"/>
-      <c r="H254" s="8"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>21</v>
-      </c>
-      <c r="C255" s="8"/>
-      <c r="E255" s="4"/>
-      <c r="H255" s="8"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C256" s="8"/>
-      <c r="E256" s="4"/>
-      <c r="H256" s="8"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C257" s="8"/>
-      <c r="E257" s="4"/>
-      <c r="H257" s="8"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>26</v>
-      </c>
-      <c r="C258" s="8"/>
-      <c r="E258" s="4"/>
-      <c r="H258" s="8"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>45</v>
-      </c>
-      <c r="C259" s="8"/>
-      <c r="E259" s="4"/>
-      <c r="H259" s="8"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C260" s="8"/>
-      <c r="E260" s="4"/>
-      <c r="H260" s="8"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>104</v>
-      </c>
-      <c r="C261" s="8"/>
-      <c r="E261" s="4"/>
-      <c r="H261" s="8"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>19</v>
-      </c>
-      <c r="C262" s="8"/>
-      <c r="E262" s="4"/>
-      <c r="H262" s="8"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C263" s="8"/>
-      <c r="E263" s="4"/>
-      <c r="H263" s="8"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>25</v>
-      </c>
-      <c r="C264" s="8"/>
-      <c r="E264" s="4"/>
-      <c r="H264" s="8"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>48</v>
-      </c>
-      <c r="C265" s="8"/>
-      <c r="E265" s="4"/>
-      <c r="H265" s="8"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C266" s="8"/>
       <c r="E266" s="4"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C267" s="8"/>
+      <c r="D267" t="s">
+        <v>30</v>
+      </c>
       <c r="E267" s="4"/>
+      <c r="F267" t="s">
+        <v>30</v>
+      </c>
       <c r="H267" s="8"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K267" t="s">
+        <v>30</v>
+      </c>
+      <c r="M267" t="s">
+        <v>30</v>
+      </c>
+      <c r="O267" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>30</v>
+      </c>
+      <c r="S267" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U267" t="s">
+        <v>30</v>
+      </c>
+      <c r="W267" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C268" s="8"/>
       <c r="E268" s="4"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C269" s="8"/>
       <c r="E269" s="4"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C270" s="8"/>
       <c r="E270" s="4"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C271" s="8"/>
       <c r="E271" s="4"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
       <c r="E272" s="4"/>
       <c r="H272" s="8"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>43</v>
-      </c>
       <c r="C273" s="8"/>
       <c r="E273" s="4"/>
       <c r="H273" s="8"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>22</v>
-      </c>
       <c r="C274" s="8"/>
       <c r="E274" s="4"/>
       <c r="H274" s="8"/>
@@ -6857,7 +8320,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C276" s="8"/>
       <c r="E276" s="4"/>
@@ -6865,7 +8328,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C277" s="8"/>
       <c r="E277" s="4"/>
@@ -6877,8 +8340,8 @@
       <c r="H278" s="8"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>44</v>
+      <c r="A279" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C279" s="8"/>
       <c r="E279" s="4"/>
@@ -6886,825 +8349,980 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C280" s="8"/>
       <c r="E280" s="4"/>
       <c r="H280" s="8"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
       <c r="C281" s="8"/>
       <c r="E281" s="4"/>
       <c r="H281" s="8"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>49</v>
-      </c>
       <c r="C282" s="8"/>
       <c r="E282" s="4"/>
       <c r="H282" s="8"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C283" s="8"/>
       <c r="E283" s="4"/>
       <c r="H283" s="8"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>19</v>
+      </c>
       <c r="C284" s="8"/>
       <c r="E284" s="4"/>
       <c r="H284" s="8"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>87</v>
-      </c>
       <c r="C285" s="8"/>
       <c r="E285" s="4"/>
       <c r="H285" s="8"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C286" s="8"/>
       <c r="E286" s="4"/>
       <c r="H286" s="8"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>48</v>
+      </c>
       <c r="C287" s="8"/>
       <c r="E287" s="4"/>
       <c r="H287" s="8"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>83</v>
-      </c>
       <c r="C288" s="8"/>
       <c r="E288" s="4"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C289" s="8"/>
       <c r="E289" s="4"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>21</v>
+      </c>
       <c r="C290" s="8"/>
       <c r="E290" s="4"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>30</v>
-      </c>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C291" s="8"/>
       <c r="E291" s="4"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C292" s="8"/>
       <c r="E292" s="4"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>29</v>
+      </c>
       <c r="C293" s="8"/>
       <c r="E293" s="4"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>73</v>
-      </c>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C294" s="8"/>
       <c r="E294" s="4"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C295" s="8"/>
       <c r="E295" s="4"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>22</v>
+      </c>
       <c r="C296" s="8"/>
       <c r="E296" s="4"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>20</v>
-      </c>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C297" s="8"/>
       <c r="E297" s="4"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C298" s="8"/>
       <c r="E298" s="4"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>46</v>
+      </c>
       <c r="C299" s="8"/>
       <c r="E299" s="4"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>24</v>
-      </c>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C300" s="8"/>
       <c r="E300" s="4"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C301" s="8"/>
       <c r="E301" s="4"/>
       <c r="H301" s="8"/>
-      <c r="R301" s="7"/>
-      <c r="T301" s="7"/>
-      <c r="W301" s="7"/>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>86</v>
+      </c>
       <c r="C302" s="8"/>
       <c r="E302" s="4"/>
       <c r="H302" s="8"/>
-      <c r="R302" s="7"/>
-      <c r="T302" s="7"/>
-      <c r="W302" s="7"/>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C303" s="8"/>
       <c r="E303" s="4"/>
-      <c r="G303" s="7"/>
       <c r="H303" s="8"/>
-      <c r="S303" s="3"/>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C304" s="8"/>
       <c r="E304" s="4"/>
-      <c r="G304" s="7"/>
       <c r="H304" s="8"/>
-      <c r="S304" s="3"/>
-    </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>92</v>
+      </c>
       <c r="C305" s="8"/>
       <c r="E305" s="4"/>
-      <c r="G305" s="7"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A306" s="13" t="s">
-        <v>105</v>
-      </c>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C306" s="8"/>
       <c r="E306" s="4"/>
-      <c r="G306" s="7"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>87</v>
+      </c>
       <c r="C307" s="8"/>
       <c r="E307" s="4"/>
-      <c r="G307" s="7"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>27</v>
+      </c>
       <c r="C308" s="8"/>
       <c r="E308" s="4"/>
-      <c r="G308" s="7"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C309" s="8"/>
       <c r="E309" s="4"/>
-      <c r="G309" s="7"/>
       <c r="H309" s="8"/>
-      <c r="W309" s="4"/>
-    </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>83</v>
+      </c>
       <c r="C310" s="8"/>
       <c r="E310" s="4"/>
-      <c r="G310" s="7"/>
       <c r="H310" s="8"/>
-      <c r="W310" s="4"/>
-    </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>82</v>
+      </c>
+      <c r="C311" s="8"/>
+      <c r="E311" s="4"/>
+      <c r="H311" s="8"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C312" s="8"/>
+      <c r="E312" s="4"/>
+      <c r="H312" s="8"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>30</v>
+      </c>
+      <c r="C313" s="8"/>
+      <c r="E313" s="4"/>
+      <c r="H313" s="8"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>78</v>
+      </c>
+      <c r="C314" s="8"/>
+      <c r="E314" s="4"/>
+      <c r="H314" s="8"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C315" s="8"/>
+      <c r="E315" s="4"/>
+      <c r="H315" s="8"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>73</v>
+      </c>
+      <c r="C316" s="8"/>
+      <c r="E316" s="4"/>
+      <c r="H316" s="8"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>74</v>
+      </c>
+      <c r="C317" s="8"/>
+      <c r="E317" s="4"/>
+      <c r="H317" s="8"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C318" s="8"/>
+      <c r="E318" s="4"/>
+      <c r="H318" s="8"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="8"/>
+      <c r="E319" s="4"/>
+      <c r="H319" s="8"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>52</v>
+      </c>
+      <c r="C320" s="8"/>
+      <c r="E320" s="4"/>
+      <c r="H320" s="8"/>
+    </row>
+    <row r="321" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C321" s="8"/>
+      <c r="E321" s="4"/>
+      <c r="H321" s="8"/>
+    </row>
+    <row r="322" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>24</v>
+      </c>
+      <c r="C322" s="8"/>
+      <c r="E322" s="4"/>
+      <c r="H322" s="8"/>
+    </row>
+    <row r="323" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>47</v>
+      </c>
+      <c r="C323" s="8"/>
+      <c r="E323" s="4"/>
+      <c r="H323" s="8"/>
+      <c r="R323" s="7"/>
+      <c r="T323" s="7"/>
+      <c r="W323" s="7"/>
+    </row>
+    <row r="324" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C324" s="8"/>
+      <c r="E324" s="4"/>
+      <c r="H324" s="8"/>
+      <c r="R324" s="7"/>
+      <c r="T324" s="7"/>
+      <c r="W324" s="7"/>
+    </row>
+    <row r="325" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325" s="8"/>
+      <c r="E325" s="4"/>
+      <c r="G325" s="7"/>
+      <c r="H325" s="8"/>
+      <c r="S325" s="3"/>
+    </row>
+    <row r="326" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>84</v>
+      </c>
+      <c r="C326" s="8"/>
+      <c r="E326" s="4"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="8"/>
+      <c r="S326" s="3"/>
+    </row>
+    <row r="327" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C327" s="8"/>
+      <c r="E327" s="4"/>
+      <c r="G327" s="7"/>
+      <c r="H327" s="8"/>
+    </row>
+    <row r="328" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A328" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C328" s="8"/>
+      <c r="E328" s="4"/>
+      <c r="G328" s="7"/>
+      <c r="H328" s="8"/>
+    </row>
+    <row r="329" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C329" s="8"/>
+      <c r="E329" s="4"/>
+      <c r="G329" s="7"/>
+      <c r="H329" s="8"/>
+    </row>
+    <row r="330" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C330" s="8"/>
+      <c r="E330" s="4"/>
+      <c r="G330" s="7"/>
+      <c r="H330" s="8"/>
+    </row>
+    <row r="331" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C331" s="8"/>
+      <c r="E331" s="4"/>
+      <c r="G331" s="7"/>
+      <c r="H331" s="8"/>
+      <c r="W331" s="4"/>
+    </row>
+    <row r="332" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C332" s="8"/>
+      <c r="E332" s="4"/>
+      <c r="G332" s="7"/>
+      <c r="H332" s="8"/>
+      <c r="W332" s="4"/>
+    </row>
+    <row r="333" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>106</v>
       </c>
-      <c r="C311" s="4">
-        <f>SUM(C2:C310)</f>
+      <c r="C333" s="4">
+        <f>SUM(C2:C332)</f>
         <v>-195</v>
       </c>
-      <c r="E311" s="4">
-        <f>SUM(E2:E310)</f>
+      <c r="E333" s="4">
+        <f>SUM(E2:E332)</f>
         <v>95</v>
       </c>
-      <c r="G311" s="7"/>
-      <c r="H311" s="4">
-        <f>SUM(H2:H310)</f>
+      <c r="G333" s="7"/>
+      <c r="H333" s="4">
+        <f>SUM(H2:H332)</f>
         <v>95</v>
       </c>
-      <c r="J311">
-        <f>SUM(J2:J310)</f>
+      <c r="J333">
+        <f>SUM(J2:J332)</f>
         <v>70</v>
       </c>
-      <c r="L311">
-        <f>SUM(L2:L310)</f>
+      <c r="L333">
+        <f>SUM(L2:L332)</f>
         <v>80</v>
       </c>
-      <c r="N311">
-        <f>SUM(N2:N310)</f>
+      <c r="N333">
+        <f>SUM(N2:N332)</f>
         <v>70</v>
       </c>
-      <c r="P311">
-        <f>SUM(P2:P310)</f>
+      <c r="P333">
+        <f>SUM(P2:P332)</f>
         <v>50</v>
       </c>
-      <c r="R311">
-        <f>SUM(R2:R310)</f>
+      <c r="R333">
+        <f>SUM(R2:R332)</f>
         <v>80</v>
       </c>
-      <c r="T311">
-        <f>SUM(T2:T310)</f>
+      <c r="T333">
+        <f>SUM(T2:T332)</f>
         <v>105</v>
       </c>
-      <c r="V311">
-        <f>SUM(V2:V310)</f>
+      <c r="V333">
+        <f>SUM(V2:V332)</f>
         <v>130</v>
       </c>
-      <c r="W311" s="4"/>
-      <c r="X311">
-        <f>SUM(X2:X310)</f>
+      <c r="W333" s="4"/>
+      <c r="X333">
+        <f>SUM(X2:X332)</f>
         <v>60</v>
       </c>
-      <c r="Z311">
-        <f>SUM(Z2:Z310)</f>
+      <c r="Z333">
+        <f>SUM(Z2:Z332)</f>
         <v>80</v>
       </c>
-      <c r="AB311">
-        <f>SUM(AB2:AB310)</f>
+      <c r="AB333">
+        <f>SUM(AB2:AB332)</f>
         <v>-60</v>
       </c>
-      <c r="AD311">
-        <f>SUM(AD2:AD310)</f>
+      <c r="AD333">
+        <f>SUM(AD2:AD332)</f>
         <v>-60</v>
       </c>
-      <c r="AF311">
-        <f>SUM(AF2:AF310)</f>
+      <c r="AF333">
+        <f>SUM(AF2:AF332)</f>
         <v>-40</v>
       </c>
-      <c r="AG311" s="4">
-        <f>SUM(C311:AF311)</f>
+      <c r="AG333" s="4">
+        <f>SUM(C333:AF333)</f>
         <v>560</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G312" s="7"/>
-      <c r="H312" s="7"/>
-      <c r="W312" s="4"/>
-    </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G313" s="7"/>
-      <c r="H313" s="7"/>
-      <c r="W313" s="4"/>
-    </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G314" s="7"/>
-      <c r="H314" s="7"/>
-      <c r="W314" s="4"/>
-    </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G334" s="7"/>
+      <c r="H334" s="7"/>
+      <c r="W334" s="4"/>
+    </row>
+    <row r="335" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G335" s="7"/>
+      <c r="H335" s="7"/>
+      <c r="W335" s="4"/>
+    </row>
+    <row r="336" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G336" s="7"/>
+      <c r="H336" s="7"/>
+      <c r="W336" s="4"/>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>107</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B337" t="s">
         <v>71</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D337" t="s">
         <v>75</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F337" t="s">
         <v>81</v>
       </c>
-      <c r="G315" s="7"/>
-      <c r="H315" s="7"/>
-      <c r="I315" s="4" t="s">
+      <c r="G337" s="7"/>
+      <c r="H337" s="7"/>
+      <c r="I337" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W315" s="4"/>
-    </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="W337" s="4"/>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>2</v>
       </c>
-      <c r="B316">
+      <c r="B338">
         <v>45</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D338" t="s">
         <v>2</v>
       </c>
-      <c r="E316">
+      <c r="E338">
         <v>85</v>
       </c>
-      <c r="F316" t="s">
-        <v>10</v>
-      </c>
-      <c r="H316">
+      <c r="F338" t="s">
+        <v>10</v>
+      </c>
+      <c r="H338">
         <v>95</v>
       </c>
-      <c r="I316" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J316">
+      <c r="I338" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J338">
         <v>130</v>
       </c>
-      <c r="W316" s="4"/>
-    </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="W338" s="4"/>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>14</v>
       </c>
-      <c r="B317">
+      <c r="B339">
         <v>45</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D339" t="s">
         <v>108</v>
       </c>
-      <c r="E317">
+      <c r="E339">
         <v>75</v>
       </c>
-      <c r="F317" s="4" t="s">
+      <c r="F339" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G317">
+      <c r="G339">
         <v>85</v>
       </c>
-      <c r="H317">
+      <c r="H339">
         <v>85</v>
       </c>
-      <c r="I317" s="4" t="s">
+      <c r="I339" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J317">
+      <c r="J339">
         <v>105</v>
       </c>
-      <c r="W317" s="4"/>
-    </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="W339" s="4"/>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>109</v>
       </c>
-      <c r="B318">
-        <v>20</v>
-      </c>
-      <c r="D318" t="s">
+      <c r="B340">
+        <v>20</v>
+      </c>
+      <c r="D340" t="s">
         <v>9</v>
       </c>
-      <c r="E318">
+      <c r="E340">
         <v>65</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F340" t="s">
         <v>9</v>
       </c>
-      <c r="H318">
+      <c r="H340">
         <v>85</v>
       </c>
-      <c r="I318" t="s">
+      <c r="I340" t="s">
         <v>2</v>
       </c>
-      <c r="J318">
+      <c r="J340">
         <v>95</v>
       </c>
-      <c r="W318" s="4"/>
-    </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="W340" s="4"/>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>6</v>
       </c>
-      <c r="B319">
-        <v>20</v>
-      </c>
-      <c r="D319" t="s">
+      <c r="B341">
+        <v>20</v>
+      </c>
+      <c r="D341" t="s">
         <v>8</v>
       </c>
-      <c r="E319">
+      <c r="E341">
         <v>60</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F341" t="s">
         <v>14</v>
       </c>
-      <c r="H319">
+      <c r="H341">
         <v>85</v>
       </c>
-      <c r="I319" s="4" t="s">
+      <c r="I341" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J319">
+      <c r="J341">
         <v>95</v>
       </c>
-      <c r="W319" s="4"/>
-    </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="W341" s="4"/>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>7</v>
       </c>
-      <c r="B320">
-        <v>20</v>
-      </c>
-      <c r="D320" t="s">
+      <c r="B342">
+        <v>20</v>
+      </c>
+      <c r="D342" t="s">
         <v>110</v>
       </c>
-      <c r="E320">
+      <c r="E342">
         <v>50</v>
       </c>
-      <c r="F320" s="4" t="s">
+      <c r="F342" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G320">
+      <c r="G342">
         <v>70</v>
       </c>
-      <c r="H320">
+      <c r="H342">
         <v>80</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I342" t="s">
         <v>14</v>
       </c>
-      <c r="J320">
+      <c r="J342">
         <v>95</v>
       </c>
-      <c r="W320" s="4"/>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="W342" s="4"/>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>8</v>
       </c>
-      <c r="B321">
-        <v>20</v>
-      </c>
-      <c r="D321" t="s">
+      <c r="B343">
+        <v>20</v>
+      </c>
+      <c r="D343" t="s">
         <v>111</v>
       </c>
-      <c r="E321">
+      <c r="E343">
         <v>50</v>
       </c>
-      <c r="F321" s="4" t="s">
+      <c r="F343" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G321">
+      <c r="G343">
         <v>60</v>
       </c>
-      <c r="H321">
+      <c r="H343">
         <v>80</v>
       </c>
-      <c r="I321" s="4" t="s">
+      <c r="I343" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J321">
+      <c r="J343">
         <v>90</v>
       </c>
-      <c r="W321" s="4"/>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="W343" s="4"/>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>12</v>
       </c>
-      <c r="B322">
-        <v>20</v>
-      </c>
-      <c r="D322" t="s">
+      <c r="B344">
+        <v>20</v>
+      </c>
+      <c r="D344" t="s">
         <v>112</v>
       </c>
-      <c r="E322">
+      <c r="E344">
         <v>50</v>
       </c>
-      <c r="F322" s="4" t="s">
+      <c r="F344" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H322">
+      <c r="H344">
         <v>70</v>
       </c>
-      <c r="I322" s="4" t="s">
+      <c r="I344" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J322">
+      <c r="J344">
         <v>80</v>
       </c>
-      <c r="W322" s="4"/>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="W344" s="4"/>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>113</v>
       </c>
-      <c r="B323">
-        <v>20</v>
-      </c>
-      <c r="D323" t="s">
-        <v>10</v>
-      </c>
-      <c r="E323">
+      <c r="B345">
+        <v>20</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345">
         <v>50</v>
       </c>
-      <c r="F323" s="4" t="s">
+      <c r="F345" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G323">
+      <c r="G345">
         <v>40</v>
       </c>
-      <c r="H323">
+      <c r="H345">
         <v>60</v>
       </c>
-      <c r="I323" s="4" t="s">
+      <c r="I345" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J323">
+      <c r="J345">
         <v>80</v>
       </c>
-      <c r="W323" s="4"/>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="W345" s="4"/>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>3</v>
       </c>
-      <c r="B324">
-        <v>10</v>
-      </c>
-      <c r="D324" t="s">
+      <c r="B346">
+        <v>10</v>
+      </c>
+      <c r="D346" t="s">
         <v>12</v>
       </c>
-      <c r="E324">
+      <c r="E346">
         <v>50</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="F346" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H324">
+      <c r="H346">
         <v>60</v>
       </c>
-      <c r="I324" s="4" t="s">
+      <c r="I346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J324">
+      <c r="J346">
         <v>80</v>
       </c>
-      <c r="W324" s="4"/>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="W346" s="4"/>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>4</v>
       </c>
-      <c r="B325">
-        <v>10</v>
-      </c>
-      <c r="D325" t="s">
+      <c r="B347">
+        <v>10</v>
+      </c>
+      <c r="D347" t="s">
         <v>15</v>
       </c>
-      <c r="E325">
+      <c r="E347">
         <v>50</v>
       </c>
-      <c r="F325" s="4" t="s">
+      <c r="F347" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G325">
+      <c r="G347">
         <v>60</v>
       </c>
-      <c r="H325">
+      <c r="H347">
         <v>60</v>
       </c>
-      <c r="I325" s="4" t="s">
+      <c r="I347" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J325">
+      <c r="J347">
         <v>70</v>
       </c>
-      <c r="W325" s="4"/>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>10</v>
-      </c>
-      <c r="B326">
-        <v>10</v>
-      </c>
-      <c r="D326" t="s">
+      <c r="W347" s="4"/>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348">
+        <v>10</v>
+      </c>
+      <c r="D348" t="s">
         <v>7</v>
       </c>
-      <c r="E326">
+      <c r="E348">
         <v>40</v>
       </c>
-      <c r="F326" s="4" t="s">
+      <c r="F348" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G326">
+      <c r="G348">
         <v>60</v>
       </c>
-      <c r="H326">
+      <c r="H348">
         <v>60</v>
       </c>
-      <c r="I326" s="4" t="s">
+      <c r="I348" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J326">
+      <c r="J348">
         <v>70</v>
       </c>
-      <c r="W326" s="4"/>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="W348" s="4"/>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>11</v>
       </c>
-      <c r="B327">
-        <v>10</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="B349">
+        <v>10</v>
+      </c>
+      <c r="D349" t="s">
         <v>11</v>
       </c>
-      <c r="E327">
+      <c r="E349">
         <v>40</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="F349" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G327">
+      <c r="G349">
         <v>40</v>
       </c>
-      <c r="H327">
+      <c r="H349">
         <v>50</v>
       </c>
-      <c r="I327" s="4" t="s">
+      <c r="I349" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J327">
+      <c r="J349">
         <v>60</v>
       </c>
-      <c r="W327" s="4"/>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="W349" s="4"/>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>15</v>
       </c>
-      <c r="B328">
-        <v>10</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="B350">
+        <v>10</v>
+      </c>
+      <c r="D350" t="s">
         <v>3</v>
       </c>
-      <c r="E328">
+      <c r="E350">
         <v>30</v>
       </c>
-      <c r="F328" s="4" t="s">
+      <c r="F350" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G328">
+      <c r="G350">
         <v>50</v>
       </c>
-      <c r="H328">
+      <c r="H350">
         <v>50</v>
       </c>
-      <c r="I328" s="4" t="s">
+      <c r="I350" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J328">
+      <c r="J350">
         <v>60</v>
       </c>
-      <c r="W328" s="4"/>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="W350" s="4"/>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>0</v>
       </c>
-      <c r="B329">
+      <c r="B351">
         <v>0</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D351" t="s">
         <v>4</v>
       </c>
-      <c r="E329">
+      <c r="E351">
         <v>30</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F351" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G329">
+      <c r="G351">
         <v>50</v>
       </c>
-      <c r="H329">
+      <c r="H351">
         <v>50</v>
       </c>
-      <c r="I329" s="4" t="s">
+      <c r="I351" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J329">
+      <c r="J351">
         <v>60</v>
       </c>
-      <c r="W329" s="4"/>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="W351" s="4"/>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>9</v>
       </c>
-      <c r="B330">
+      <c r="B352">
         <v>0</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D352" t="s">
         <v>0</v>
       </c>
-      <c r="E330">
-        <v>20</v>
-      </c>
-      <c r="F330" s="4" t="s">
+      <c r="E352">
+        <v>20</v>
+      </c>
+      <c r="F352" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G330">
+      <c r="G352">
         <v>30</v>
       </c>
-      <c r="H330">
+      <c r="H352">
         <v>40</v>
       </c>
-      <c r="I330" s="4" t="s">
+      <c r="I352" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J330">
+      <c r="J352">
         <v>50</v>
       </c>
-      <c r="W330" s="4"/>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W331" s="4"/>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W332" s="4"/>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W333" s="4"/>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W334" s="4"/>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W335" s="4"/>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W336" s="4"/>
-    </row>
-    <row r="337" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W337" s="4"/>
-    </row>
-    <row r="338" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W338" s="4"/>
-    </row>
-    <row r="339" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W339" s="4"/>
-    </row>
-    <row r="340" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W340" s="4"/>
-    </row>
-    <row r="341" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W341" s="4"/>
-    </row>
-    <row r="342" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W342" s="4"/>
-    </row>
-    <row r="343" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W343" s="4"/>
-    </row>
-    <row r="344" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W344" s="4"/>
-    </row>
-    <row r="345" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W345" s="4"/>
-    </row>
-    <row r="346" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W346" s="4"/>
-    </row>
-    <row r="347" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W347" s="4"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="7"/>
+      <c r="W352" s="4"/>
+    </row>
+    <row r="353" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W353" s="4"/>
+    </row>
+    <row r="354" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W354" s="4"/>
+    </row>
+    <row r="355" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W355" s="4"/>
+    </row>
+    <row r="356" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W356" s="4"/>
+    </row>
+    <row r="357" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W357" s="4"/>
+    </row>
+    <row r="358" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W358" s="4"/>
+    </row>
+    <row r="359" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W359" s="4"/>
+    </row>
+    <row r="360" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W360" s="4"/>
+    </row>
+    <row r="361" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W361" s="4"/>
+    </row>
+    <row r="362" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W362" s="4"/>
+    </row>
+    <row r="363" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W363" s="4"/>
+    </row>
+    <row r="364" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W364" s="4"/>
+    </row>
+    <row r="365" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W365" s="4"/>
+    </row>
+    <row r="366" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W366" s="4"/>
+    </row>
+    <row r="367" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W367" s="4"/>
+    </row>
+    <row r="368" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W368" s="4"/>
+    </row>
+    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W369" s="4"/>
+    </row>
+    <row r="375" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B375" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/NFL PREDICTIONS 2022.xlsx
+++ b/Files/NFL PREDICTIONS 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\Optum\jpvollaro_git\football_picks_webapp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A2A01A-542A-4FF8-B03E-F5DD7A4A38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C3A01-0C28-4745-BE2E-28C7896977DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="115">
   <si>
     <t>KERRY</t>
   </si>
@@ -342,15 +342,15 @@
     <t>WEEK 16</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>WEEK 17</t>
   </si>
   <si>
     <t>WEEK 18</t>
   </si>
   <si>
-    <t xml:space="preserve">PATRIOTS </t>
-  </si>
-  <si>
     <t>PLAYOFFS</t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>MICAHEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>WEEK 19</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,6 +539,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -573,17 +576,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,12 +861,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG375"/>
+  <dimension ref="A1:AG373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A88" sqref="A88"/>
-      <selection pane="bottomLeft" activeCell="Y267" sqref="Y267"/>
+      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,100 +906,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="25" t="s">
+      <c r="U1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1113,7 +1110,7 @@
       <c r="AE3" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1169,7 +1166,7 @@
       <c r="AE4" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AG4" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1225,7 +1222,7 @@
       <c r="AE5" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1281,7 +1278,7 @@
       <c r="AE6" t="s">
         <v>34</v>
       </c>
-      <c r="AG6" s="28">
+      <c r="AG6" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1337,7 +1334,7 @@
       <c r="AE7" t="s">
         <v>41</v>
       </c>
-      <c r="AG7" s="28">
+      <c r="AG7" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1393,7 +1390,7 @@
       <c r="AE8" t="s">
         <v>49</v>
       </c>
-      <c r="AG8" s="28">
+      <c r="AG8" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1449,7 +1446,7 @@
       <c r="AE9" t="s">
         <v>43</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1505,7 +1502,7 @@
       <c r="AE10" t="s">
         <v>70</v>
       </c>
-      <c r="AG10" s="28">
+      <c r="AG10" s="31">
         <v>100</v>
       </c>
     </row>
@@ -1518,7 +1515,7 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="3"/>
@@ -1595,7 +1592,7 @@
       <c r="AF13">
         <v>10</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AG13" s="31">
         <v>10</v>
       </c>
     </row>
@@ -1701,7 +1698,7 @@
       <c r="AD16">
         <v>10</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG16" s="31">
         <v>10</v>
       </c>
     </row>
@@ -1734,7 +1731,7 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B19">
@@ -1779,18 +1776,18 @@
       <c r="AA19">
         <v>3</v>
       </c>
-      <c r="AC19" s="28">
+      <c r="AC19" s="31">
         <v>21</v>
       </c>
       <c r="AE19">
         <v>35</v>
       </c>
-      <c r="AG19" s="28">
+      <c r="AG19" s="31">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B20">
@@ -1835,7 +1832,7 @@
       <c r="AA20">
         <v>7</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AC20" s="31">
         <v>28</v>
       </c>
       <c r="AD20">
@@ -1900,7 +1897,7 @@
       <c r="AE22" t="s">
         <v>74</v>
       </c>
-      <c r="AG22" s="28">
+      <c r="AG22" s="31">
         <v>10</v>
       </c>
     </row>
@@ -1923,7 +1920,7 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="8"/>
@@ -1936,7 +1933,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="35"/>
       <c r="H26" s="8"/>
       <c r="I26" s="4" t="s">
         <v>73</v>
@@ -1961,7 +1958,7 @@
       <c r="E27" s="4">
         <v>10</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="35"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
         <v>20</v>
@@ -2133,7 +2130,7 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B32">
@@ -2163,7 +2160,7 @@
       <c r="Q32">
         <v>21</v>
       </c>
-      <c r="S32" s="34">
+      <c r="S32" s="37">
         <v>34</v>
       </c>
       <c r="U32">
@@ -2186,7 +2183,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B33">
@@ -2216,7 +2213,7 @@
       <c r="Q33">
         <v>24</v>
       </c>
-      <c r="S33" s="34">
+      <c r="S33" s="37">
         <v>40</v>
       </c>
       <c r="T33">
@@ -2438,7 +2435,7 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="8"/>
@@ -2660,7 +2657,7 @@
       <c r="S48" s="2">
         <v>47</v>
       </c>
-      <c r="U48" s="28">
+      <c r="U48" s="31">
         <v>21</v>
       </c>
       <c r="V48">
@@ -2719,7 +2716,7 @@
       <c r="S49" s="2">
         <v>37</v>
       </c>
-      <c r="U49" s="28">
+      <c r="U49" s="31">
         <v>24</v>
       </c>
       <c r="W49">
@@ -2832,7 +2829,7 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C54" s="8"/>
@@ -3046,7 +3043,7 @@
       <c r="S61">
         <v>47</v>
       </c>
-      <c r="U61" s="28">
+      <c r="U61" s="31">
         <v>24</v>
       </c>
       <c r="V61">
@@ -3102,7 +3099,7 @@
       <c r="S62">
         <v>37</v>
       </c>
-      <c r="U62" s="28">
+      <c r="U62" s="31">
         <v>20</v>
       </c>
       <c r="W62">
@@ -3196,7 +3193,7 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="8"/>
@@ -3261,14 +3258,14 @@
       <c r="AC69" t="s">
         <v>74</v>
       </c>
-      <c r="AE69" s="32"/>
+      <c r="AE69" s="35"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
       <c r="E70" s="4"/>
       <c r="H70" s="8"/>
       <c r="S70"/>
-      <c r="AE70" s="32"/>
+      <c r="AE70" s="35"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -3295,7 +3292,7 @@
       <c r="AA71" t="s">
         <v>21</v>
       </c>
-      <c r="AE71" s="32"/>
+      <c r="AE71" s="35"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -3329,14 +3326,14 @@
       <c r="AC72" t="s">
         <v>41</v>
       </c>
-      <c r="AE72" s="32"/>
+      <c r="AE72" s="35"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
       <c r="E73" s="4"/>
       <c r="H73" s="8"/>
       <c r="S73"/>
-      <c r="AE73" s="32"/>
+      <c r="AE73" s="35"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -3387,7 +3384,7 @@
       <c r="AC74">
         <v>21</v>
       </c>
-      <c r="AE74" s="32"/>
+      <c r="AE74" s="35"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -3438,14 +3435,14 @@
       <c r="AC75">
         <v>28</v>
       </c>
-      <c r="AE75" s="32"/>
+      <c r="AE75" s="35"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
       <c r="E76" s="4"/>
       <c r="H76" s="8"/>
       <c r="S76"/>
-      <c r="AE76" s="32"/>
+      <c r="AE76" s="35"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -3464,7 +3461,7 @@
       <c r="U77" t="s">
         <v>52</v>
       </c>
-      <c r="AE77" s="32"/>
+      <c r="AE77" s="35"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -3506,7 +3503,7 @@
       <c r="AC78" t="s">
         <v>20</v>
       </c>
-      <c r="AE78" s="32"/>
+      <c r="AE78" s="35"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
@@ -3514,7 +3511,7 @@
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C80" s="8"/>
@@ -3771,7 +3768,7 @@
       <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="8"/>
@@ -4073,7 +4070,7 @@
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C106" s="8"/>
@@ -4375,7 +4372,7 @@
       <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C119" s="8"/>
@@ -4617,7 +4614,7 @@
       <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C132" s="8"/>
@@ -4904,7 +4901,7 @@
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C145" s="8"/>
@@ -5191,7 +5188,7 @@
       <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C158" s="8"/>
@@ -5601,7 +5598,7 @@
       <c r="H176" s="8"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C177" s="8"/>
@@ -5864,7 +5861,7 @@
       <c r="H189" s="8"/>
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C190" s="8"/>
@@ -6127,7 +6124,7 @@
       <c r="H202" s="8"/>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C203" s="8"/>
@@ -6144,6 +6141,9 @@
         <v>84</v>
       </c>
       <c r="H204" s="8"/>
+      <c r="K204" t="s">
+        <v>84</v>
+      </c>
       <c r="Q204" t="s">
         <v>84</v>
       </c>
@@ -6164,9 +6164,7 @@
       <c r="I205" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K205" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="K205" s="4"/>
       <c r="M205" s="4" t="s">
         <v>47</v>
       </c>
@@ -6196,7 +6194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>78</v>
       </c>
@@ -6501,7 +6499,7 @@
       <c r="H221" s="8"/>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
+      <c r="A222" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C222" s="8"/>
@@ -6509,1596 +6507,1130 @@
       <c r="H222" s="8"/>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A223" s="38" t="s">
+      <c r="A223" t="s">
         <v>46</v>
       </c>
-      <c r="B223" s="38"/>
-      <c r="C223" s="41"/>
-      <c r="D223" s="38" t="s">
+      <c r="C223" s="8"/>
+      <c r="D223" t="s">
         <v>46</v>
       </c>
-      <c r="E223" s="40"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
-      <c r="H223" s="41"/>
-      <c r="I223" s="38"/>
-      <c r="J223" s="38"/>
-      <c r="K223" s="38" t="s">
+      <c r="E223" s="4"/>
+      <c r="H223" s="8"/>
+      <c r="I223"/>
+      <c r="K223" t="s">
         <v>46</v>
       </c>
-      <c r="L223" s="38"/>
-      <c r="M223" s="38" t="s">
+      <c r="M223" t="s">
         <v>46</v>
       </c>
-      <c r="N223" s="38"/>
-      <c r="O223" s="38" t="s">
+      <c r="O223" t="s">
         <v>46</v>
       </c>
-      <c r="P223" s="38"/>
-      <c r="Q223" s="38" t="s">
+      <c r="Q223" t="s">
         <v>46</v>
       </c>
-      <c r="R223" s="38"/>
-      <c r="S223" s="38" t="s">
+      <c r="S223" t="s">
         <v>46</v>
       </c>
-      <c r="T223" s="38"/>
-      <c r="U223" s="38" t="s">
+      <c r="U223" t="s">
         <v>46</v>
       </c>
-      <c r="V223" s="38"/>
-      <c r="W223" s="38" t="s">
+      <c r="W223" t="s">
         <v>46</v>
       </c>
-      <c r="X223" s="38"/>
-      <c r="Y223" s="38"/>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A224" s="38" t="s">
+      <c r="A224" t="s">
         <v>44</v>
       </c>
-      <c r="B224" s="38"/>
-      <c r="C224" s="41"/>
-      <c r="D224" s="38"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="38" t="s">
+      <c r="C224" s="8"/>
+      <c r="E224" s="4"/>
+      <c r="F224" t="s">
         <v>44</v>
       </c>
-      <c r="G224" s="38"/>
-      <c r="H224" s="41"/>
-      <c r="I224" s="38" t="s">
+      <c r="H224" s="8"/>
+      <c r="I224" t="s">
         <v>44</v>
       </c>
-      <c r="J224" s="38"/>
-      <c r="K224" s="38"/>
-      <c r="L224" s="38"/>
-      <c r="M224" s="38"/>
-      <c r="N224" s="38"/>
-      <c r="O224" s="38"/>
-      <c r="P224" s="38"/>
-      <c r="Q224" s="38"/>
-      <c r="R224" s="38"/>
-      <c r="S224" s="38"/>
-      <c r="T224" s="38"/>
-      <c r="U224" s="38"/>
-      <c r="V224" s="38"/>
-      <c r="W224" s="38"/>
-      <c r="X224" s="38"/>
-      <c r="Y224" s="38" t="s">
+      <c r="S224"/>
+      <c r="Y224" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A225" s="38"/>
-      <c r="B225" s="38"/>
-      <c r="C225" s="41"/>
-      <c r="D225" s="38"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="38"/>
-      <c r="G225" s="38"/>
-      <c r="H225" s="41"/>
-      <c r="I225" s="38"/>
-      <c r="J225" s="38"/>
-      <c r="K225" s="38"/>
-      <c r="L225" s="38"/>
-      <c r="M225" s="38"/>
-      <c r="N225" s="38"/>
-      <c r="O225" s="38"/>
-      <c r="P225" s="38"/>
-      <c r="Q225" s="38"/>
-      <c r="R225" s="38"/>
-      <c r="S225" s="38"/>
-      <c r="T225" s="38"/>
-      <c r="U225" s="38"/>
-      <c r="V225" s="38"/>
-      <c r="W225" s="38"/>
-      <c r="X225" s="38"/>
-      <c r="Y225" s="38"/>
+      <c r="C225" s="8"/>
+      <c r="E225" s="4"/>
+      <c r="H225" s="8"/>
+      <c r="I225"/>
+      <c r="S225"/>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A226" s="38" t="s">
+      <c r="A226" t="s">
         <v>19</v>
       </c>
-      <c r="B226" s="38">
+      <c r="B226">
         <v>0</v>
       </c>
-      <c r="C226" s="41"/>
-      <c r="D226" s="38">
+      <c r="C226" s="8"/>
+      <c r="D226">
         <v>34</v>
       </c>
-      <c r="E226" s="40"/>
-      <c r="F226" s="38">
-        <v>27</v>
-      </c>
-      <c r="G226" s="38"/>
-      <c r="H226" s="41"/>
-      <c r="I226" s="40">
-        <v>27</v>
-      </c>
-      <c r="J226" s="38"/>
-      <c r="K226" s="38">
-        <v>27</v>
-      </c>
-      <c r="L226" s="38"/>
-      <c r="M226" s="38">
-        <v>21</v>
-      </c>
-      <c r="N226" s="38"/>
-      <c r="O226" s="38">
+      <c r="E226" s="4"/>
+      <c r="F226">
+        <v>27</v>
+      </c>
+      <c r="H226" s="8"/>
+      <c r="I226" s="4">
+        <v>27</v>
+      </c>
+      <c r="K226">
+        <v>27</v>
+      </c>
+      <c r="M226">
+        <v>21</v>
+      </c>
+      <c r="O226">
         <v>28</v>
       </c>
-      <c r="P226" s="38"/>
-      <c r="Q226" s="38">
-        <v>24</v>
-      </c>
-      <c r="R226" s="38"/>
-      <c r="S226" s="39">
+      <c r="Q226">
         <v>34</v>
       </c>
-      <c r="T226" s="38"/>
-      <c r="U226" s="38">
+      <c r="S226" s="2">
+        <v>34</v>
+      </c>
+      <c r="U226">
         <v>35</v>
       </c>
-      <c r="V226" s="38"/>
-      <c r="W226" s="38">
+      <c r="W226">
         <v>42</v>
       </c>
-      <c r="X226" s="38"/>
-      <c r="Y226" s="38">
+      <c r="Y226">
         <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A227" s="38" t="s">
+      <c r="A227" t="s">
         <v>48</v>
       </c>
-      <c r="B227" s="38">
+      <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" s="41"/>
-      <c r="D227" s="38">
-        <v>10</v>
-      </c>
-      <c r="E227" s="40"/>
-      <c r="F227" s="38">
+      <c r="C227" s="8"/>
+      <c r="D227">
+        <v>10</v>
+      </c>
+      <c r="E227" s="4"/>
+      <c r="F227">
         <v>13</v>
       </c>
-      <c r="G227" s="38"/>
-      <c r="H227" s="41"/>
-      <c r="I227" s="40">
-        <v>17</v>
-      </c>
-      <c r="J227" s="38"/>
-      <c r="K227" s="38">
+      <c r="H227" s="8"/>
+      <c r="I227" s="4">
+        <v>17</v>
+      </c>
+      <c r="K227">
         <v>13</v>
       </c>
-      <c r="L227" s="38"/>
-      <c r="M227" s="38">
-        <v>24</v>
-      </c>
-      <c r="N227" s="38"/>
-      <c r="O227" s="38">
-        <v>24</v>
-      </c>
-      <c r="P227" s="38"/>
-      <c r="Q227" s="38">
+      <c r="M227">
+        <v>24</v>
+      </c>
+      <c r="O227">
+        <v>24</v>
+      </c>
+      <c r="Q227">
         <v>14</v>
       </c>
-      <c r="R227" s="38"/>
-      <c r="S227" s="39">
-        <v>24</v>
-      </c>
-      <c r="T227" s="38"/>
-      <c r="U227" s="38">
-        <v>17</v>
-      </c>
-      <c r="V227" s="38"/>
-      <c r="W227" s="38">
-        <v>17</v>
-      </c>
-      <c r="X227" s="38"/>
-      <c r="Y227" s="38">
+      <c r="S227" s="2">
+        <v>24</v>
+      </c>
+      <c r="U227">
+        <v>17</v>
+      </c>
+      <c r="W227">
+        <v>17</v>
+      </c>
+      <c r="Y227">
         <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A228" s="38"/>
-      <c r="B228" s="38"/>
-      <c r="C228" s="41"/>
-      <c r="D228" s="38"/>
-      <c r="E228" s="40"/>
-      <c r="F228" s="38"/>
-      <c r="G228" s="38"/>
-      <c r="H228" s="41"/>
-      <c r="I228" s="38"/>
-      <c r="J228" s="38"/>
-      <c r="K228" s="38"/>
-      <c r="L228" s="38"/>
-      <c r="M228" s="38"/>
-      <c r="N228" s="38"/>
-      <c r="O228" s="38"/>
-      <c r="P228" s="38"/>
-      <c r="Q228" s="38"/>
-      <c r="R228" s="38"/>
-      <c r="S228" s="38"/>
-      <c r="T228" s="38"/>
-      <c r="U228" s="38"/>
-      <c r="V228" s="38"/>
-      <c r="W228" s="38"/>
-      <c r="X228" s="38"/>
-      <c r="Y228" s="38"/>
+      <c r="C228" s="8"/>
+      <c r="E228" s="4"/>
+      <c r="H228" s="8"/>
+      <c r="I228"/>
+      <c r="S228"/>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A229" s="38" t="s">
+      <c r="A229" t="s">
         <v>92</v>
       </c>
-      <c r="B229" s="38">
+      <c r="B229">
         <v>0</v>
       </c>
-      <c r="C229" s="41"/>
-      <c r="D229" s="38">
-        <v>17</v>
-      </c>
-      <c r="E229" s="40"/>
-      <c r="F229" s="38">
+      <c r="C229" s="8"/>
+      <c r="D229">
+        <v>17</v>
+      </c>
+      <c r="E229" s="4"/>
+      <c r="F229">
         <v>13</v>
       </c>
-      <c r="G229" s="38"/>
-      <c r="H229" s="41"/>
-      <c r="I229" s="40">
-        <v>17</v>
-      </c>
-      <c r="J229" s="38"/>
-      <c r="K229" s="38">
-        <v>17</v>
-      </c>
-      <c r="L229" s="38"/>
-      <c r="M229" s="38">
-        <v>20</v>
-      </c>
-      <c r="N229" s="38"/>
-      <c r="O229" s="38">
+      <c r="H229" s="8"/>
+      <c r="I229" s="4">
+        <v>17</v>
+      </c>
+      <c r="K229">
+        <v>17</v>
+      </c>
+      <c r="M229">
+        <v>20</v>
+      </c>
+      <c r="O229">
         <v>11</v>
       </c>
-      <c r="P229" s="38"/>
-      <c r="Q229" s="38">
-        <v>20</v>
-      </c>
-      <c r="R229" s="38"/>
-      <c r="S229" s="39">
+      <c r="Q229">
+        <v>20</v>
+      </c>
+      <c r="S229" s="2">
         <v>13</v>
       </c>
-      <c r="T229" s="38"/>
-      <c r="U229" s="38">
-        <v>20</v>
-      </c>
-      <c r="V229" s="38"/>
-      <c r="W229" s="38">
-        <v>17</v>
-      </c>
-      <c r="X229" s="38"/>
-      <c r="Y229" s="38">
+      <c r="U229">
+        <v>20</v>
+      </c>
+      <c r="W229">
+        <v>17</v>
+      </c>
+      <c r="Y229">
         <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A230" s="38" t="s">
+      <c r="A230" t="s">
         <v>83</v>
       </c>
-      <c r="B230" s="38">
+      <c r="B230">
         <v>0</v>
       </c>
-      <c r="C230" s="41"/>
-      <c r="D230" s="38">
+      <c r="C230" s="8"/>
+      <c r="D230">
         <v>13</v>
       </c>
-      <c r="E230" s="40"/>
-      <c r="F230" s="38">
-        <v>20</v>
-      </c>
-      <c r="G230" s="38"/>
-      <c r="H230" s="41"/>
-      <c r="I230" s="40">
-        <v>21</v>
-      </c>
-      <c r="J230" s="38"/>
-      <c r="K230" s="38">
+      <c r="E230" s="4"/>
+      <c r="F230">
+        <v>20</v>
+      </c>
+      <c r="H230" s="8"/>
+      <c r="I230" s="4">
+        <v>21</v>
+      </c>
+      <c r="K230">
         <v>23</v>
       </c>
-      <c r="L230" s="38"/>
-      <c r="M230" s="38">
-        <v>17</v>
-      </c>
-      <c r="N230" s="38"/>
-      <c r="O230" s="38">
+      <c r="M230">
+        <v>17</v>
+      </c>
+      <c r="O230">
         <v>22</v>
       </c>
-      <c r="P230" s="38"/>
-      <c r="Q230" s="38">
-        <v>24</v>
-      </c>
-      <c r="R230" s="38"/>
-      <c r="S230" s="39">
+      <c r="Q230">
+        <v>24</v>
+      </c>
+      <c r="S230" s="2">
         <v>23</v>
       </c>
-      <c r="T230" s="38"/>
-      <c r="U230" s="38">
-        <v>24</v>
-      </c>
-      <c r="V230" s="38"/>
-      <c r="W230" s="38">
-        <v>21</v>
-      </c>
-      <c r="X230" s="38"/>
-      <c r="Y230" s="38">
+      <c r="U230">
+        <v>24</v>
+      </c>
+      <c r="W230">
+        <v>21</v>
+      </c>
+      <c r="Y230">
         <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A231" s="38"/>
-      <c r="B231" s="38"/>
-      <c r="C231" s="41"/>
-      <c r="D231" s="38"/>
-      <c r="E231" s="40"/>
-      <c r="F231" s="38"/>
-      <c r="G231" s="38"/>
-      <c r="H231" s="41"/>
-      <c r="I231" s="38"/>
-      <c r="J231" s="38"/>
-      <c r="K231" s="38"/>
-      <c r="L231" s="38"/>
-      <c r="M231" s="38"/>
-      <c r="N231" s="38"/>
-      <c r="O231" s="38"/>
-      <c r="P231" s="38"/>
-      <c r="Q231" s="38"/>
-      <c r="R231" s="38"/>
-      <c r="S231" s="38"/>
-      <c r="T231" s="38"/>
-      <c r="U231" s="38"/>
-      <c r="V231" s="38"/>
-      <c r="W231" s="38"/>
-      <c r="X231" s="38"/>
-      <c r="Y231" s="38"/>
+      <c r="C231" s="8"/>
+      <c r="E231" s="4"/>
+      <c r="H231" s="8"/>
+      <c r="I231"/>
+      <c r="S231"/>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A232" s="38" t="s">
+      <c r="A232" t="s">
         <v>43</v>
       </c>
-      <c r="B232" s="38">
+      <c r="B232">
         <v>0</v>
       </c>
-      <c r="C232" s="41"/>
-      <c r="D232" s="38">
-        <v>17</v>
-      </c>
-      <c r="E232" s="40"/>
-      <c r="F232" s="38">
-        <v>10</v>
-      </c>
-      <c r="G232" s="38"/>
-      <c r="H232" s="41"/>
-      <c r="I232" s="40">
+      <c r="C232" s="8"/>
+      <c r="D232">
+        <v>17</v>
+      </c>
+      <c r="E232" s="4"/>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="H232" s="8"/>
+      <c r="I232" s="4">
         <v>16</v>
       </c>
-      <c r="J232" s="38"/>
-      <c r="K232" s="38">
+      <c r="K232">
         <v>13</v>
       </c>
-      <c r="L232" s="38"/>
-      <c r="M232" s="38">
-        <v>24</v>
-      </c>
-      <c r="N232" s="38"/>
-      <c r="O232" s="38">
+      <c r="M232">
+        <v>24</v>
+      </c>
+      <c r="O232">
         <v>3</v>
       </c>
-      <c r="P232" s="38"/>
-      <c r="Q232" s="38">
-        <v>24</v>
-      </c>
-      <c r="R232" s="38"/>
-      <c r="S232" s="39">
+      <c r="Q232">
+        <v>24</v>
+      </c>
+      <c r="S232" s="2">
         <v>23</v>
       </c>
-      <c r="T232" s="38"/>
-      <c r="U232" s="38">
-        <v>17</v>
-      </c>
-      <c r="V232" s="38"/>
-      <c r="W232" s="38">
+      <c r="U232">
+        <v>17</v>
+      </c>
+      <c r="W232">
         <v>13</v>
       </c>
-      <c r="X232" s="38"/>
-      <c r="Y232" s="38">
+      <c r="Y232">
         <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A233" s="38" t="s">
+      <c r="A233" t="s">
         <v>80</v>
       </c>
-      <c r="B233" s="38">
+      <c r="B233">
         <v>0</v>
       </c>
-      <c r="C233" s="41"/>
-      <c r="D233" s="38">
+      <c r="C233" s="8"/>
+      <c r="D233">
         <v>23</v>
       </c>
-      <c r="E233" s="40"/>
-      <c r="F233" s="38">
-        <v>20</v>
-      </c>
-      <c r="G233" s="38"/>
-      <c r="H233" s="41"/>
-      <c r="I233" s="40">
-        <v>21</v>
-      </c>
-      <c r="J233" s="38"/>
-      <c r="K233" s="38">
-        <v>27</v>
-      </c>
-      <c r="L233" s="38"/>
-      <c r="M233" s="38">
-        <v>20</v>
-      </c>
-      <c r="N233" s="38"/>
-      <c r="O233" s="38">
-        <v>21</v>
-      </c>
-      <c r="P233" s="38"/>
-      <c r="Q233" s="38">
+      <c r="E233" s="4"/>
+      <c r="F233">
+        <v>20</v>
+      </c>
+      <c r="H233" s="8"/>
+      <c r="I233" s="4">
+        <v>21</v>
+      </c>
+      <c r="K233">
+        <v>27</v>
+      </c>
+      <c r="M233">
+        <v>20</v>
+      </c>
+      <c r="O233">
+        <v>21</v>
+      </c>
+      <c r="Q233">
         <v>31</v>
       </c>
-      <c r="R233" s="38"/>
-      <c r="S233" s="39">
-        <v>20</v>
-      </c>
-      <c r="T233" s="38"/>
-      <c r="U233" s="38">
+      <c r="S233" s="2">
+        <v>20</v>
+      </c>
+      <c r="U233">
         <v>31</v>
       </c>
-      <c r="V233" s="38"/>
-      <c r="W233" s="38">
+      <c r="W233">
         <v>14</v>
       </c>
-      <c r="X233" s="38"/>
-      <c r="Y233" s="38">
+      <c r="Y233">
         <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A234" s="38"/>
-      <c r="B234" s="38"/>
-      <c r="C234" s="41"/>
-      <c r="D234" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E234" s="40"/>
-      <c r="F234" s="38"/>
-      <c r="G234" s="38"/>
-      <c r="H234" s="41"/>
-      <c r="I234" s="38"/>
-      <c r="J234" s="38"/>
-      <c r="K234" s="38"/>
-      <c r="L234" s="38"/>
-      <c r="M234" s="38"/>
-      <c r="N234" s="38"/>
-      <c r="O234" s="38"/>
-      <c r="P234" s="38"/>
-      <c r="Q234" s="38"/>
-      <c r="R234" s="38"/>
-      <c r="S234" s="38"/>
-      <c r="T234" s="38"/>
-      <c r="U234" s="38"/>
-      <c r="V234" s="38"/>
-      <c r="W234" s="38"/>
-      <c r="X234" s="38"/>
-      <c r="Y234" s="38"/>
+      <c r="C234" s="8"/>
+      <c r="D234" t="s">
+        <v>102</v>
+      </c>
+      <c r="E234" s="4"/>
+      <c r="H234" s="8"/>
+      <c r="I234"/>
+      <c r="S234"/>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A235" s="38" t="s">
+      <c r="A235" t="s">
         <v>47</v>
       </c>
-      <c r="B235" s="38">
+      <c r="B235">
         <v>0</v>
       </c>
-      <c r="C235" s="41"/>
-      <c r="D235" s="38">
+      <c r="C235" s="8"/>
+      <c r="D235">
         <v>34</v>
       </c>
-      <c r="E235" s="40"/>
-      <c r="F235" s="38">
-        <v>17</v>
-      </c>
-      <c r="G235" s="38"/>
-      <c r="H235" s="41"/>
-      <c r="I235" s="40">
-        <v>21</v>
-      </c>
-      <c r="J235" s="38"/>
-      <c r="K235" s="38">
-        <v>27</v>
-      </c>
-      <c r="L235" s="38"/>
-      <c r="M235" s="38">
-        <v>21</v>
-      </c>
-      <c r="N235" s="38"/>
-      <c r="O235" s="38">
+      <c r="E235" s="4"/>
+      <c r="F235">
+        <v>17</v>
+      </c>
+      <c r="H235" s="8"/>
+      <c r="I235" s="4">
+        <v>21</v>
+      </c>
+      <c r="K235">
+        <v>27</v>
+      </c>
+      <c r="M235">
+        <v>21</v>
+      </c>
+      <c r="O235">
         <v>31</v>
       </c>
-      <c r="P235" s="38"/>
-      <c r="Q235" s="38">
-        <v>24</v>
-      </c>
-      <c r="R235" s="38"/>
-      <c r="S235" s="39">
-        <v>20</v>
-      </c>
-      <c r="T235" s="38"/>
-      <c r="U235" s="38">
-        <v>27</v>
-      </c>
-      <c r="V235" s="38"/>
-      <c r="W235" s="38">
-        <v>27</v>
-      </c>
-      <c r="X235" s="38"/>
-      <c r="Y235" s="38">
+      <c r="Q235">
+        <v>24</v>
+      </c>
+      <c r="S235" s="2">
+        <v>20</v>
+      </c>
+      <c r="U235">
+        <v>27</v>
+      </c>
+      <c r="W235">
+        <v>27</v>
+      </c>
+      <c r="Y235">
         <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A236" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B236" s="38">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236">
         <v>0</v>
       </c>
-      <c r="C236" s="41"/>
-      <c r="D236" s="38">
-        <v>10</v>
-      </c>
-      <c r="E236" s="40"/>
-      <c r="F236" s="38">
+      <c r="C236" s="8"/>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236" s="4"/>
+      <c r="F236">
         <v>34</v>
       </c>
-      <c r="G236" s="38"/>
-      <c r="H236" s="41"/>
-      <c r="I236" s="40">
+      <c r="H236" s="8"/>
+      <c r="I236" s="4">
         <v>30</v>
       </c>
-      <c r="J236" s="38"/>
-      <c r="K236" s="38">
-        <v>27</v>
-      </c>
-      <c r="L236" s="38"/>
-      <c r="M236" s="38">
+      <c r="K236">
+        <v>27</v>
+      </c>
+      <c r="M236">
         <v>35</v>
       </c>
-      <c r="N236" s="38"/>
-      <c r="O236" s="38">
+      <c r="O236">
         <v>28</v>
       </c>
-      <c r="P236" s="38"/>
-      <c r="Q236" s="38">
+      <c r="Q236">
         <v>37</v>
       </c>
-      <c r="R236" s="38"/>
-      <c r="S236" s="39">
+      <c r="S236" s="2">
         <v>40</v>
       </c>
-      <c r="T236" s="38"/>
-      <c r="U236" s="38">
+      <c r="U236">
         <v>31</v>
       </c>
-      <c r="V236" s="38"/>
-      <c r="W236" s="38">
+      <c r="W236">
         <v>38</v>
       </c>
-      <c r="X236" s="38"/>
-      <c r="Y236" s="38">
+      <c r="Y236">
         <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A237" s="38"/>
-      <c r="B237" s="38"/>
-      <c r="C237" s="41"/>
-      <c r="D237" s="38"/>
-      <c r="E237" s="40"/>
-      <c r="F237" s="38"/>
-      <c r="G237" s="38"/>
-      <c r="H237" s="41"/>
-      <c r="I237" s="38"/>
-      <c r="J237" s="38"/>
-      <c r="K237" s="38"/>
-      <c r="L237" s="38"/>
-      <c r="M237" s="38"/>
-      <c r="N237" s="38"/>
-      <c r="O237" s="38"/>
-      <c r="P237" s="38"/>
-      <c r="Q237" s="38"/>
-      <c r="R237" s="38"/>
-      <c r="S237" s="38"/>
-      <c r="T237" s="38"/>
-      <c r="U237" s="38"/>
-      <c r="V237" s="38"/>
-      <c r="W237" s="38"/>
-      <c r="X237" s="38"/>
-      <c r="Y237" s="38"/>
+      <c r="C237" s="8"/>
+      <c r="E237" s="4"/>
+      <c r="H237" s="8"/>
+      <c r="I237"/>
+      <c r="S237"/>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A238" s="38" t="s">
+      <c r="A238" t="s">
         <v>87</v>
       </c>
-      <c r="B238" s="38">
+      <c r="B238">
         <v>0</v>
       </c>
-      <c r="C238" s="41"/>
-      <c r="D238" s="38">
+      <c r="C238" s="8"/>
+      <c r="D238">
         <v>13</v>
       </c>
-      <c r="E238" s="40"/>
-      <c r="F238" s="38">
+      <c r="E238" s="4"/>
+      <c r="F238">
         <v>28</v>
       </c>
-      <c r="G238" s="38"/>
-      <c r="H238" s="41"/>
-      <c r="I238" s="40">
+      <c r="H238" s="8"/>
+      <c r="I238" s="4">
         <v>23</v>
       </c>
-      <c r="J238" s="38"/>
-      <c r="K238" s="38">
-        <v>27</v>
-      </c>
-      <c r="L238" s="38"/>
-      <c r="M238" s="38">
-        <v>24</v>
-      </c>
-      <c r="N238" s="38"/>
-      <c r="O238" s="38">
-        <v>21</v>
-      </c>
-      <c r="P238" s="38"/>
-      <c r="Q238" s="38">
+      <c r="K238">
+        <v>27</v>
+      </c>
+      <c r="M238">
+        <v>24</v>
+      </c>
+      <c r="O238">
+        <v>21</v>
+      </c>
+      <c r="Q238">
         <v>28</v>
       </c>
-      <c r="R238" s="38"/>
-      <c r="S238" s="39">
+      <c r="S238" s="2">
         <v>31</v>
       </c>
-      <c r="T238" s="38"/>
-      <c r="U238" s="38">
-        <v>21</v>
-      </c>
-      <c r="V238" s="38"/>
-      <c r="W238" s="38">
-        <v>17</v>
-      </c>
-      <c r="X238" s="38"/>
-      <c r="Y238" s="38">
+      <c r="U238">
+        <v>21</v>
+      </c>
+      <c r="W238">
+        <v>17</v>
+      </c>
+      <c r="Y238">
         <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A239" s="38" t="s">
+      <c r="A239" t="s">
         <v>25</v>
       </c>
-      <c r="B239" s="38">
+      <c r="B239">
         <v>0</v>
       </c>
-      <c r="C239" s="41"/>
-      <c r="D239" s="38">
-        <v>17</v>
-      </c>
-      <c r="E239" s="40"/>
-      <c r="F239" s="38">
+      <c r="C239" s="8"/>
+      <c r="D239">
+        <v>17</v>
+      </c>
+      <c r="E239" s="4"/>
+      <c r="F239">
         <v>31</v>
       </c>
-      <c r="G239" s="38"/>
-      <c r="H239" s="41"/>
-      <c r="I239" s="40">
-        <v>27</v>
-      </c>
-      <c r="J239" s="38"/>
-      <c r="K239" s="38">
+      <c r="H239" s="8"/>
+      <c r="I239" s="4">
+        <v>27</v>
+      </c>
+      <c r="K239">
         <v>26</v>
       </c>
-      <c r="L239" s="38"/>
-      <c r="M239" s="38">
-        <v>21</v>
-      </c>
-      <c r="N239" s="38"/>
-      <c r="O239" s="38">
+      <c r="M239">
+        <v>21</v>
+      </c>
+      <c r="O239">
         <v>34</v>
       </c>
-      <c r="P239" s="38"/>
-      <c r="Q239" s="38">
+      <c r="Q239">
         <v>33</v>
       </c>
-      <c r="R239" s="38"/>
-      <c r="S239" s="39">
+      <c r="S239" s="2">
         <v>37</v>
       </c>
-      <c r="T239" s="38"/>
-      <c r="U239" s="38">
+      <c r="U239">
         <v>30</v>
       </c>
-      <c r="V239" s="38"/>
-      <c r="W239" s="38">
+      <c r="W239">
         <v>31</v>
       </c>
-      <c r="X239" s="38"/>
-      <c r="Y239" s="38">
+      <c r="Y239">
         <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A240" s="38"/>
-      <c r="B240" s="38"/>
-      <c r="C240" s="41"/>
-      <c r="D240" s="38"/>
-      <c r="E240" s="40"/>
-      <c r="F240" s="38"/>
-      <c r="G240" s="38"/>
-      <c r="H240" s="41"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="38"/>
-      <c r="K240" s="38"/>
-      <c r="L240" s="38"/>
-      <c r="M240" s="38"/>
-      <c r="N240" s="38"/>
-      <c r="O240" s="38"/>
-      <c r="P240" s="38"/>
-      <c r="Q240" s="38"/>
-      <c r="R240" s="38"/>
-      <c r="S240" s="38"/>
-      <c r="T240" s="38"/>
-      <c r="U240" s="38"/>
-      <c r="V240" s="38"/>
-      <c r="W240" s="38"/>
-      <c r="X240" s="38"/>
-      <c r="Y240" s="38"/>
+      <c r="C240" s="8"/>
+      <c r="E240" s="4"/>
+      <c r="H240" s="8"/>
+      <c r="I240"/>
+      <c r="S240"/>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A241" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B241" s="38">
+      <c r="A241" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241">
         <v>0</v>
       </c>
-      <c r="C241" s="41"/>
-      <c r="D241" s="38">
-        <v>10</v>
-      </c>
-      <c r="E241" s="40"/>
-      <c r="F241" s="38">
-        <v>24</v>
-      </c>
-      <c r="G241" s="38"/>
-      <c r="H241" s="41"/>
-      <c r="I241" s="40">
+      <c r="C241" s="8"/>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241" s="4"/>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="H241" s="8"/>
+      <c r="I241" s="4">
         <v>22</v>
       </c>
-      <c r="J241" s="38"/>
-      <c r="K241" s="38">
+      <c r="K241">
         <v>31</v>
       </c>
-      <c r="L241" s="38"/>
-      <c r="M241" s="38">
+      <c r="M241">
         <v>28</v>
       </c>
-      <c r="N241" s="38"/>
-      <c r="O241" s="38">
+      <c r="O241">
         <v>14</v>
       </c>
-      <c r="P241" s="38"/>
-      <c r="Q241" s="38">
-        <v>21</v>
-      </c>
-      <c r="R241" s="38"/>
-      <c r="S241" s="39">
-        <v>20</v>
-      </c>
-      <c r="T241" s="38"/>
-      <c r="U241" s="38">
+      <c r="Q241">
+        <v>21</v>
+      </c>
+      <c r="S241" s="2">
+        <v>20</v>
+      </c>
+      <c r="U241">
         <v>30</v>
       </c>
-      <c r="V241" s="38"/>
-      <c r="W241" s="38">
+      <c r="W241">
         <v>42</v>
       </c>
-      <c r="X241" s="38"/>
-      <c r="Y241" s="38">
+      <c r="Y241">
         <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A242" s="38" t="s">
+      <c r="A242" t="s">
         <v>53</v>
       </c>
-      <c r="B242" s="38">
+      <c r="B242">
         <v>0</v>
       </c>
-      <c r="C242" s="41"/>
-      <c r="D242" s="38">
-        <v>17</v>
-      </c>
-      <c r="E242" s="40"/>
-      <c r="F242" s="38">
+      <c r="C242" s="8"/>
+      <c r="D242">
+        <v>17</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242">
         <v>16</v>
       </c>
-      <c r="G242" s="38"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="40">
+      <c r="H242" s="8"/>
+      <c r="I242" s="4">
         <v>19</v>
       </c>
-      <c r="J242" s="38"/>
-      <c r="K242" s="38">
-        <v>20</v>
-      </c>
-      <c r="L242" s="38"/>
-      <c r="M242" s="38">
-        <v>10</v>
-      </c>
-      <c r="N242" s="38"/>
-      <c r="O242" s="38">
+      <c r="K242">
+        <v>20</v>
+      </c>
+      <c r="M242">
+        <v>10</v>
+      </c>
+      <c r="O242">
         <v>15</v>
       </c>
-      <c r="P242" s="38"/>
-      <c r="Q242" s="38">
-        <v>17</v>
-      </c>
-      <c r="R242" s="38"/>
-      <c r="S242" s="39">
+      <c r="Q242">
+        <v>17</v>
+      </c>
+      <c r="S242" s="2">
         <v>13</v>
       </c>
-      <c r="T242" s="38"/>
-      <c r="U242" s="38">
-        <v>21</v>
-      </c>
-      <c r="V242" s="38"/>
-      <c r="W242" s="38">
+      <c r="U242">
+        <v>21</v>
+      </c>
+      <c r="W242">
         <v>16</v>
       </c>
-      <c r="X242" s="38"/>
-      <c r="Y242" s="38">
+      <c r="Y242">
         <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A243" s="38"/>
-      <c r="B243" s="38"/>
-      <c r="C243" s="41"/>
-      <c r="D243" s="38"/>
-      <c r="E243" s="40"/>
-      <c r="F243" s="38"/>
-      <c r="G243" s="38"/>
-      <c r="H243" s="41"/>
-      <c r="I243" s="38"/>
-      <c r="J243" s="38"/>
-      <c r="K243" s="38"/>
-      <c r="L243" s="38"/>
-      <c r="M243" s="38"/>
-      <c r="N243" s="38"/>
-      <c r="O243" s="38"/>
-      <c r="P243" s="38"/>
-      <c r="Q243" s="38"/>
-      <c r="R243" s="38"/>
-      <c r="S243" s="38"/>
-      <c r="T243" s="38"/>
-      <c r="U243" s="38"/>
-      <c r="V243" s="38"/>
-      <c r="W243" s="38"/>
-      <c r="X243" s="38"/>
-      <c r="Y243" s="38"/>
+      <c r="C243" s="8"/>
+      <c r="E243" s="4"/>
+      <c r="H243" s="8"/>
+      <c r="I243"/>
+      <c r="S243"/>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A244" s="38" t="s">
+      <c r="A244" t="s">
         <v>79</v>
       </c>
-      <c r="B244" s="38">
+      <c r="B244">
         <v>0</v>
       </c>
-      <c r="C244" s="41"/>
-      <c r="D244" s="38">
-        <v>17</v>
-      </c>
-      <c r="E244" s="40"/>
-      <c r="F244" s="38">
-        <v>20</v>
-      </c>
-      <c r="G244" s="38"/>
-      <c r="H244" s="41"/>
-      <c r="I244" s="40">
+      <c r="C244" s="8"/>
+      <c r="D244">
+        <v>17</v>
+      </c>
+      <c r="E244" s="4"/>
+      <c r="F244">
+        <v>20</v>
+      </c>
+      <c r="H244" s="8"/>
+      <c r="I244" s="4">
         <v>28</v>
       </c>
-      <c r="J244" s="38"/>
-      <c r="K244" s="38">
-        <v>24</v>
-      </c>
-      <c r="L244" s="38"/>
-      <c r="M244" s="38">
-        <v>24</v>
-      </c>
-      <c r="N244" s="38"/>
-      <c r="O244" s="38">
-        <v>24</v>
-      </c>
-      <c r="P244" s="38"/>
-      <c r="Q244" s="38">
-        <v>21</v>
-      </c>
-      <c r="R244" s="38"/>
-      <c r="S244" s="39">
+      <c r="K244">
+        <v>24</v>
+      </c>
+      <c r="M244">
+        <v>24</v>
+      </c>
+      <c r="O244">
+        <v>24</v>
+      </c>
+      <c r="Q244">
+        <v>21</v>
+      </c>
+      <c r="S244" s="2">
         <v>34</v>
       </c>
-      <c r="T244" s="38"/>
-      <c r="U244" s="38">
-        <v>24</v>
-      </c>
-      <c r="V244" s="38"/>
-      <c r="W244" s="38">
+      <c r="U244">
+        <v>24</v>
+      </c>
+      <c r="W244">
         <v>28</v>
       </c>
-      <c r="X244" s="38"/>
-      <c r="Y244" s="38">
+      <c r="Y244">
         <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A245" s="38" t="s">
+      <c r="A245" t="s">
         <v>49</v>
       </c>
-      <c r="B245" s="38">
+      <c r="B245">
         <v>0</v>
       </c>
-      <c r="C245" s="41"/>
-      <c r="D245" s="38">
+      <c r="C245" s="8"/>
+      <c r="D245">
         <v>23</v>
       </c>
-      <c r="E245" s="40"/>
-      <c r="F245" s="38">
-        <v>27</v>
-      </c>
-      <c r="G245" s="38"/>
-      <c r="H245" s="41"/>
-      <c r="I245" s="40">
+      <c r="E245" s="4"/>
+      <c r="F245">
+        <v>27</v>
+      </c>
+      <c r="H245" s="8"/>
+      <c r="I245" s="4">
         <v>19</v>
       </c>
-      <c r="J245" s="38"/>
-      <c r="K245" s="38">
-        <v>27</v>
-      </c>
-      <c r="L245" s="38"/>
-      <c r="M245" s="38">
-        <v>10</v>
-      </c>
-      <c r="N245" s="38"/>
-      <c r="O245" s="38">
-        <v>21</v>
-      </c>
-      <c r="P245" s="38"/>
-      <c r="Q245" s="38">
-        <v>20</v>
-      </c>
-      <c r="R245" s="38"/>
-      <c r="S245" s="39">
+      <c r="K245">
+        <v>27</v>
+      </c>
+      <c r="M245">
+        <v>10</v>
+      </c>
+      <c r="O245">
+        <v>21</v>
+      </c>
+      <c r="Q245">
+        <v>20</v>
+      </c>
+      <c r="S245" s="2">
         <v>23</v>
       </c>
-      <c r="T245" s="38"/>
-      <c r="U245" s="38">
-        <v>21</v>
-      </c>
-      <c r="V245" s="38"/>
-      <c r="W245" s="38">
+      <c r="U245">
+        <v>21</v>
+      </c>
+      <c r="W245">
         <v>23</v>
       </c>
-      <c r="X245" s="38"/>
-      <c r="Y245" s="38">
+      <c r="Y245">
         <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A246" s="38"/>
-      <c r="B246" s="38"/>
-      <c r="C246" s="41"/>
-      <c r="D246" s="38"/>
-      <c r="E246" s="40"/>
-      <c r="F246" s="38"/>
-      <c r="G246" s="38"/>
-      <c r="H246" s="41"/>
-      <c r="I246" s="38"/>
-      <c r="J246" s="38"/>
-      <c r="K246" s="38"/>
-      <c r="L246" s="38"/>
-      <c r="M246" s="38"/>
-      <c r="N246" s="38"/>
-      <c r="O246" s="38"/>
-      <c r="P246" s="38"/>
-      <c r="Q246" s="38"/>
-      <c r="R246" s="38"/>
-      <c r="S246" s="38"/>
-      <c r="T246" s="38"/>
-      <c r="U246" s="38"/>
-      <c r="V246" s="38"/>
-      <c r="W246" s="38"/>
-      <c r="X246" s="38"/>
-      <c r="Y246" s="38"/>
+      <c r="C246" s="8"/>
+      <c r="E246" s="4"/>
+      <c r="H246" s="8"/>
+      <c r="I246"/>
+      <c r="S246"/>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A247" s="38" t="s">
+      <c r="A247" t="s">
         <v>45</v>
       </c>
-      <c r="B247" s="38">
+      <c r="B247">
         <v>0</v>
       </c>
-      <c r="C247" s="41"/>
-      <c r="D247" s="38">
-        <v>17</v>
-      </c>
-      <c r="E247" s="40"/>
-      <c r="F247" s="38">
-        <v>10</v>
-      </c>
-      <c r="G247" s="38"/>
-      <c r="H247" s="41"/>
-      <c r="I247" s="40">
-        <v>10</v>
-      </c>
-      <c r="J247" s="38"/>
-      <c r="K247" s="38">
-        <v>17</v>
-      </c>
-      <c r="L247" s="38"/>
-      <c r="M247" s="38">
-        <v>10</v>
-      </c>
-      <c r="N247" s="38"/>
-      <c r="O247" s="38">
+      <c r="C247" s="8"/>
+      <c r="D247">
+        <v>17</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247">
+        <v>10</v>
+      </c>
+      <c r="H247" s="8"/>
+      <c r="I247" s="4">
+        <v>10</v>
+      </c>
+      <c r="K247">
+        <v>17</v>
+      </c>
+      <c r="M247">
+        <v>10</v>
+      </c>
+      <c r="O247">
         <v>6</v>
       </c>
-      <c r="P247" s="38"/>
-      <c r="Q247" s="38">
-        <v>17</v>
-      </c>
-      <c r="R247" s="38"/>
-      <c r="S247" s="39">
+      <c r="Q247">
+        <v>17</v>
+      </c>
+      <c r="S247" s="2">
         <v>13</v>
       </c>
-      <c r="T247" s="38"/>
-      <c r="U247" s="38">
-        <v>20</v>
-      </c>
-      <c r="V247" s="38"/>
-      <c r="W247" s="38">
+      <c r="U247">
+        <v>20</v>
+      </c>
+      <c r="W247">
         <v>16</v>
       </c>
-      <c r="X247" s="38"/>
-      <c r="Y247" s="38">
+      <c r="Y247">
         <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A248" s="38" t="s">
+      <c r="A248" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="38">
+      <c r="B248">
         <v>0</v>
       </c>
-      <c r="C248" s="41"/>
-      <c r="D248" s="38">
+      <c r="C248" s="8"/>
+      <c r="D248">
         <v>23</v>
       </c>
-      <c r="E248" s="40"/>
-      <c r="F248" s="38">
-        <v>24</v>
-      </c>
-      <c r="G248" s="38"/>
-      <c r="H248" s="41"/>
-      <c r="I248" s="40">
-        <v>20</v>
-      </c>
-      <c r="J248" s="38"/>
-      <c r="K248" s="38">
-        <v>24</v>
-      </c>
-      <c r="L248" s="38"/>
-      <c r="M248" s="38">
-        <v>21</v>
-      </c>
-      <c r="N248" s="38"/>
-      <c r="O248" s="38">
-        <v>10</v>
-      </c>
-      <c r="P248" s="38"/>
-      <c r="Q248" s="38">
-        <v>24</v>
-      </c>
-      <c r="R248" s="38"/>
-      <c r="S248" s="39">
+      <c r="E248" s="4"/>
+      <c r="F248">
+        <v>24</v>
+      </c>
+      <c r="H248" s="8"/>
+      <c r="I248" s="4">
+        <v>20</v>
+      </c>
+      <c r="K248">
+        <v>24</v>
+      </c>
+      <c r="M248">
+        <v>21</v>
+      </c>
+      <c r="O248">
+        <v>10</v>
+      </c>
+      <c r="Q248">
+        <v>24</v>
+      </c>
+      <c r="S248" s="2">
         <v>31</v>
       </c>
-      <c r="T248" s="38"/>
-      <c r="U248" s="38">
+      <c r="U248">
         <v>28</v>
       </c>
-      <c r="V248" s="38"/>
-      <c r="W248" s="38">
+      <c r="W248">
         <v>35</v>
       </c>
-      <c r="X248" s="38"/>
-      <c r="Y248" s="38">
+      <c r="Y248">
         <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A249" s="38"/>
-      <c r="B249" s="38"/>
-      <c r="C249" s="41"/>
-      <c r="D249" s="38"/>
-      <c r="E249" s="40"/>
-      <c r="F249" s="38"/>
-      <c r="G249" s="38"/>
-      <c r="H249" s="41"/>
-      <c r="I249" s="38"/>
-      <c r="J249" s="38"/>
-      <c r="K249" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="L249" s="38"/>
-      <c r="M249" s="38"/>
-      <c r="N249" s="38"/>
-      <c r="O249" s="38"/>
-      <c r="P249" s="38"/>
-      <c r="Q249" s="38"/>
-      <c r="R249" s="38"/>
-      <c r="S249" s="38"/>
-      <c r="T249" s="38"/>
-      <c r="U249" s="38"/>
-      <c r="V249" s="38"/>
-      <c r="W249" s="38"/>
-      <c r="X249" s="38"/>
-      <c r="Y249" s="38"/>
+      <c r="C249" s="8"/>
+      <c r="E249" s="4"/>
+      <c r="H249" s="8"/>
+      <c r="I249"/>
+      <c r="K249" t="s">
+        <v>102</v>
+      </c>
+      <c r="S249"/>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A250" s="38" t="s">
+      <c r="A250" t="s">
         <v>78</v>
       </c>
-      <c r="B250" s="38">
+      <c r="B250">
         <v>0</v>
       </c>
-      <c r="C250" s="41"/>
-      <c r="D250" s="38">
-        <v>10</v>
-      </c>
-      <c r="E250" s="40"/>
-      <c r="F250" s="38">
+      <c r="C250" s="8"/>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250" s="4"/>
+      <c r="F250">
         <v>13</v>
       </c>
-      <c r="G250" s="38"/>
-      <c r="H250" s="41"/>
-      <c r="I250" s="40">
+      <c r="H250" s="8"/>
+      <c r="I250" s="4">
         <v>15</v>
       </c>
-      <c r="J250" s="38"/>
-      <c r="K250" s="38">
-        <v>20</v>
-      </c>
-      <c r="L250" s="38"/>
-      <c r="M250" s="38">
-        <v>10</v>
-      </c>
-      <c r="N250" s="38"/>
-      <c r="O250" s="38">
-        <v>24</v>
-      </c>
-      <c r="P250" s="38"/>
-      <c r="Q250" s="38">
-        <v>27</v>
-      </c>
-      <c r="R250" s="38"/>
-      <c r="S250" s="39">
-        <v>10</v>
-      </c>
-      <c r="T250" s="38"/>
-      <c r="U250" s="38">
+      <c r="K250">
+        <v>20</v>
+      </c>
+      <c r="M250">
+        <v>10</v>
+      </c>
+      <c r="O250">
+        <v>24</v>
+      </c>
+      <c r="Q250">
+        <v>27</v>
+      </c>
+      <c r="S250" s="2">
+        <v>10</v>
+      </c>
+      <c r="U250">
         <v>28</v>
       </c>
-      <c r="V250" s="38"/>
-      <c r="W250" s="38">
+      <c r="W250">
         <v>12</v>
       </c>
-      <c r="X250" s="38"/>
-      <c r="Y250" s="38">
+      <c r="Y250">
         <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A251" s="38" t="s">
+      <c r="A251" t="s">
         <v>84</v>
       </c>
-      <c r="B251" s="38">
+      <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251" s="41"/>
-      <c r="D251" s="38">
+      <c r="C251" s="8"/>
+      <c r="D251">
         <v>34</v>
       </c>
-      <c r="E251" s="40"/>
-      <c r="F251" s="38">
-        <v>27</v>
-      </c>
-      <c r="G251" s="38"/>
-      <c r="H251" s="41"/>
-      <c r="I251" s="40">
+      <c r="E251" s="4"/>
+      <c r="F251">
+        <v>27</v>
+      </c>
+      <c r="H251" s="8"/>
+      <c r="I251" s="4">
         <v>22</v>
       </c>
-      <c r="J251" s="38"/>
-      <c r="K251" s="38">
-        <v>27</v>
-      </c>
-      <c r="L251" s="38"/>
-      <c r="M251" s="38">
+      <c r="K251">
+        <v>27</v>
+      </c>
+      <c r="M251">
         <v>28</v>
       </c>
-      <c r="N251" s="38"/>
-      <c r="O251" s="38">
+      <c r="O251">
         <v>34</v>
       </c>
-      <c r="P251" s="38"/>
-      <c r="Q251" s="38">
+      <c r="Q251">
         <v>33</v>
       </c>
-      <c r="R251" s="38"/>
-      <c r="S251" s="39">
+      <c r="S251" s="2">
         <v>31</v>
       </c>
-      <c r="T251" s="38"/>
-      <c r="U251" s="38">
+      <c r="U251">
         <v>31</v>
       </c>
-      <c r="V251" s="38"/>
-      <c r="W251" s="38">
+      <c r="W251">
         <v>26</v>
       </c>
-      <c r="X251" s="38"/>
-      <c r="Y251" s="38">
+      <c r="Y251">
         <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A252" s="38"/>
-      <c r="B252" s="38"/>
-      <c r="C252" s="41"/>
-      <c r="D252" s="38"/>
-      <c r="E252" s="40"/>
-      <c r="F252" s="38"/>
-      <c r="G252" s="38"/>
-      <c r="H252" s="41"/>
-      <c r="I252" s="38"/>
-      <c r="J252" s="38"/>
-      <c r="K252" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="L252" s="38"/>
-      <c r="M252" s="38"/>
-      <c r="N252" s="38"/>
-      <c r="O252" s="38"/>
-      <c r="P252" s="38"/>
-      <c r="Q252" s="38"/>
-      <c r="R252" s="38"/>
-      <c r="S252" s="38"/>
-      <c r="T252" s="38"/>
-      <c r="U252" s="38"/>
-      <c r="V252" s="38"/>
-      <c r="W252" s="38"/>
-      <c r="X252" s="38"/>
-      <c r="Y252" s="38"/>
+      <c r="C252" s="8"/>
+      <c r="E252" s="4"/>
+      <c r="H252" s="8"/>
+      <c r="I252"/>
+      <c r="K252" t="s">
+        <v>102</v>
+      </c>
+      <c r="S252"/>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A253" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B253" s="38">
+      <c r="A253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253">
         <v>0</v>
       </c>
-      <c r="C253" s="41"/>
-      <c r="D253" s="38">
-        <v>17</v>
-      </c>
-      <c r="E253" s="40"/>
-      <c r="F253" s="38">
-        <v>17</v>
-      </c>
-      <c r="G253" s="38"/>
-      <c r="H253" s="41"/>
-      <c r="I253" s="40">
-        <v>20</v>
-      </c>
-      <c r="J253" s="38"/>
-      <c r="K253" s="38">
+      <c r="C253" s="8"/>
+      <c r="D253">
+        <v>17</v>
+      </c>
+      <c r="E253" s="4"/>
+      <c r="F253">
+        <v>17</v>
+      </c>
+      <c r="H253" s="8"/>
+      <c r="I253" s="4">
+        <v>20</v>
+      </c>
+      <c r="K253">
         <v>23</v>
       </c>
-      <c r="L253" s="38"/>
-      <c r="M253" s="38">
+      <c r="M253">
         <v>34</v>
       </c>
-      <c r="N253" s="38"/>
-      <c r="O253" s="38">
+      <c r="O253">
         <v>31</v>
       </c>
-      <c r="P253" s="38"/>
-      <c r="Q253" s="38">
+      <c r="Q253">
         <v>28</v>
       </c>
-      <c r="R253" s="38"/>
-      <c r="S253" s="39">
-        <v>27</v>
-      </c>
-      <c r="T253" s="38"/>
-      <c r="U253" s="38">
+      <c r="S253" s="2">
+        <v>27</v>
+      </c>
+      <c r="U253">
         <v>28</v>
       </c>
-      <c r="V253" s="38"/>
-      <c r="W253" s="38">
-        <v>24</v>
-      </c>
-      <c r="X253" s="38"/>
-      <c r="Y253" s="38">
+      <c r="W253">
+        <v>24</v>
+      </c>
+      <c r="Y253">
         <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A254" s="38" t="s">
+      <c r="A254" t="s">
         <v>30</v>
       </c>
-      <c r="B254" s="38">
+      <c r="B254">
         <v>0</v>
       </c>
-      <c r="C254" s="41"/>
-      <c r="D254" s="38">
+      <c r="C254" s="8"/>
+      <c r="D254">
         <v>23</v>
       </c>
-      <c r="E254" s="40"/>
-      <c r="F254" s="38">
+      <c r="E254" s="4"/>
+      <c r="F254">
         <v>34</v>
       </c>
-      <c r="G254" s="38"/>
-      <c r="H254" s="41"/>
-      <c r="I254" s="40">
-        <v>21</v>
-      </c>
-      <c r="J254" s="38"/>
-      <c r="K254" s="38">
-        <v>27</v>
-      </c>
-      <c r="L254" s="38"/>
-      <c r="M254" s="38">
+      <c r="H254" s="8"/>
+      <c r="I254" s="4">
+        <v>21</v>
+      </c>
+      <c r="K254">
+        <v>27</v>
+      </c>
+      <c r="M254">
         <v>14</v>
       </c>
-      <c r="N254" s="38"/>
-      <c r="O254" s="38">
+      <c r="O254">
         <v>28</v>
       </c>
-      <c r="P254" s="38"/>
-      <c r="Q254" s="38">
-        <v>24</v>
-      </c>
-      <c r="R254" s="38"/>
-      <c r="S254" s="39">
-        <v>20</v>
-      </c>
-      <c r="T254" s="38"/>
-      <c r="U254" s="38">
+      <c r="Q254">
+        <v>24</v>
+      </c>
+      <c r="S254" s="2">
+        <v>20</v>
+      </c>
+      <c r="U254">
         <v>31</v>
       </c>
-      <c r="V254" s="38"/>
-      <c r="W254" s="38">
+      <c r="W254">
         <v>26</v>
       </c>
-      <c r="X254" s="38"/>
-      <c r="Y254" s="38">
+      <c r="Y254">
         <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A255" s="38"/>
-      <c r="B255" s="38"/>
-      <c r="C255" s="41"/>
-      <c r="D255" s="38"/>
-      <c r="E255" s="40"/>
-      <c r="F255" s="38"/>
-      <c r="G255" s="38"/>
-      <c r="H255" s="41"/>
-      <c r="I255" s="38"/>
-      <c r="J255" s="38"/>
-      <c r="K255" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="L255" s="38"/>
-      <c r="M255" s="38"/>
-      <c r="N255" s="38"/>
-      <c r="O255" s="38"/>
-      <c r="P255" s="38"/>
-      <c r="Q255" s="38"/>
-      <c r="R255" s="38"/>
-      <c r="S255" s="38"/>
-      <c r="T255" s="38"/>
-      <c r="U255" s="38"/>
-      <c r="V255" s="38"/>
-      <c r="W255" s="38"/>
-      <c r="X255" s="38"/>
-      <c r="Y255" s="38"/>
+      <c r="C255" s="8"/>
+      <c r="E255" s="4"/>
+      <c r="H255" s="8"/>
+      <c r="I255"/>
+      <c r="K255" t="s">
+        <v>102</v>
+      </c>
+      <c r="S255"/>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A256" s="38" t="s">
+      <c r="A256" t="s">
         <v>52</v>
       </c>
-      <c r="B256" s="38">
+      <c r="B256">
         <v>0</v>
       </c>
-      <c r="C256" s="41"/>
-      <c r="D256" s="38">
+      <c r="C256" s="8"/>
+      <c r="D256">
         <v>23</v>
       </c>
-      <c r="E256" s="40"/>
-      <c r="F256" s="38">
-        <v>20</v>
-      </c>
-      <c r="G256" s="38"/>
-      <c r="H256" s="41"/>
-      <c r="I256" s="40">
+      <c r="E256" s="4"/>
+      <c r="F256">
+        <v>20</v>
+      </c>
+      <c r="H256" s="8"/>
+      <c r="I256" s="4">
         <v>18</v>
       </c>
-      <c r="J256" s="38"/>
-      <c r="K256" s="38">
+      <c r="K256">
         <v>23</v>
       </c>
-      <c r="L256" s="38"/>
-      <c r="M256" s="38">
+      <c r="M256">
         <v>14</v>
       </c>
-      <c r="N256" s="38"/>
-      <c r="O256" s="38">
-        <v>21</v>
-      </c>
-      <c r="P256" s="38"/>
-      <c r="Q256" s="38">
-        <v>24</v>
-      </c>
-      <c r="R256" s="38"/>
-      <c r="S256" s="39">
-        <v>27</v>
-      </c>
-      <c r="T256" s="38"/>
-      <c r="U256" s="38">
-        <v>27</v>
-      </c>
-      <c r="V256" s="38"/>
-      <c r="W256" s="38">
+      <c r="O256">
+        <v>21</v>
+      </c>
+      <c r="Q256">
+        <v>24</v>
+      </c>
+      <c r="S256" s="2">
+        <v>27</v>
+      </c>
+      <c r="U256">
+        <v>27</v>
+      </c>
+      <c r="W256">
         <v>29</v>
       </c>
-      <c r="X256" s="38"/>
-      <c r="Y256" s="38">
+      <c r="Y256">
         <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A257" s="38" t="s">
+      <c r="A257" t="s">
         <v>82</v>
       </c>
-      <c r="B257" s="38">
+      <c r="B257">
         <v>0</v>
       </c>
-      <c r="C257" s="41"/>
-      <c r="D257" s="38">
-        <v>17</v>
-      </c>
-      <c r="E257" s="40"/>
-      <c r="F257" s="38">
+      <c r="C257" s="8"/>
+      <c r="D257">
+        <v>17</v>
+      </c>
+      <c r="E257" s="4"/>
+      <c r="F257">
         <v>23</v>
       </c>
-      <c r="G257" s="38"/>
-      <c r="H257" s="41"/>
-      <c r="I257" s="40">
-        <v>21</v>
-      </c>
-      <c r="J257" s="38"/>
-      <c r="K257" s="38">
-        <v>24</v>
-      </c>
-      <c r="L257" s="38"/>
-      <c r="M257" s="38">
-        <v>10</v>
-      </c>
-      <c r="N257" s="38"/>
-      <c r="O257" s="38">
+      <c r="H257" s="8"/>
+      <c r="I257" s="4">
+        <v>21</v>
+      </c>
+      <c r="K257">
+        <v>24</v>
+      </c>
+      <c r="M257">
+        <v>10</v>
+      </c>
+      <c r="O257">
         <v>16</v>
       </c>
-      <c r="P257" s="38"/>
-      <c r="Q257" s="38">
-        <v>21</v>
-      </c>
-      <c r="R257" s="38"/>
-      <c r="S257" s="39">
-        <v>24</v>
-      </c>
-      <c r="T257" s="38"/>
-      <c r="U257" s="38">
-        <v>20</v>
-      </c>
-      <c r="V257" s="38"/>
-      <c r="W257" s="38">
+      <c r="Q257">
+        <v>21</v>
+      </c>
+      <c r="S257" s="2">
+        <v>24</v>
+      </c>
+      <c r="U257">
+        <v>20</v>
+      </c>
+      <c r="W257">
         <v>26</v>
       </c>
-      <c r="X257" s="38"/>
-      <c r="Y257" s="38">
+      <c r="Y257">
         <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A258" s="38"/>
-      <c r="B258" s="38"/>
-      <c r="C258" s="41"/>
-      <c r="D258" s="38"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="38"/>
-      <c r="G258" s="38"/>
-      <c r="H258" s="41"/>
-      <c r="I258" s="38"/>
-      <c r="J258" s="38"/>
-      <c r="K258" s="38"/>
-      <c r="L258" s="38"/>
-      <c r="M258" s="38"/>
-      <c r="N258" s="38"/>
-      <c r="O258" s="38"/>
-      <c r="P258" s="38"/>
-      <c r="Q258" s="38"/>
-      <c r="R258" s="38"/>
-      <c r="S258" s="38"/>
-      <c r="T258" s="38"/>
-      <c r="U258" s="38"/>
-      <c r="V258" s="38"/>
-      <c r="W258" s="38"/>
-      <c r="X258" s="38"/>
-      <c r="Y258" s="38"/>
+      <c r="C258" s="8"/>
+      <c r="E258" s="4"/>
+      <c r="H258" s="8"/>
+      <c r="I258"/>
+      <c r="S258"/>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A259" s="38" t="s">
+      <c r="A259" t="s">
         <v>26</v>
       </c>
-      <c r="B259" s="38"/>
-      <c r="C259" s="41"/>
-      <c r="D259" s="38" t="s">
+      <c r="C259" s="8"/>
+      <c r="D259" t="s">
         <v>26</v>
       </c>
-      <c r="E259" s="40"/>
-      <c r="F259" s="38"/>
-      <c r="G259" s="38"/>
-      <c r="H259" s="41"/>
+      <c r="E259" s="4"/>
+      <c r="H259" s="8"/>
       <c r="I259" s="4" t="s">
         <v>26</v>
       </c>
@@ -8122,18 +7654,15 @@
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A260" s="38" t="s">
+      <c r="A260" t="s">
         <v>28</v>
       </c>
-      <c r="B260" s="38"/>
-      <c r="C260" s="41"/>
-      <c r="D260" s="38"/>
-      <c r="E260" s="40"/>
-      <c r="F260" s="38" t="s">
+      <c r="C260" s="8"/>
+      <c r="E260" s="4"/>
+      <c r="F260" t="s">
         <v>28</v>
       </c>
-      <c r="G260" s="38"/>
-      <c r="H260" s="41"/>
+      <c r="H260" s="8"/>
       <c r="K260" t="s">
         <v>28</v>
       </c>
@@ -8142,87 +7671,72 @@
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A261" s="38"/>
-      <c r="B261" s="38"/>
-      <c r="C261" s="41"/>
-      <c r="D261" s="38"/>
-      <c r="E261" s="40"/>
-      <c r="F261" s="38"/>
-      <c r="G261" s="38"/>
-      <c r="H261" s="41"/>
-    </row>
-    <row r="262" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="38" t="s">
+      <c r="C261" s="8"/>
+      <c r="E261" s="4"/>
+      <c r="H261" s="8"/>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>73</v>
       </c>
-      <c r="B262" s="38"/>
-      <c r="C262" s="41"/>
-      <c r="D262" s="38" t="s">
+      <c r="C262" s="8"/>
+      <c r="D262" t="s">
         <v>73</v>
       </c>
-      <c r="E262" s="40"/>
-      <c r="F262" s="38" t="s">
+      <c r="E262" s="4"/>
+      <c r="F262" t="s">
         <v>73</v>
       </c>
-      <c r="G262" s="38"/>
-      <c r="H262" s="41"/>
-      <c r="I262" s="36" t="s">
+      <c r="H262" s="8"/>
+      <c r="I262" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K262" s="35" t="s">
+      <c r="K262" t="s">
         <v>73</v>
       </c>
-      <c r="M262" s="35" t="s">
+      <c r="M262" t="s">
         <v>73</v>
       </c>
-      <c r="O262" s="35" t="s">
+      <c r="O262" t="s">
         <v>73</v>
       </c>
-      <c r="Q262" s="35" t="s">
+      <c r="Q262" t="s">
         <v>73</v>
       </c>
-      <c r="S262" s="37" t="s">
+      <c r="S262" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U262" s="35" t="s">
+      <c r="U262" t="s">
         <v>73</v>
       </c>
-      <c r="W262" s="35" t="s">
+      <c r="W262" t="s">
         <v>73</v>
       </c>
-      <c r="Y262" s="35" t="s">
+      <c r="Y262" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A263" s="38" t="s">
+      <c r="A263" t="s">
         <v>22</v>
       </c>
-      <c r="B263" s="38"/>
-      <c r="C263" s="41"/>
-      <c r="D263" s="38"/>
-      <c r="E263" s="40"/>
-      <c r="F263" s="38"/>
-      <c r="G263" s="38"/>
-      <c r="H263" s="41"/>
-    </row>
-    <row r="264" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C264" s="41"/>
-      <c r="E264" s="40"/>
-      <c r="H264" s="41"/>
-      <c r="I264" s="40"/>
-      <c r="S264" s="39"/>
-    </row>
-    <row r="265" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C265" s="41"/>
-      <c r="E265" s="40"/>
-      <c r="H265" s="41"/>
-      <c r="I265" s="40"/>
-      <c r="S265" s="39"/>
+      <c r="C263" s="8"/>
+      <c r="E263" s="4"/>
+      <c r="H263" s="8"/>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C264" s="8"/>
+      <c r="E264" s="4"/>
+      <c r="H264" s="8"/>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C265" s="8"/>
+      <c r="E265" s="4"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A266" s="13" t="s">
-        <v>102</v>
+      <c r="A266" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C266" s="8"/>
       <c r="E266" s="4"/>
@@ -8284,409 +7798,1663 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C270" s="8"/>
       <c r="E270" s="4"/>
       <c r="H270" s="8"/>
+      <c r="I270" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K270" t="s">
+        <v>82</v>
+      </c>
+      <c r="S270" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W270" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C271" s="8"/>
+      <c r="D271" t="s">
+        <v>41</v>
+      </c>
       <c r="E271" s="4"/>
+      <c r="F271" t="s">
+        <v>41</v>
+      </c>
       <c r="H271" s="8"/>
+      <c r="M271" t="s">
+        <v>41</v>
+      </c>
+      <c r="O271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>41</v>
+      </c>
+      <c r="U271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C272" s="8"/>
       <c r="E272" s="4"/>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C273" s="8"/>
-      <c r="E273" s="4"/>
-      <c r="H273" s="8"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C274" s="8"/>
-      <c r="E274" s="4"/>
-      <c r="H274" s="8"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B273" s="11">
+        <v>99</v>
+      </c>
+      <c r="D273" s="11">
+        <v>13</v>
+      </c>
+      <c r="E273" s="12"/>
+      <c r="F273" s="11">
+        <v>20</v>
+      </c>
+      <c r="G273" s="13"/>
+      <c r="I273" s="12">
+        <v>20</v>
+      </c>
+      <c r="K273" s="38">
+        <v>23</v>
+      </c>
+      <c r="L273" s="38">
+        <v>25</v>
+      </c>
+      <c r="M273" s="11">
+        <v>27</v>
+      </c>
+      <c r="O273" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q273" s="11">
+        <v>18</v>
+      </c>
+      <c r="S273" s="2">
+        <v>23</v>
+      </c>
+      <c r="U273" s="38">
+        <v>28</v>
+      </c>
+      <c r="V273" s="38"/>
+      <c r="W273" s="38">
+        <v>24</v>
+      </c>
+      <c r="X273" s="38"/>
+      <c r="Y273" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B274" s="11">
+        <v>99</v>
+      </c>
+      <c r="D274" s="11">
+        <v>17</v>
+      </c>
+      <c r="E274" s="12"/>
+      <c r="F274" s="11">
+        <v>10</v>
+      </c>
+      <c r="G274" s="13"/>
+      <c r="I274" s="12">
+        <v>17</v>
+      </c>
+      <c r="K274" s="38">
+        <v>27</v>
+      </c>
+      <c r="L274" s="38"/>
+      <c r="M274" s="11">
+        <v>20</v>
+      </c>
+      <c r="O274" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q274" s="11">
+        <v>24</v>
+      </c>
+      <c r="S274" s="2">
+        <v>16</v>
+      </c>
+      <c r="U274" s="38">
+        <v>30</v>
+      </c>
+      <c r="V274" s="38">
+        <v>25</v>
+      </c>
+      <c r="W274" s="38">
+        <v>26</v>
+      </c>
+      <c r="X274" s="38">
+        <v>25</v>
+      </c>
+      <c r="Y274" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C275" s="8"/>
       <c r="E275" s="4"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>19</v>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A276" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="C276" s="8"/>
       <c r="E276" s="4"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>21</v>
-      </c>
-      <c r="C277" s="8"/>
-      <c r="E277" s="4"/>
-      <c r="H277" s="8"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C278" s="8"/>
-      <c r="E278" s="4"/>
-      <c r="H278" s="8"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C279" s="8"/>
-      <c r="E279" s="4"/>
-      <c r="H279" s="8"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="277" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C280" s="8"/>
-      <c r="E280" s="4"/>
-      <c r="H280" s="8"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B277" s="11">
+        <v>99</v>
+      </c>
+      <c r="D277" s="11">
+        <v>27</v>
+      </c>
+      <c r="E277" s="12"/>
+      <c r="F277" s="11">
+        <v>10</v>
+      </c>
+      <c r="H277" s="13"/>
+      <c r="I277" s="12">
+        <v>18</v>
+      </c>
+      <c r="K277" s="11">
+        <v>23</v>
+      </c>
+      <c r="M277" s="11">
+        <v>14</v>
+      </c>
+      <c r="O277" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q277" s="11">
+        <v>13</v>
+      </c>
+      <c r="S277" s="2">
+        <v>23</v>
+      </c>
+      <c r="U277" s="11">
+        <v>27</v>
+      </c>
+      <c r="W277" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y277" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C281" s="8"/>
-      <c r="E281" s="4"/>
-      <c r="H281" s="8"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C282" s="8"/>
-      <c r="E282" s="4"/>
-      <c r="H282" s="8"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>104</v>
-      </c>
-      <c r="C283" s="8"/>
-      <c r="E283" s="4"/>
-      <c r="H283" s="8"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B278" s="11">
+        <v>99</v>
+      </c>
+      <c r="D278" s="11">
+        <v>17</v>
+      </c>
+      <c r="E278" s="12"/>
+      <c r="F278" s="11">
+        <v>20</v>
+      </c>
+      <c r="H278" s="13"/>
+      <c r="I278" s="12">
+        <v>20</v>
+      </c>
+      <c r="K278" s="11">
+        <v>17</v>
+      </c>
+      <c r="M278" s="11">
+        <v>24</v>
+      </c>
+      <c r="O278" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q278" s="11">
+        <v>21</v>
+      </c>
+      <c r="S278" s="2">
+        <v>27</v>
+      </c>
+      <c r="U278" s="11">
+        <v>20</v>
+      </c>
+      <c r="W278" s="11">
         <v>19</v>
       </c>
-      <c r="C284" s="8"/>
-      <c r="E284" s="4"/>
-      <c r="H284" s="8"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C285" s="8"/>
-      <c r="E285" s="4"/>
-      <c r="H285" s="8"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="Y278" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E279" s="12"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="12"/>
+      <c r="S279" s="2"/>
+    </row>
+    <row r="280" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B280" s="11">
+        <v>99</v>
+      </c>
+      <c r="D280" s="11">
+        <v>27</v>
+      </c>
+      <c r="E280" s="12"/>
+      <c r="F280" s="11">
+        <v>13</v>
+      </c>
+      <c r="H280" s="13"/>
+      <c r="I280" s="12">
+        <v>18</v>
+      </c>
+      <c r="K280" s="11">
+        <v>17</v>
+      </c>
+      <c r="M280" s="11">
+        <v>10</v>
+      </c>
+      <c r="O280" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q280" s="11">
+        <v>20</v>
+      </c>
+      <c r="S280" s="2">
+        <v>13</v>
+      </c>
+      <c r="U280" s="11">
+        <v>24</v>
+      </c>
+      <c r="W280" s="11">
+        <v>14</v>
+      </c>
+      <c r="Y280" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" s="11">
+        <v>99</v>
+      </c>
+      <c r="D281" s="11">
+        <v>17</v>
+      </c>
+      <c r="E281" s="12"/>
+      <c r="F281" s="11">
+        <v>31</v>
+      </c>
+      <c r="H281" s="13"/>
+      <c r="I281" s="12">
+        <v>22</v>
+      </c>
+      <c r="K281" s="11">
+        <v>31</v>
+      </c>
+      <c r="M281" s="11">
+        <v>21</v>
+      </c>
+      <c r="O281" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q281" s="11">
+        <v>21</v>
+      </c>
+      <c r="S281" s="2">
+        <v>31</v>
+      </c>
+      <c r="U281" s="11">
+        <v>30</v>
+      </c>
+      <c r="W281" s="11">
+        <v>49</v>
+      </c>
+      <c r="Y281" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E282" s="12"/>
+      <c r="H282" s="13"/>
+      <c r="I282" s="12"/>
+      <c r="S282" s="2"/>
+    </row>
+    <row r="283" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C286" s="8"/>
-      <c r="E286" s="4"/>
-      <c r="H286" s="8"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B283" s="11">
+        <v>99</v>
+      </c>
+      <c r="D283" s="11">
+        <v>27</v>
+      </c>
+      <c r="E283" s="12"/>
+      <c r="F283" s="11">
+        <v>20</v>
+      </c>
+      <c r="H283" s="13"/>
+      <c r="I283" s="12">
+        <v>28</v>
+      </c>
+      <c r="K283" s="11">
+        <v>27</v>
+      </c>
+      <c r="M283" s="11">
+        <v>14</v>
+      </c>
+      <c r="O283" s="11">
+        <v>27</v>
+      </c>
+      <c r="Q283" s="11">
+        <v>34</v>
+      </c>
+      <c r="S283" s="2">
+        <v>38</v>
+      </c>
+      <c r="U283" s="11">
+        <v>31</v>
+      </c>
+      <c r="W283" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y283" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C287" s="8"/>
-      <c r="E287" s="4"/>
-      <c r="H287" s="8"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C288" s="8"/>
-      <c r="E288" s="4"/>
-      <c r="H288" s="8"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B284" s="11">
+        <v>99</v>
+      </c>
+      <c r="D284" s="11">
+        <v>17</v>
+      </c>
+      <c r="E284" s="12"/>
+      <c r="F284" s="11">
+        <v>16</v>
+      </c>
+      <c r="H284" s="13"/>
+      <c r="I284" s="12">
+        <v>17</v>
+      </c>
+      <c r="K284" s="11">
+        <v>17</v>
+      </c>
+      <c r="M284" s="11">
+        <v>24</v>
+      </c>
+      <c r="O284" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q284" s="11">
+        <v>17</v>
+      </c>
+      <c r="S284" s="2">
+        <v>24</v>
+      </c>
+      <c r="U284" s="11">
+        <v>17</v>
+      </c>
+      <c r="W284" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y284" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E285" s="12"/>
+      <c r="H285" s="13"/>
+      <c r="I285" s="12"/>
+      <c r="S285" s="2"/>
+    </row>
+    <row r="286" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C289" s="8"/>
-      <c r="E289" s="4"/>
-      <c r="H289" s="8"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>21</v>
-      </c>
-      <c r="C290" s="8"/>
-      <c r="E290" s="4"/>
-      <c r="H290" s="8"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C291" s="8"/>
-      <c r="E291" s="4"/>
-      <c r="H291" s="8"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B286" s="11">
+        <v>99</v>
+      </c>
+      <c r="D286" s="11">
+        <v>17</v>
+      </c>
+      <c r="E286" s="12"/>
+      <c r="F286" s="11">
+        <v>10</v>
+      </c>
+      <c r="H286" s="13"/>
+      <c r="I286" s="12">
+        <v>13</v>
+      </c>
+      <c r="K286" s="11">
+        <v>31</v>
+      </c>
+      <c r="M286" s="11">
+        <v>21</v>
+      </c>
+      <c r="O286" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q286" s="11">
+        <v>7</v>
+      </c>
+      <c r="S286" s="2">
+        <v>10</v>
+      </c>
+      <c r="U286" s="11">
+        <v>21</v>
+      </c>
+      <c r="W286" s="11">
+        <v>12</v>
+      </c>
+      <c r="Y286" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B287" s="11">
+        <v>99</v>
+      </c>
+      <c r="D287" s="11">
+        <v>27</v>
+      </c>
+      <c r="E287" s="12"/>
+      <c r="F287" s="11">
+        <v>31</v>
+      </c>
+      <c r="H287" s="13"/>
+      <c r="I287" s="12">
+        <v>24</v>
+      </c>
+      <c r="K287" s="11">
+        <v>23</v>
+      </c>
+      <c r="M287" s="11">
+        <v>35</v>
+      </c>
+      <c r="O287" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q287" s="11">
+        <v>13</v>
+      </c>
+      <c r="S287" s="2">
+        <v>20</v>
+      </c>
+      <c r="U287" s="11">
+        <v>28</v>
+      </c>
+      <c r="W287" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y287" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E288" s="12"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="12"/>
+      <c r="S288" s="2"/>
+    </row>
+    <row r="289" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C292" s="8"/>
-      <c r="E292" s="4"/>
-      <c r="H292" s="8"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B289" s="11">
+        <v>99</v>
+      </c>
+      <c r="D289" s="11">
+        <v>27</v>
+      </c>
+      <c r="E289" s="12"/>
+      <c r="F289" s="11">
+        <v>20</v>
+      </c>
+      <c r="H289" s="13"/>
+      <c r="I289" s="12">
+        <v>27</v>
+      </c>
+      <c r="K289" s="11">
+        <v>23</v>
+      </c>
+      <c r="M289" s="11">
+        <v>28</v>
+      </c>
+      <c r="O289" s="11">
+        <v>31</v>
+      </c>
+      <c r="Q289" s="11">
+        <v>24</v>
+      </c>
+      <c r="S289" s="2">
+        <v>30</v>
+      </c>
+      <c r="U289" s="11">
+        <v>23</v>
+      </c>
+      <c r="W289" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y289" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C293" s="8"/>
-      <c r="E293" s="4"/>
-      <c r="H293" s="8"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C294" s="8"/>
-      <c r="E294" s="4"/>
-      <c r="H294" s="8"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B290" s="11">
+        <v>99</v>
+      </c>
+      <c r="D290" s="11">
+        <v>17</v>
+      </c>
+      <c r="E290" s="12"/>
+      <c r="F290" s="11">
+        <v>16</v>
+      </c>
+      <c r="H290" s="13"/>
+      <c r="I290" s="12">
+        <v>33</v>
+      </c>
+      <c r="K290" s="11">
+        <v>27</v>
+      </c>
+      <c r="M290" s="11">
+        <v>24</v>
+      </c>
+      <c r="O290" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q290" s="11">
+        <v>17</v>
+      </c>
+      <c r="S290" s="2">
+        <v>27</v>
+      </c>
+      <c r="U290" s="11">
+        <v>28</v>
+      </c>
+      <c r="W290" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y290" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E291" s="12"/>
+      <c r="H291" s="13"/>
+      <c r="I291" s="12"/>
+      <c r="S291" s="2"/>
+    </row>
+    <row r="292" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C295" s="8"/>
-      <c r="E295" s="4"/>
-      <c r="H295" s="8"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B292" s="11">
+        <v>99</v>
+      </c>
+      <c r="D292" s="11">
+        <v>17</v>
+      </c>
+      <c r="E292" s="12"/>
+      <c r="F292" s="11">
+        <v>17</v>
+      </c>
+      <c r="H292" s="13"/>
+      <c r="I292" s="12">
+        <v>17</v>
+      </c>
+      <c r="K292" s="11">
+        <v>20</v>
+      </c>
+      <c r="M292" s="11">
+        <v>24</v>
+      </c>
+      <c r="O292" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q292" s="11">
+        <v>7</v>
+      </c>
+      <c r="S292" s="2">
+        <v>27</v>
+      </c>
+      <c r="U292" s="11">
+        <v>20</v>
+      </c>
+      <c r="W292" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y292" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C296" s="8"/>
-      <c r="E296" s="4"/>
-      <c r="H296" s="8"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C297" s="8"/>
-      <c r="E297" s="4"/>
-      <c r="H297" s="8"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B293" s="11">
+        <v>99</v>
+      </c>
+      <c r="D293" s="11">
+        <v>27</v>
+      </c>
+      <c r="E293" s="12"/>
+      <c r="F293" s="11">
+        <v>20</v>
+      </c>
+      <c r="H293" s="13"/>
+      <c r="I293" s="12">
+        <v>20</v>
+      </c>
+      <c r="K293" s="11">
+        <v>27</v>
+      </c>
+      <c r="M293" s="11">
+        <v>17</v>
+      </c>
+      <c r="O293" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q293" s="11">
+        <v>10</v>
+      </c>
+      <c r="S293" s="2">
+        <v>31</v>
+      </c>
+      <c r="U293" s="11">
+        <v>17</v>
+      </c>
+      <c r="W293" s="11">
+        <v>13</v>
+      </c>
+      <c r="Y293" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E294" s="12"/>
+      <c r="H294" s="13"/>
+      <c r="I294" s="12"/>
+      <c r="S294" s="2"/>
+    </row>
+    <row r="295" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C298" s="8"/>
-      <c r="E298" s="4"/>
-      <c r="H298" s="8"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B295" s="11">
+        <v>99</v>
+      </c>
+      <c r="D295" s="11">
+        <v>27</v>
+      </c>
+      <c r="E295" s="12"/>
+      <c r="F295" s="11">
+        <v>24</v>
+      </c>
+      <c r="H295" s="13"/>
+      <c r="I295" s="12">
+        <v>16</v>
+      </c>
+      <c r="K295" s="11">
+        <v>23</v>
+      </c>
+      <c r="M295" s="11">
+        <v>20</v>
+      </c>
+      <c r="O295" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q295" s="11">
+        <v>13</v>
+      </c>
+      <c r="S295" s="2">
+        <v>20</v>
+      </c>
+      <c r="U295" s="11">
+        <v>20</v>
+      </c>
+      <c r="W295" s="11">
+        <v>14</v>
+      </c>
+      <c r="Y295" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C299" s="8"/>
-      <c r="E299" s="4"/>
-      <c r="H299" s="8"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C300" s="8"/>
-      <c r="E300" s="4"/>
-      <c r="H300" s="8"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B296" s="11">
+        <v>99</v>
+      </c>
+      <c r="D296" s="11">
+        <v>17</v>
+      </c>
+      <c r="E296" s="12"/>
+      <c r="F296" s="11">
+        <v>20</v>
+      </c>
+      <c r="H296" s="13"/>
+      <c r="I296" s="12">
+        <v>24</v>
+      </c>
+      <c r="K296" s="11">
+        <v>24</v>
+      </c>
+      <c r="M296" s="11">
+        <v>31</v>
+      </c>
+      <c r="O296" s="11">
+        <v>34</v>
+      </c>
+      <c r="Q296" s="11">
+        <v>21</v>
+      </c>
+      <c r="S296" s="2">
+        <v>34</v>
+      </c>
+      <c r="U296" s="11">
+        <v>27</v>
+      </c>
+      <c r="W296" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y296" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E297" s="12"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="12"/>
+      <c r="S297" s="2"/>
+    </row>
+    <row r="298" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C301" s="8"/>
-      <c r="E301" s="4"/>
-      <c r="H301" s="8"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B298" s="11">
+        <v>99</v>
+      </c>
+      <c r="D298" s="11">
+        <v>17</v>
+      </c>
+      <c r="E298" s="12"/>
+      <c r="F298" s="11">
+        <v>16</v>
+      </c>
+      <c r="H298" s="13"/>
+      <c r="I298" s="12">
+        <v>13</v>
+      </c>
+      <c r="K298" s="11">
+        <v>24</v>
+      </c>
+      <c r="M298" s="11">
+        <v>10</v>
+      </c>
+      <c r="O298" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q298" s="11">
+        <v>17</v>
+      </c>
+      <c r="S298" s="2">
+        <v>17</v>
+      </c>
+      <c r="U298" s="11">
+        <v>21</v>
+      </c>
+      <c r="W298" s="11">
+        <v>13</v>
+      </c>
+      <c r="Y298" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C302" s="8"/>
-      <c r="E302" s="4"/>
-      <c r="H302" s="8"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C303" s="8"/>
-      <c r="E303" s="4"/>
-      <c r="H303" s="8"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B299" s="11">
+        <v>99</v>
+      </c>
+      <c r="D299" s="11">
+        <v>27</v>
+      </c>
+      <c r="E299" s="12"/>
+      <c r="F299" s="11">
+        <v>23</v>
+      </c>
+      <c r="H299" s="13"/>
+      <c r="I299" s="12">
+        <v>20</v>
+      </c>
+      <c r="K299" s="11">
+        <v>20</v>
+      </c>
+      <c r="M299" s="11">
+        <v>14</v>
+      </c>
+      <c r="O299" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q299" s="11">
+        <v>24</v>
+      </c>
+      <c r="S299" s="2">
+        <v>20</v>
+      </c>
+      <c r="U299" s="11">
+        <v>28</v>
+      </c>
+      <c r="W299" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y299" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E300" s="12"/>
+      <c r="H300" s="13"/>
+      <c r="I300" s="12"/>
+      <c r="S300" s="2"/>
+    </row>
+    <row r="301" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C304" s="8"/>
-      <c r="E304" s="4"/>
-      <c r="H304" s="8"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B301" s="11">
+        <v>99</v>
+      </c>
+      <c r="D301" s="11">
+        <v>27</v>
+      </c>
+      <c r="E301" s="12"/>
+      <c r="F301" s="11">
+        <v>13</v>
+      </c>
+      <c r="H301" s="13"/>
+      <c r="I301" s="12">
+        <v>19</v>
+      </c>
+      <c r="K301" s="11">
+        <v>27</v>
+      </c>
+      <c r="M301" s="11">
+        <v>20</v>
+      </c>
+      <c r="O301" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q301" s="11">
+        <v>17</v>
+      </c>
+      <c r="S301" s="2">
+        <v>17</v>
+      </c>
+      <c r="U301" s="11">
+        <v>27</v>
+      </c>
+      <c r="W301" s="11">
+        <v>29</v>
+      </c>
+      <c r="Y301" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C305" s="8"/>
-      <c r="E305" s="4"/>
-      <c r="H305" s="8"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C306" s="8"/>
-      <c r="E306" s="4"/>
-      <c r="H306" s="8"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B302" s="11">
+        <v>99</v>
+      </c>
+      <c r="D302" s="11">
+        <v>17</v>
+      </c>
+      <c r="E302" s="12"/>
+      <c r="F302" s="11">
+        <v>27</v>
+      </c>
+      <c r="H302" s="13"/>
+      <c r="I302" s="12">
+        <v>21</v>
+      </c>
+      <c r="K302" s="11">
+        <v>23</v>
+      </c>
+      <c r="M302" s="11">
+        <v>24</v>
+      </c>
+      <c r="O302" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q302" s="11">
+        <v>21</v>
+      </c>
+      <c r="S302" s="2">
+        <v>20</v>
+      </c>
+      <c r="U302" s="11">
+        <v>23</v>
+      </c>
+      <c r="W302" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y302" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E303" s="12"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="12"/>
+      <c r="S303" s="2"/>
+    </row>
+    <row r="304" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C307" s="8"/>
-      <c r="E307" s="4"/>
-      <c r="H307" s="8"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>27</v>
-      </c>
-      <c r="C308" s="8"/>
-      <c r="E308" s="4"/>
-      <c r="H308" s="8"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C309" s="8"/>
-      <c r="E309" s="4"/>
-      <c r="H309" s="8"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B304" s="11">
+        <v>99</v>
+      </c>
+      <c r="D304" s="11">
+        <v>17</v>
+      </c>
+      <c r="E304" s="12"/>
+      <c r="F304" s="11">
+        <v>13</v>
+      </c>
+      <c r="H304" s="13"/>
+      <c r="I304" s="12">
+        <v>10</v>
+      </c>
+      <c r="K304" s="11">
+        <v>20</v>
+      </c>
+      <c r="M304" s="11">
+        <v>14</v>
+      </c>
+      <c r="O304" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q304" s="11">
+        <v>27</v>
+      </c>
+      <c r="S304" s="2">
+        <v>17</v>
+      </c>
+      <c r="U304" s="11">
+        <v>24</v>
+      </c>
+      <c r="W304" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y304" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B305" s="11">
+        <v>99</v>
+      </c>
+      <c r="D305" s="11">
+        <v>27</v>
+      </c>
+      <c r="E305" s="12"/>
+      <c r="F305" s="11">
+        <v>34</v>
+      </c>
+      <c r="H305" s="13"/>
+      <c r="I305" s="12">
+        <v>30</v>
+      </c>
+      <c r="K305" s="11">
+        <v>31</v>
+      </c>
+      <c r="M305" s="11">
+        <v>21</v>
+      </c>
+      <c r="O305" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q305" s="11">
+        <v>41</v>
+      </c>
+      <c r="S305" s="2">
+        <v>37</v>
+      </c>
+      <c r="U305" s="11">
+        <v>27</v>
+      </c>
+      <c r="W305" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y305" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E306" s="12"/>
+      <c r="H306" s="13"/>
+      <c r="I306" s="12"/>
+      <c r="S306" s="2"/>
+    </row>
+    <row r="307" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C310" s="8"/>
-      <c r="E310" s="4"/>
-      <c r="H310" s="8"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B307" s="11">
+        <v>99</v>
+      </c>
+      <c r="D307" s="11">
+        <v>17</v>
+      </c>
+      <c r="E307" s="12"/>
+      <c r="F307" s="11">
+        <v>16</v>
+      </c>
+      <c r="H307" s="13"/>
+      <c r="I307" s="12">
+        <v>10</v>
+      </c>
+      <c r="K307" s="11">
+        <v>23</v>
+      </c>
+      <c r="M307" s="11">
+        <v>21</v>
+      </c>
+      <c r="O307" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q307" s="11">
+        <v>21</v>
+      </c>
+      <c r="S307" s="2">
+        <v>16</v>
+      </c>
+      <c r="U307" s="11">
+        <v>24</v>
+      </c>
+      <c r="W307" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y307" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C311" s="8"/>
-      <c r="E311" s="4"/>
-      <c r="H311" s="8"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C312" s="8"/>
-      <c r="E312" s="4"/>
-      <c r="H312" s="8"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B308" s="11">
+        <v>99</v>
+      </c>
+      <c r="D308" s="11">
+        <v>27</v>
+      </c>
+      <c r="E308" s="12"/>
+      <c r="F308" s="11">
+        <v>13</v>
+      </c>
+      <c r="H308" s="13"/>
+      <c r="I308" s="12">
+        <v>22</v>
+      </c>
+      <c r="K308" s="11">
+        <v>31</v>
+      </c>
+      <c r="M308" s="11">
+        <v>24</v>
+      </c>
+      <c r="O308" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q308" s="11">
+        <v>27</v>
+      </c>
+      <c r="S308" s="2">
+        <v>20</v>
+      </c>
+      <c r="U308" s="11">
+        <v>20</v>
+      </c>
+      <c r="W308" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y308" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E309" s="12"/>
+      <c r="H309" s="13"/>
+      <c r="I309" s="12"/>
+      <c r="S309" s="2"/>
+    </row>
+    <row r="310" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C313" s="8"/>
-      <c r="E313" s="4"/>
-      <c r="H313" s="8"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="B310" s="11">
+        <v>99</v>
+      </c>
+      <c r="D310" s="11">
+        <v>27</v>
+      </c>
+      <c r="E310" s="12"/>
+      <c r="F310" s="11">
+        <v>27</v>
+      </c>
+      <c r="H310" s="13"/>
+      <c r="I310" s="12">
+        <v>24</v>
+      </c>
+      <c r="K310" s="11">
+        <v>24</v>
+      </c>
+      <c r="M310" s="11">
+        <v>21</v>
+      </c>
+      <c r="O310" s="11">
+        <v>40</v>
+      </c>
+      <c r="Q310" s="11">
+        <v>21</v>
+      </c>
+      <c r="S310" s="2">
+        <v>20</v>
+      </c>
+      <c r="U310" s="11">
+        <v>28</v>
+      </c>
+      <c r="W310" s="11">
+        <v>45</v>
+      </c>
+      <c r="Y310" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C314" s="8"/>
-      <c r="E314" s="4"/>
-      <c r="H314" s="8"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C315" s="8"/>
-      <c r="E315" s="4"/>
-      <c r="H315" s="8"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B311" s="11">
+        <v>99</v>
+      </c>
+      <c r="D311" s="11">
+        <v>17</v>
+      </c>
+      <c r="E311" s="12"/>
+      <c r="F311" s="11">
+        <v>16</v>
+      </c>
+      <c r="H311" s="13"/>
+      <c r="I311" s="12">
+        <v>17</v>
+      </c>
+      <c r="K311" s="11">
+        <v>27</v>
+      </c>
+      <c r="M311" s="11">
+        <v>24</v>
+      </c>
+      <c r="O311" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q311" s="11">
+        <v>14</v>
+      </c>
+      <c r="S311" s="2">
+        <v>24</v>
+      </c>
+      <c r="U311" s="11">
+        <v>21</v>
+      </c>
+      <c r="W311" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y311" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E312" s="12"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="12"/>
+      <c r="S312" s="2"/>
+    </row>
+    <row r="313" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C316" s="8"/>
-      <c r="E316" s="4"/>
-      <c r="H316" s="8"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B313" s="11">
+        <v>99</v>
+      </c>
+      <c r="D313" s="11">
+        <v>27</v>
+      </c>
+      <c r="E313" s="12"/>
+      <c r="F313" s="11">
+        <v>13</v>
+      </c>
+      <c r="H313" s="13"/>
+      <c r="I313" s="12">
+        <v>23</v>
+      </c>
+      <c r="K313" s="11">
+        <v>27</v>
+      </c>
+      <c r="M313" s="11">
+        <v>24</v>
+      </c>
+      <c r="O313" s="11">
+        <v>19</v>
+      </c>
+      <c r="Q313" s="11">
+        <v>28</v>
+      </c>
+      <c r="S313" s="2">
+        <v>34</v>
+      </c>
+      <c r="U313" s="11">
+        <v>30</v>
+      </c>
+      <c r="W313" s="11">
+        <v>29</v>
+      </c>
+      <c r="Y313" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C317" s="8"/>
-      <c r="E317" s="4"/>
-      <c r="H317" s="8"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C318" s="8"/>
-      <c r="E318" s="4"/>
-      <c r="H318" s="8"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>20</v>
-      </c>
-      <c r="C319" s="8"/>
-      <c r="E319" s="4"/>
-      <c r="H319" s="8"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B314" s="11">
+        <v>99</v>
+      </c>
+      <c r="D314" s="11">
+        <v>17</v>
+      </c>
+      <c r="E314" s="12"/>
+      <c r="F314" s="11">
+        <v>27</v>
+      </c>
+      <c r="H314" s="13"/>
+      <c r="I314" s="12">
+        <v>14</v>
+      </c>
+      <c r="K314" s="11">
+        <v>17</v>
+      </c>
+      <c r="M314" s="11">
+        <v>14</v>
+      </c>
+      <c r="O314" s="11">
+        <v>22</v>
+      </c>
+      <c r="Q314" s="11">
+        <v>27</v>
+      </c>
+      <c r="S314" s="2">
+        <v>27</v>
+      </c>
+      <c r="U314" s="11">
+        <v>20</v>
+      </c>
+      <c r="W314" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y314" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E315" s="12"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="12"/>
+      <c r="S315" s="2"/>
+    </row>
+    <row r="316" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" s="11">
+        <v>99</v>
+      </c>
+      <c r="D316" s="11">
+        <v>27</v>
+      </c>
+      <c r="E316" s="12"/>
+      <c r="F316" s="11">
+        <v>27</v>
+      </c>
+      <c r="H316" s="13"/>
+      <c r="I316" s="12">
+        <v>28</v>
+      </c>
+      <c r="K316" s="11">
+        <v>31</v>
+      </c>
+      <c r="M316" s="11">
+        <v>24</v>
+      </c>
+      <c r="O316" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q316" s="11">
+        <v>28</v>
+      </c>
+      <c r="S316" s="2">
+        <v>30</v>
+      </c>
+      <c r="U316" s="11">
+        <v>35</v>
+      </c>
+      <c r="W316" s="11">
+        <v>42</v>
+      </c>
+      <c r="Y316" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C320" s="8"/>
-      <c r="E320" s="4"/>
-      <c r="H320" s="8"/>
-    </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C321" s="8"/>
-      <c r="E321" s="4"/>
-      <c r="H321" s="8"/>
-    </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>24</v>
-      </c>
-      <c r="C322" s="8"/>
-      <c r="E322" s="4"/>
-      <c r="H322" s="8"/>
-    </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B317" s="11">
+        <v>99</v>
+      </c>
+      <c r="D317" s="11">
+        <v>17</v>
+      </c>
+      <c r="E317" s="12"/>
+      <c r="F317" s="11">
+        <v>31</v>
+      </c>
+      <c r="H317" s="13"/>
+      <c r="I317" s="12">
+        <v>23</v>
+      </c>
+      <c r="K317" s="11">
+        <v>23</v>
+      </c>
+      <c r="M317" s="11">
+        <v>28</v>
+      </c>
+      <c r="O317" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q317" s="11">
+        <v>24</v>
+      </c>
+      <c r="S317" s="2">
+        <v>23</v>
+      </c>
+      <c r="U317" s="11">
+        <v>21</v>
+      </c>
+      <c r="W317" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y317" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E318" s="12"/>
+      <c r="H318" s="13"/>
+      <c r="I318" s="12"/>
+      <c r="S318" s="2"/>
+    </row>
+    <row r="319" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="11">
+        <v>99</v>
+      </c>
+      <c r="D319" s="11">
+        <v>27</v>
+      </c>
+      <c r="E319" s="12"/>
+      <c r="F319" s="11">
+        <v>27</v>
+      </c>
+      <c r="H319" s="13"/>
+      <c r="I319" s="12">
+        <v>17</v>
+      </c>
+      <c r="K319" s="11">
+        <v>23</v>
+      </c>
+      <c r="M319" s="11">
+        <v>17</v>
+      </c>
+      <c r="O319" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q319" s="11">
+        <v>20</v>
+      </c>
+      <c r="S319" s="2">
+        <v>24</v>
+      </c>
+      <c r="U319" s="11">
+        <v>23</v>
+      </c>
+      <c r="W319" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y319" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C323" s="8"/>
-      <c r="E323" s="4"/>
-      <c r="H323" s="8"/>
-      <c r="R323" s="7"/>
-      <c r="T323" s="7"/>
-      <c r="W323" s="7"/>
-    </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C324" s="8"/>
-      <c r="E324" s="4"/>
-      <c r="H324" s="8"/>
-      <c r="R324" s="7"/>
-      <c r="T324" s="7"/>
-      <c r="W324" s="7"/>
+      <c r="B320" s="11">
+        <v>99</v>
+      </c>
+      <c r="D320" s="11">
+        <v>17</v>
+      </c>
+      <c r="E320" s="12"/>
+      <c r="F320" s="11">
+        <v>13</v>
+      </c>
+      <c r="H320" s="13"/>
+      <c r="I320" s="12">
+        <v>20</v>
+      </c>
+      <c r="K320" s="11">
+        <v>34</v>
+      </c>
+      <c r="M320" s="11">
+        <v>24</v>
+      </c>
+      <c r="O320" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q320" s="11">
+        <v>21</v>
+      </c>
+      <c r="R320" s="39"/>
+      <c r="S320" s="2">
+        <v>20</v>
+      </c>
+      <c r="T320" s="39"/>
+      <c r="U320" s="11">
+        <v>27</v>
+      </c>
+      <c r="W320" s="12">
+        <v>26</v>
+      </c>
+      <c r="Y320" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E321" s="12"/>
+      <c r="H321" s="13"/>
+      <c r="I321" s="12"/>
+      <c r="R321" s="39"/>
+      <c r="S321" s="2"/>
+      <c r="T321" s="39"/>
+      <c r="W321" s="39"/>
+    </row>
+    <row r="322" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B322" s="11">
+        <v>99</v>
+      </c>
+      <c r="D322" s="11">
+        <v>17</v>
+      </c>
+      <c r="E322" s="12"/>
+      <c r="F322" s="11">
+        <v>9</v>
+      </c>
+      <c r="H322" s="13"/>
+      <c r="I322" s="12">
+        <v>13</v>
+      </c>
+      <c r="K322" s="11">
+        <v>23</v>
+      </c>
+      <c r="M322" s="11">
+        <v>10</v>
+      </c>
+      <c r="O322" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q322" s="11">
+        <v>17</v>
+      </c>
+      <c r="S322" s="40">
+        <v>27</v>
+      </c>
+      <c r="U322" s="11">
+        <v>21</v>
+      </c>
+      <c r="W322" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y322" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B323" s="11">
+        <v>99</v>
+      </c>
+      <c r="D323" s="11">
+        <v>27</v>
+      </c>
+      <c r="E323" s="12"/>
+      <c r="F323" s="11">
+        <v>31</v>
+      </c>
+      <c r="H323" s="13"/>
+      <c r="I323" s="12">
+        <v>29</v>
+      </c>
+      <c r="K323" s="11">
+        <v>31</v>
+      </c>
+      <c r="M323" s="11">
+        <v>24</v>
+      </c>
+      <c r="O323" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q323" s="11">
+        <v>34</v>
+      </c>
+      <c r="S323" s="40">
+        <v>30</v>
+      </c>
+      <c r="U323" s="11">
+        <v>31</v>
+      </c>
+      <c r="W323" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y323" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E324" s="12"/>
+      <c r="H324" s="13"/>
+      <c r="I324" s="12"/>
+      <c r="S324" s="2"/>
     </row>
     <row r="325" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C325" s="8"/>
       <c r="E325" s="4"/>
       <c r="G325" s="7"/>
       <c r="H325" s="8"/>
-      <c r="S325" s="3"/>
     </row>
     <row r="326" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>84</v>
+      <c r="A326" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C326" s="8"/>
       <c r="E326" s="4"/>
       <c r="G326" s="7"/>
       <c r="H326" s="8"/>
-      <c r="S326" s="3"/>
     </row>
     <row r="327" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C327" s="8"/>
@@ -8695,9 +9463,6 @@
       <c r="H327" s="8"/>
     </row>
     <row r="328" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A328" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="C328" s="8"/>
       <c r="E328" s="4"/>
       <c r="G328" s="7"/>
@@ -8708,97 +9473,95 @@
       <c r="E329" s="4"/>
       <c r="G329" s="7"/>
       <c r="H329" s="8"/>
+      <c r="W329" s="4"/>
     </row>
     <row r="330" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C330" s="8"/>
       <c r="E330" s="4"/>
       <c r="G330" s="7"/>
       <c r="H330" s="8"/>
+      <c r="W330" s="4"/>
     </row>
     <row r="331" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C331" s="8"/>
-      <c r="E331" s="4"/>
+      <c r="A331" t="s">
+        <v>106</v>
+      </c>
+      <c r="C331" s="4">
+        <f>SUM(C2:C330)</f>
+        <v>-195</v>
+      </c>
+      <c r="E331" s="4">
+        <f>SUM(E2:E330)</f>
+        <v>95</v>
+      </c>
       <c r="G331" s="7"/>
-      <c r="H331" s="8"/>
+      <c r="H331" s="4">
+        <f>SUM(H2:H330)</f>
+        <v>95</v>
+      </c>
+      <c r="J331">
+        <f>SUM(J2:J330)</f>
+        <v>70</v>
+      </c>
+      <c r="L331">
+        <f>SUM(L2:L330)</f>
+        <v>105</v>
+      </c>
+      <c r="N331">
+        <f>SUM(N2:N330)</f>
+        <v>70</v>
+      </c>
+      <c r="P331">
+        <f>SUM(P2:P330)</f>
+        <v>50</v>
+      </c>
+      <c r="R331">
+        <f>SUM(R2:R330)</f>
+        <v>80</v>
+      </c>
+      <c r="T331">
+        <f>SUM(T2:T330)</f>
+        <v>105</v>
+      </c>
+      <c r="V331">
+        <f>SUM(V2:V330)</f>
+        <v>155</v>
+      </c>
       <c r="W331" s="4"/>
+      <c r="X331">
+        <f>SUM(X2:X330)</f>
+        <v>85</v>
+      </c>
+      <c r="Z331">
+        <f>SUM(Z2:Z330)</f>
+        <v>80</v>
+      </c>
+      <c r="AB331">
+        <f>SUM(AB2:AB330)</f>
+        <v>-60</v>
+      </c>
+      <c r="AD331">
+        <f>SUM(AD2:AD330)</f>
+        <v>-60</v>
+      </c>
+      <c r="AF331">
+        <f>SUM(AF2:AF330)</f>
+        <v>-40</v>
+      </c>
+      <c r="AG331" s="4">
+        <f>SUM(C331:AF331)</f>
+        <v>635</v>
+      </c>
     </row>
     <row r="332" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C332" s="8"/>
-      <c r="E332" s="4"/>
       <c r="G332" s="7"/>
-      <c r="H332" s="8"/>
+      <c r="H332" s="7"/>
       <c r="W332" s="4"/>
     </row>
     <row r="333" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>106</v>
-      </c>
-      <c r="C333" s="4">
-        <f>SUM(C2:C332)</f>
-        <v>-195</v>
-      </c>
-      <c r="E333" s="4">
-        <f>SUM(E2:E332)</f>
-        <v>95</v>
-      </c>
       <c r="G333" s="7"/>
-      <c r="H333" s="4">
-        <f>SUM(H2:H332)</f>
-        <v>95</v>
-      </c>
-      <c r="J333">
-        <f>SUM(J2:J332)</f>
-        <v>70</v>
-      </c>
-      <c r="L333">
-        <f>SUM(L2:L332)</f>
-        <v>80</v>
-      </c>
-      <c r="N333">
-        <f>SUM(N2:N332)</f>
-        <v>70</v>
-      </c>
-      <c r="P333">
-        <f>SUM(P2:P332)</f>
-        <v>50</v>
-      </c>
-      <c r="R333">
-        <f>SUM(R2:R332)</f>
-        <v>80</v>
-      </c>
-      <c r="T333">
-        <f>SUM(T2:T332)</f>
-        <v>105</v>
-      </c>
-      <c r="V333">
-        <f>SUM(V2:V332)</f>
-        <v>130</v>
-      </c>
+      <c r="H333" s="7"/>
       <c r="W333" s="4"/>
-      <c r="X333">
-        <f>SUM(X2:X332)</f>
-        <v>60</v>
-      </c>
-      <c r="Z333">
-        <f>SUM(Z2:Z332)</f>
-        <v>80</v>
-      </c>
-      <c r="AB333">
-        <f>SUM(AB2:AB332)</f>
-        <v>-60</v>
-      </c>
-      <c r="AD333">
-        <f>SUM(AD2:AD332)</f>
-        <v>-60</v>
-      </c>
-      <c r="AF333">
-        <f>SUM(AF2:AF332)</f>
-        <v>-40</v>
-      </c>
-      <c r="AG333" s="4">
-        <f>SUM(C333:AF333)</f>
-        <v>560</v>
-      </c>
     </row>
     <row r="334" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G334" s="7"/>
@@ -8806,113 +9569,160 @@
       <c r="W334" s="4"/>
     </row>
     <row r="335" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>107</v>
+      </c>
+      <c r="B335" t="s">
+        <v>71</v>
+      </c>
+      <c r="D335" t="s">
+        <v>75</v>
+      </c>
+      <c r="F335" t="s">
+        <v>81</v>
+      </c>
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
+      <c r="I335" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="W335" s="4"/>
     </row>
     <row r="336" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G336" s="7"/>
-      <c r="H336" s="7"/>
+      <c r="A336" t="s">
+        <v>2</v>
+      </c>
+      <c r="B336">
+        <v>45</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2</v>
+      </c>
+      <c r="E336">
+        <v>85</v>
+      </c>
+      <c r="F336" t="s">
+        <v>10</v>
+      </c>
+      <c r="H336">
+        <v>95</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J336">
+        <v>130</v>
+      </c>
       <c r="W336" s="4"/>
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>107</v>
-      </c>
-      <c r="B337" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="B337">
+        <v>45</v>
       </c>
       <c r="D337" t="s">
+        <v>108</v>
+      </c>
+      <c r="E337">
         <v>75</v>
       </c>
-      <c r="F337" t="s">
-        <v>81</v>
-      </c>
-      <c r="G337" s="7"/>
-      <c r="H337" s="7"/>
+      <c r="F337" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G337">
+        <v>85</v>
+      </c>
+      <c r="H337">
+        <v>85</v>
+      </c>
       <c r="I337" s="4" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="J337">
+        <v>105</v>
       </c>
       <c r="W337" s="4"/>
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>109</v>
+      </c>
+      <c r="B338">
+        <v>20</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338">
+        <v>65</v>
+      </c>
+      <c r="F338" t="s">
+        <v>9</v>
+      </c>
+      <c r="H338">
+        <v>85</v>
+      </c>
+      <c r="I338" t="s">
         <v>2</v>
       </c>
-      <c r="B338">
-        <v>45</v>
-      </c>
-      <c r="D338" t="s">
-        <v>2</v>
-      </c>
-      <c r="E338">
-        <v>85</v>
-      </c>
-      <c r="F338" t="s">
-        <v>10</v>
-      </c>
-      <c r="H338">
+      <c r="J338">
         <v>95</v>
-      </c>
-      <c r="I338" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J338">
-        <v>130</v>
       </c>
       <c r="W338" s="4"/>
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339">
+        <v>20</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339">
+        <v>60</v>
+      </c>
+      <c r="F339" t="s">
         <v>14</v>
-      </c>
-      <c r="B339">
-        <v>45</v>
-      </c>
-      <c r="D339" t="s">
-        <v>108</v>
-      </c>
-      <c r="E339">
-        <v>75</v>
-      </c>
-      <c r="F339" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G339">
-        <v>85</v>
       </c>
       <c r="H339">
         <v>85</v>
       </c>
       <c r="I339" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J339">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="W339" s="4"/>
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="B340">
         <v>20</v>
       </c>
       <c r="D340" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E340">
-        <v>65</v>
-      </c>
-      <c r="F340" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340">
+        <v>70</v>
       </c>
       <c r="H340">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I340" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J340">
         <v>95</v>
@@ -8921,112 +9731,112 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B341">
         <v>20</v>
       </c>
       <c r="D341" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E341">
+        <v>50</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G341">
         <v>60</v>
       </c>
-      <c r="F341" t="s">
-        <v>14</v>
-      </c>
       <c r="H341">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I341" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J341">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W341" s="4"/>
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B342">
         <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E342">
         <v>50</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G342">
+        <v>5</v>
+      </c>
+      <c r="H342">
         <v>70</v>
       </c>
-      <c r="H342">
+      <c r="I342" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J342">
         <v>80</v>
-      </c>
-      <c r="I342" t="s">
-        <v>14</v>
-      </c>
-      <c r="J342">
-        <v>95</v>
       </c>
       <c r="W342" s="4"/>
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B343">
         <v>20</v>
       </c>
       <c r="D343" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E343">
         <v>50</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G343">
+        <v>40</v>
+      </c>
+      <c r="H343">
         <v>60</v>
       </c>
-      <c r="H343">
+      <c r="I343" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343">
         <v>80</v>
-      </c>
-      <c r="I343" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J343">
-        <v>90</v>
       </c>
       <c r="W343" s="4"/>
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>10</v>
+      </c>
+      <c r="D344" t="s">
         <v>12</v>
-      </c>
-      <c r="B344">
-        <v>20</v>
-      </c>
-      <c r="D344" t="s">
-        <v>112</v>
       </c>
       <c r="E344">
         <v>50</v>
       </c>
       <c r="F344" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H344">
+        <v>60</v>
+      </c>
+      <c r="I344" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H344">
-        <v>70</v>
-      </c>
-      <c r="I344" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="J344">
         <v>80</v>
@@ -9035,145 +9845,148 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B345">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D345" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E345">
         <v>50</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G345">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H345">
         <v>60</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J345">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W345" s="4"/>
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B346">
         <v>10</v>
       </c>
       <c r="D346" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E346">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>109</v>
+        <v>15</v>
+      </c>
+      <c r="G346">
+        <v>60</v>
       </c>
       <c r="H346">
         <v>60</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J346">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W346" s="4"/>
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B347">
         <v>10</v>
       </c>
       <c r="D347" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E347">
+        <v>40</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G347">
+        <v>40</v>
+      </c>
+      <c r="H347">
         <v>50</v>
       </c>
-      <c r="F347" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G347">
+      <c r="I347" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J347">
         <v>60</v>
-      </c>
-      <c r="H347">
-        <v>60</v>
-      </c>
-      <c r="I347" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J347">
-        <v>70</v>
       </c>
       <c r="W347" s="4"/>
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B348">
         <v>10</v>
       </c>
       <c r="D348" t="s">
+        <v>3</v>
+      </c>
+      <c r="E348">
+        <v>30</v>
+      </c>
+      <c r="F348" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E348">
-        <v>40</v>
-      </c>
-      <c r="F348" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G348">
+        <v>50</v>
+      </c>
+      <c r="H348">
+        <v>50</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J348">
         <v>60</v>
-      </c>
-      <c r="H348">
-        <v>60</v>
-      </c>
-      <c r="I348" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J348">
-        <v>70</v>
       </c>
       <c r="W348" s="4"/>
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349">
+        <v>30</v>
+      </c>
+      <c r="F349" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B349">
-        <v>10</v>
-      </c>
-      <c r="D349" t="s">
-        <v>11</v>
-      </c>
-      <c r="E349">
-        <v>40</v>
-      </c>
-      <c r="F349" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="G349">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H349">
         <v>50</v>
       </c>
       <c r="I349" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J349">
         <v>60</v>
@@ -9182,92 +9995,38 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D350" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E350">
+        <v>20</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G350">
         <v>30</v>
       </c>
-      <c r="F350" s="4" t="s">
+      <c r="H350">
+        <v>40</v>
+      </c>
+      <c r="I350" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G350">
+      <c r="J350">
         <v>50</v>
       </c>
-      <c r="H350">
-        <v>50</v>
-      </c>
-      <c r="I350" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J350">
-        <v>60</v>
-      </c>
       <c r="W350" s="4"/>
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>0</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-      <c r="D351" t="s">
-        <v>4</v>
-      </c>
-      <c r="E351">
-        <v>30</v>
-      </c>
-      <c r="F351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G351">
-        <v>50</v>
-      </c>
-      <c r="H351">
-        <v>50</v>
-      </c>
-      <c r="I351" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J351">
-        <v>60</v>
-      </c>
       <c r="W351" s="4"/>
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>9</v>
-      </c>
-      <c r="B352">
-        <v>0</v>
-      </c>
-      <c r="D352" t="s">
-        <v>0</v>
-      </c>
-      <c r="E352">
-        <v>20</v>
-      </c>
-      <c r="F352" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G352">
-        <v>30</v>
-      </c>
-      <c r="H352">
-        <v>40</v>
-      </c>
-      <c r="I352" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J352">
-        <v>50</v>
-      </c>
       <c r="W352" s="4"/>
     </row>
     <row r="353" spans="23:23" x14ac:dyDescent="0.25">
@@ -9315,14 +10074,8 @@
     <row r="367" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W367" s="4"/>
     </row>
-    <row r="368" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W368" s="4"/>
-    </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W369" s="4"/>
-    </row>
-    <row r="375" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B375" s="7"/>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/NFL PREDICTIONS 2022.xlsx
+++ b/Files/NFL PREDICTIONS 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvollar\Optum\jpvollaro_git\football_picks_webapp\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C3A01-0C28-4745-BE2E-28C7896977DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E102B6-657C-437A-B4DD-ADE6AD0E128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="117">
   <si>
     <t>KERRY</t>
   </si>
@@ -351,9 +351,6 @@
     <t>WEEK 18</t>
   </si>
   <si>
-    <t>PLAYOFFS</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -379,6 +376,15 @@
   </si>
   <si>
     <t>WEEK 19</t>
+  </si>
+  <si>
+    <t>WEEK 20</t>
+  </si>
+  <si>
+    <t>WEEK 21</t>
+  </si>
+  <si>
+    <t>WEEK 22</t>
   </si>
 </sst>
 </file>
@@ -861,12 +867,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG373"/>
+  <dimension ref="A1:AG405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A88" sqref="A88"/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
+      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9337,7 +9343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E321" s="12"/>
       <c r="H321" s="13"/>
       <c r="I321" s="12"/>
@@ -9346,7 +9352,7 @@
       <c r="T321" s="39"/>
       <c r="W321" s="39"/>
     </row>
-    <row r="322" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>28</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>84</v>
       </c>
@@ -9432,650 +9438,1658 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E324" s="12"/>
       <c r="H324" s="13"/>
       <c r="I324" s="12"/>
       <c r="S324" s="2"/>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C325" s="8"/>
       <c r="E325" s="4"/>
       <c r="G325" s="7"/>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A326" s="16" t="s">
+    <row r="326" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C326" s="13"/>
+      <c r="E326" s="12"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="13"/>
+      <c r="I326" s="12"/>
+      <c r="S326" s="2"/>
+    </row>
+    <row r="327" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B327" s="11">
+        <v>99</v>
+      </c>
+      <c r="C327" s="13"/>
+      <c r="D327" s="11">
+        <v>17</v>
+      </c>
+      <c r="E327" s="12"/>
+      <c r="F327" s="11">
+        <v>10</v>
+      </c>
+      <c r="G327" s="7"/>
+      <c r="H327" s="13"/>
+      <c r="I327" s="12">
+        <v>15</v>
+      </c>
+      <c r="K327" s="11">
+        <v>23</v>
+      </c>
+      <c r="M327" s="11">
+        <v>21</v>
+      </c>
+      <c r="O327" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q327" s="11">
+        <v>17</v>
+      </c>
+      <c r="S327" s="2">
+        <v>13</v>
+      </c>
+      <c r="U327" s="11">
+        <v>21</v>
+      </c>
+      <c r="W327" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y327" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B328" s="11">
+        <v>99</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="11">
+        <v>24</v>
+      </c>
+      <c r="E328" s="12"/>
+      <c r="F328" s="11">
+        <v>27</v>
+      </c>
+      <c r="G328" s="7"/>
+      <c r="H328" s="13"/>
+      <c r="I328" s="12">
+        <v>28</v>
+      </c>
+      <c r="K328" s="11">
+        <v>20</v>
+      </c>
+      <c r="M328" s="11">
+        <v>28</v>
+      </c>
+      <c r="O328" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q328" s="11">
+        <v>28</v>
+      </c>
+      <c r="S328" s="2">
+        <v>31</v>
+      </c>
+      <c r="U328" s="11">
+        <v>30</v>
+      </c>
+      <c r="W328" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y328" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C329" s="13"/>
+      <c r="E329" s="12"/>
+      <c r="G329" s="7"/>
+      <c r="H329" s="13"/>
+      <c r="I329" s="12"/>
+      <c r="S329" s="2"/>
+    </row>
+    <row r="330" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B330" s="11">
+        <v>99</v>
+      </c>
+      <c r="C330" s="13"/>
+      <c r="D330" s="11">
+        <v>24</v>
+      </c>
+      <c r="E330" s="12"/>
+      <c r="F330" s="11">
+        <v>17</v>
+      </c>
+      <c r="G330" s="7"/>
+      <c r="H330" s="13"/>
+      <c r="I330" s="12">
+        <v>21</v>
+      </c>
+      <c r="K330" s="11">
+        <v>24</v>
+      </c>
+      <c r="M330" s="11">
+        <v>24</v>
+      </c>
+      <c r="O330" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q330" s="11">
+        <v>24</v>
+      </c>
+      <c r="S330" s="2">
+        <v>30</v>
+      </c>
+      <c r="U330" s="11">
+        <v>24</v>
+      </c>
+      <c r="W330" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y330" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B331" s="11">
+        <v>99</v>
+      </c>
+      <c r="C331" s="13"/>
+      <c r="D331" s="11">
+        <v>17</v>
+      </c>
+      <c r="E331" s="12"/>
+      <c r="F331" s="11">
+        <v>24</v>
+      </c>
+      <c r="G331" s="7"/>
+      <c r="H331" s="13"/>
+      <c r="I331" s="12">
+        <v>23</v>
+      </c>
+      <c r="K331" s="11">
+        <v>20</v>
+      </c>
+      <c r="M331" s="11">
+        <v>27</v>
+      </c>
+      <c r="O331" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q331" s="11">
+        <v>17</v>
+      </c>
+      <c r="S331" s="2">
+        <v>27</v>
+      </c>
+      <c r="U331" s="11">
+        <v>27</v>
+      </c>
+      <c r="W331" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y331" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C332" s="13"/>
+      <c r="E332" s="12"/>
+      <c r="G332" s="7"/>
+      <c r="H332" s="13"/>
+      <c r="I332" s="12"/>
+      <c r="S332" s="2"/>
+    </row>
+    <row r="333" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B333" s="11">
+        <v>99</v>
+      </c>
+      <c r="C333" s="13"/>
+      <c r="D333" s="11">
+        <v>17</v>
+      </c>
+      <c r="E333" s="12"/>
+      <c r="F333" s="11">
+        <v>13</v>
+      </c>
+      <c r="G333" s="7"/>
+      <c r="H333" s="13"/>
+      <c r="I333" s="12">
+        <v>19</v>
+      </c>
+      <c r="K333" s="11">
+        <v>13</v>
+      </c>
+      <c r="M333" s="11">
+        <v>17</v>
+      </c>
+      <c r="O333" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q333" s="11">
+        <v>21</v>
+      </c>
+      <c r="S333" s="2">
+        <v>17</v>
+      </c>
+      <c r="U333" s="11">
+        <v>20</v>
+      </c>
+      <c r="W333" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y333" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" s="11">
+        <v>99</v>
+      </c>
+      <c r="C334" s="13"/>
+      <c r="D334" s="11">
+        <v>24</v>
+      </c>
+      <c r="E334" s="12"/>
+      <c r="F334" s="11">
+        <v>30</v>
+      </c>
+      <c r="G334" s="7"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="12">
+        <v>28</v>
+      </c>
+      <c r="K334" s="11">
+        <v>34</v>
+      </c>
+      <c r="M334" s="11">
+        <v>35</v>
+      </c>
+      <c r="O334" s="11">
+        <v>31</v>
+      </c>
+      <c r="Q334" s="11">
+        <v>34</v>
+      </c>
+      <c r="S334" s="2">
+        <v>34</v>
+      </c>
+      <c r="U334" s="11">
+        <v>37</v>
+      </c>
+      <c r="W334" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y334" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C335" s="13"/>
+      <c r="E335" s="12"/>
+      <c r="G335" s="7"/>
+      <c r="H335" s="13"/>
+      <c r="I335" s="12"/>
+      <c r="S335" s="2"/>
+    </row>
+    <row r="336" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B336" s="11">
+        <v>99</v>
+      </c>
+      <c r="C336" s="13"/>
+      <c r="D336" s="11">
+        <v>17</v>
+      </c>
+      <c r="E336" s="12"/>
+      <c r="F336" s="11">
+        <v>17</v>
+      </c>
+      <c r="G336" s="7"/>
+      <c r="H336" s="13"/>
+      <c r="I336" s="12">
+        <v>25</v>
+      </c>
+      <c r="K336" s="11">
+        <v>23</v>
+      </c>
+      <c r="M336" s="11">
+        <v>24</v>
+      </c>
+      <c r="O336" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q336" s="11">
+        <v>21</v>
+      </c>
+      <c r="S336" s="2">
+        <v>23</v>
+      </c>
+      <c r="U336" s="11">
+        <v>21</v>
+      </c>
+      <c r="W336" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y336" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B337" s="11">
+        <v>99</v>
+      </c>
+      <c r="C337" s="13"/>
+      <c r="D337" s="11">
+        <v>24</v>
+      </c>
+      <c r="E337" s="12"/>
+      <c r="F337" s="11">
+        <v>20</v>
+      </c>
+      <c r="G337" s="7"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="12">
+        <v>21</v>
+      </c>
+      <c r="K337" s="11">
+        <v>24</v>
+      </c>
+      <c r="M337" s="11">
+        <v>21</v>
+      </c>
+      <c r="O337" s="11">
+        <v>17</v>
+      </c>
+      <c r="Q337" s="11">
+        <v>31</v>
+      </c>
+      <c r="S337" s="2">
+        <v>27</v>
+      </c>
+      <c r="U337" s="11">
+        <v>28</v>
+      </c>
+      <c r="W337" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y337" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C338" s="13"/>
+      <c r="E338" s="12"/>
+      <c r="G338" s="7"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="12"/>
+      <c r="S338" s="2"/>
+    </row>
+    <row r="339" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B339" s="11">
+        <v>99</v>
+      </c>
+      <c r="C339" s="13"/>
+      <c r="D339" s="11">
+        <v>24</v>
+      </c>
+      <c r="E339" s="12"/>
+      <c r="F339" s="11">
+        <v>10</v>
+      </c>
+      <c r="G339" s="7"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="12">
+        <v>16</v>
+      </c>
+      <c r="K339" s="11">
+        <v>13</v>
+      </c>
+      <c r="M339" s="11">
+        <v>17</v>
+      </c>
+      <c r="O339" s="11">
+        <v>34</v>
+      </c>
+      <c r="Q339" s="11">
+        <v>14</v>
+      </c>
+      <c r="S339" s="2">
+        <v>10</v>
+      </c>
+      <c r="U339" s="11">
+        <v>24</v>
+      </c>
+      <c r="W339" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y339" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B340" s="11">
+        <v>99</v>
+      </c>
+      <c r="C340" s="13"/>
+      <c r="D340" s="11">
+        <v>17</v>
+      </c>
+      <c r="E340" s="12"/>
+      <c r="F340" s="11">
+        <v>23</v>
+      </c>
+      <c r="G340" s="7"/>
+      <c r="H340" s="13"/>
+      <c r="I340" s="12">
+        <v>27</v>
+      </c>
+      <c r="K340" s="11">
+        <v>17</v>
+      </c>
+      <c r="M340" s="11">
+        <v>35</v>
+      </c>
+      <c r="O340" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q340" s="11">
+        <v>28</v>
+      </c>
+      <c r="S340" s="2">
+        <v>27</v>
+      </c>
+      <c r="U340" s="11">
+        <v>32</v>
+      </c>
+      <c r="W340" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y340" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C341" s="13"/>
+      <c r="E341" s="12"/>
+      <c r="G341" s="7"/>
+      <c r="H341" s="13"/>
+      <c r="I341" s="12"/>
+      <c r="S341" s="2"/>
+    </row>
+    <row r="342" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="11">
+        <v>99</v>
+      </c>
+      <c r="C342" s="13"/>
+      <c r="D342" s="11">
+        <v>24</v>
+      </c>
+      <c r="E342" s="12"/>
+      <c r="F342" s="11">
+        <v>23</v>
+      </c>
+      <c r="G342" s="7"/>
+      <c r="H342" s="13"/>
+      <c r="I342" s="12">
+        <v>24</v>
+      </c>
+      <c r="K342" s="11">
+        <v>24</v>
+      </c>
+      <c r="M342" s="11">
+        <v>24</v>
+      </c>
+      <c r="O342" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q342" s="11">
+        <v>24</v>
+      </c>
+      <c r="S342" s="2">
+        <v>20</v>
+      </c>
+      <c r="U342" s="11">
+        <v>30</v>
+      </c>
+      <c r="W342" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y342" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B343" s="11">
+        <v>99</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="11">
+        <v>17</v>
+      </c>
+      <c r="E343" s="12"/>
+      <c r="F343" s="11">
+        <v>16</v>
+      </c>
+      <c r="G343" s="7"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="12">
+        <v>21</v>
+      </c>
+      <c r="K343" s="11">
+        <v>20</v>
+      </c>
+      <c r="M343" s="11">
+        <v>28</v>
+      </c>
+      <c r="O343" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q343" s="11">
+        <v>21</v>
+      </c>
+      <c r="S343" s="2">
+        <v>24</v>
+      </c>
+      <c r="U343" s="11">
+        <v>20</v>
+      </c>
+      <c r="W343" s="11">
+        <v>19</v>
+      </c>
+      <c r="Y343" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C344" s="8"/>
+      <c r="E344" s="4"/>
+      <c r="G344" s="7"/>
+      <c r="H344" s="8"/>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>114</v>
+      </c>
+      <c r="C345" s="8"/>
+      <c r="E345" s="4"/>
+      <c r="G345" s="7"/>
+      <c r="H345" s="8"/>
+    </row>
+    <row r="346" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C346" s="13"/>
+      <c r="E346" s="12"/>
+      <c r="G346" s="7"/>
+      <c r="H346" s="13"/>
+      <c r="I346" s="12"/>
+      <c r="S346" s="2"/>
+    </row>
+    <row r="347" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B347" s="11">
+        <v>99</v>
+      </c>
+      <c r="C347" s="13"/>
+      <c r="D347" s="11">
+        <v>17</v>
+      </c>
+      <c r="E347" s="12"/>
+      <c r="F347" s="11">
+        <v>17</v>
+      </c>
+      <c r="G347" s="7"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="12">
+        <v>24</v>
+      </c>
+      <c r="K347" s="11">
+        <v>17</v>
+      </c>
+      <c r="M347" s="11">
+        <v>27</v>
+      </c>
+      <c r="O347" s="11">
+        <v>34</v>
+      </c>
+      <c r="Q347" s="11">
+        <v>21</v>
+      </c>
+      <c r="S347" s="2">
+        <v>34</v>
+      </c>
+      <c r="U347" s="11">
+        <v>21</v>
+      </c>
+      <c r="W347" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y347" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B348" s="11">
+        <v>99</v>
+      </c>
+      <c r="C348" s="13"/>
+      <c r="D348" s="11">
+        <v>23</v>
+      </c>
+      <c r="E348" s="12"/>
+      <c r="F348" s="11">
+        <v>31</v>
+      </c>
+      <c r="G348" s="7"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="12">
+        <v>23</v>
+      </c>
+      <c r="K348" s="11">
+        <v>37</v>
+      </c>
+      <c r="M348" s="11">
+        <v>24</v>
+      </c>
+      <c r="O348" s="11">
+        <v>31</v>
+      </c>
+      <c r="Q348" s="11">
+        <v>34</v>
+      </c>
+      <c r="S348" s="2">
+        <v>30</v>
+      </c>
+      <c r="U348" s="11">
+        <v>31</v>
+      </c>
+      <c r="W348" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y348" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C349" s="13"/>
+      <c r="E349" s="12"/>
+      <c r="G349" s="7"/>
+      <c r="H349" s="13"/>
+      <c r="I349" s="12"/>
+      <c r="S349" s="2"/>
+    </row>
+    <row r="350" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B350" s="11">
+        <v>99</v>
+      </c>
+      <c r="C350" s="13"/>
+      <c r="D350" s="11">
+        <v>17</v>
+      </c>
+      <c r="E350" s="12"/>
+      <c r="F350" s="11">
+        <v>17</v>
+      </c>
+      <c r="G350" s="7"/>
+      <c r="H350" s="13"/>
+      <c r="I350" s="12">
+        <v>17</v>
+      </c>
+      <c r="K350" s="11">
+        <v>23</v>
+      </c>
+      <c r="M350" s="11">
+        <v>35</v>
+      </c>
+      <c r="O350" s="11">
+        <v>21</v>
+      </c>
+      <c r="Q350" s="11">
+        <v>17</v>
+      </c>
+      <c r="S350" s="2">
+        <v>27</v>
+      </c>
+      <c r="U350" s="11">
+        <v>20</v>
+      </c>
+      <c r="W350" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y350" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B351" s="11">
+        <v>99</v>
+      </c>
+      <c r="C351" s="13"/>
+      <c r="D351" s="11">
+        <v>23</v>
+      </c>
+      <c r="E351" s="12"/>
+      <c r="F351" s="11">
+        <v>38</v>
+      </c>
+      <c r="G351" s="7"/>
+      <c r="H351" s="13"/>
+      <c r="I351" s="12">
+        <v>30</v>
+      </c>
+      <c r="K351" s="11">
+        <v>27</v>
+      </c>
+      <c r="M351" s="11">
+        <v>34</v>
+      </c>
+      <c r="O351" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q351" s="11">
+        <v>27</v>
+      </c>
+      <c r="S351" s="2">
+        <v>31</v>
+      </c>
+      <c r="U351" s="11">
+        <v>31</v>
+      </c>
+      <c r="W351" s="11">
+        <v>42</v>
+      </c>
+      <c r="Y351" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C352" s="13"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G352" s="7"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="12"/>
+      <c r="S352" s="2"/>
+    </row>
+    <row r="353" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B353" s="11">
+        <v>99</v>
+      </c>
+      <c r="C353" s="13"/>
+      <c r="D353" s="11">
+        <v>17</v>
+      </c>
+      <c r="E353" s="12"/>
+      <c r="F353" s="11">
+        <v>24</v>
+      </c>
+      <c r="G353" s="7"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="12">
+        <v>23</v>
+      </c>
+      <c r="K353" s="11">
+        <v>27</v>
+      </c>
+      <c r="M353" s="11">
+        <v>27</v>
+      </c>
+      <c r="O353" s="11">
+        <v>31</v>
+      </c>
+      <c r="Q353" s="11">
+        <v>43</v>
+      </c>
+      <c r="S353" s="2">
+        <v>30</v>
+      </c>
+      <c r="U353" s="11">
+        <v>23</v>
+      </c>
+      <c r="W353" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y353" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354" s="11">
+        <v>99</v>
+      </c>
+      <c r="C354" s="13"/>
+      <c r="D354" s="11">
+        <v>23</v>
+      </c>
+      <c r="E354" s="12"/>
+      <c r="F354" s="11">
+        <v>34</v>
+      </c>
+      <c r="G354" s="7"/>
+      <c r="H354" s="13"/>
+      <c r="I354" s="12">
+        <v>27</v>
+      </c>
+      <c r="K354" s="11">
+        <v>31</v>
+      </c>
+      <c r="M354" s="11">
+        <v>28</v>
+      </c>
+      <c r="O354" s="11">
+        <v>27</v>
+      </c>
+      <c r="Q354" s="11">
+        <v>37</v>
+      </c>
+      <c r="S354" s="2">
+        <v>23</v>
+      </c>
+      <c r="U354" s="11">
+        <v>28</v>
+      </c>
+      <c r="W354" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y354" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C355" s="13"/>
+      <c r="E355" s="12"/>
+      <c r="G355" s="7"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="12"/>
+      <c r="S355" s="2"/>
+    </row>
+    <row r="356" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B356" s="11">
+        <v>99</v>
+      </c>
+      <c r="C356" s="13"/>
+      <c r="D356" s="11">
+        <v>17</v>
+      </c>
+      <c r="E356" s="12"/>
+      <c r="F356" s="11">
+        <v>27</v>
+      </c>
+      <c r="G356" s="7"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="12">
+        <v>24</v>
+      </c>
+      <c r="K356" s="11">
+        <v>31</v>
+      </c>
+      <c r="M356" s="11">
+        <v>24</v>
+      </c>
+      <c r="O356" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q356" s="11">
+        <v>27</v>
+      </c>
+      <c r="S356" s="2">
+        <v>24</v>
+      </c>
+      <c r="U356" s="11">
+        <v>24</v>
+      </c>
+      <c r="W356" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y356" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B357" s="11">
+        <v>99</v>
+      </c>
+      <c r="C357" s="13"/>
+      <c r="D357" s="11">
+        <v>23</v>
+      </c>
+      <c r="E357" s="12"/>
+      <c r="F357" s="11">
+        <v>24</v>
+      </c>
+      <c r="G357" s="7"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="12">
+        <v>23</v>
+      </c>
+      <c r="K357" s="11">
+        <v>37</v>
+      </c>
+      <c r="M357" s="11">
+        <v>28</v>
+      </c>
+      <c r="O357" s="11">
+        <v>28</v>
+      </c>
+      <c r="Q357" s="11">
+        <v>28</v>
+      </c>
+      <c r="S357" s="2">
+        <v>31</v>
+      </c>
+      <c r="U357" s="11">
+        <v>28</v>
+      </c>
+      <c r="W357" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y357" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C358" s="8"/>
+      <c r="E358" s="4"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="8"/>
+      <c r="W358" s="4"/>
+    </row>
+    <row r="359" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C359" s="13"/>
+      <c r="E359" s="12"/>
+      <c r="G359" s="7"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="12"/>
+      <c r="S359" s="2"/>
+    </row>
+    <row r="360" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C360" s="13"/>
+      <c r="E360" s="12"/>
+      <c r="G360" s="7"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="12"/>
+      <c r="S360" s="2"/>
+    </row>
+    <row r="361" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C361" s="13"/>
+      <c r="E361" s="12"/>
+      <c r="G361" s="7"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="12"/>
+      <c r="S361" s="2"/>
+    </row>
+    <row r="362" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C362" s="13"/>
+      <c r="E362" s="12"/>
+      <c r="G362" s="7"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="12"/>
+      <c r="S362" s="2"/>
+    </row>
+    <row r="363" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>105</v>
       </c>
-      <c r="C326" s="8"/>
-      <c r="E326" s="4"/>
-      <c r="G326" s="7"/>
-      <c r="H326" s="8"/>
-    </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C327" s="8"/>
-      <c r="E327" s="4"/>
-      <c r="G327" s="7"/>
-      <c r="H327" s="8"/>
-    </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C328" s="8"/>
-      <c r="E328" s="4"/>
-      <c r="G328" s="7"/>
-      <c r="H328" s="8"/>
-    </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C329" s="8"/>
-      <c r="E329" s="4"/>
-      <c r="G329" s="7"/>
-      <c r="H329" s="8"/>
-      <c r="W329" s="4"/>
-    </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C330" s="8"/>
-      <c r="E330" s="4"/>
-      <c r="G330" s="7"/>
-      <c r="H330" s="8"/>
-      <c r="W330" s="4"/>
-    </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="C363" s="4">
+        <f>SUM(C2:C359)</f>
+        <v>-195</v>
+      </c>
+      <c r="E363" s="4">
+        <f>SUM(E2:E359)</f>
+        <v>95</v>
+      </c>
+      <c r="G363" s="7"/>
+      <c r="H363" s="4">
+        <f>SUM(H2:H359)</f>
+        <v>95</v>
+      </c>
+      <c r="J363">
+        <f>SUM(J2:J359)</f>
+        <v>70</v>
+      </c>
+      <c r="L363">
+        <f>SUM(L2:L359)</f>
+        <v>105</v>
+      </c>
+      <c r="N363">
+        <f>SUM(N2:N359)</f>
+        <v>70</v>
+      </c>
+      <c r="P363">
+        <f>SUM(P2:P359)</f>
+        <v>50</v>
+      </c>
+      <c r="R363">
+        <f>SUM(R2:R359)</f>
+        <v>80</v>
+      </c>
+      <c r="T363">
+        <f>SUM(T2:T359)</f>
+        <v>105</v>
+      </c>
+      <c r="V363">
+        <f>SUM(V2:V359)</f>
+        <v>155</v>
+      </c>
+      <c r="W363" s="4"/>
+      <c r="X363">
+        <f>SUM(X2:X359)</f>
+        <v>85</v>
+      </c>
+      <c r="Z363">
+        <f>SUM(Z2:Z359)</f>
+        <v>80</v>
+      </c>
+      <c r="AB363">
+        <f>SUM(AB2:AB359)</f>
+        <v>-60</v>
+      </c>
+      <c r="AD363">
+        <f>SUM(AD2:AD359)</f>
+        <v>-60</v>
+      </c>
+      <c r="AF363">
+        <f>SUM(AF2:AF359)</f>
+        <v>-40</v>
+      </c>
+      <c r="AG363" s="4">
+        <f>SUM(C363:AF363)</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="364" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G364" s="7"/>
+      <c r="H364" s="7"/>
+      <c r="W364" s="4"/>
+    </row>
+    <row r="365" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G365" s="7"/>
+      <c r="H365" s="7"/>
+      <c r="W365" s="4"/>
+    </row>
+    <row r="366" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G366" s="7"/>
+      <c r="H366" s="7"/>
+      <c r="W366" s="4"/>
+    </row>
+    <row r="367" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>106</v>
       </c>
-      <c r="C331" s="4">
-        <f>SUM(C2:C330)</f>
-        <v>-195</v>
-      </c>
-      <c r="E331" s="4">
-        <f>SUM(E2:E330)</f>
+      <c r="B367" t="s">
+        <v>71</v>
+      </c>
+      <c r="D367" t="s">
+        <v>75</v>
+      </c>
+      <c r="F367" t="s">
+        <v>81</v>
+      </c>
+      <c r="G367" s="7"/>
+      <c r="H367" s="7"/>
+      <c r="I367" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W367" s="4"/>
+    </row>
+    <row r="368" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>2</v>
+      </c>
+      <c r="B368">
+        <v>45</v>
+      </c>
+      <c r="D368" t="s">
+        <v>2</v>
+      </c>
+      <c r="E368">
+        <v>85</v>
+      </c>
+      <c r="F368" t="s">
+        <v>10</v>
+      </c>
+      <c r="H368">
         <v>95</v>
       </c>
-      <c r="G331" s="7"/>
-      <c r="H331" s="4">
-        <f>SUM(H2:H330)</f>
+      <c r="I368" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J368">
+        <v>130</v>
+      </c>
+      <c r="W368" s="4"/>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369">
+        <v>45</v>
+      </c>
+      <c r="D369" t="s">
+        <v>107</v>
+      </c>
+      <c r="E369">
+        <v>75</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <v>85</v>
+      </c>
+      <c r="H369">
+        <v>85</v>
+      </c>
+      <c r="I369" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J369">
+        <v>105</v>
+      </c>
+      <c r="W369" s="4"/>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>108</v>
+      </c>
+      <c r="B370">
+        <v>20</v>
+      </c>
+      <c r="D370" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370">
+        <v>65</v>
+      </c>
+      <c r="F370" t="s">
+        <v>9</v>
+      </c>
+      <c r="H370">
+        <v>85</v>
+      </c>
+      <c r="I370" t="s">
+        <v>2</v>
+      </c>
+      <c r="J370">
         <v>95</v>
       </c>
-      <c r="J331">
-        <f>SUM(J2:J330)</f>
+      <c r="W370" s="4"/>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371">
+        <v>20</v>
+      </c>
+      <c r="D371" t="s">
+        <v>8</v>
+      </c>
+      <c r="E371">
+        <v>60</v>
+      </c>
+      <c r="F371" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371">
+        <v>85</v>
+      </c>
+      <c r="I371" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J371">
+        <v>95</v>
+      </c>
+      <c r="W371" s="4"/>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372">
+        <v>20</v>
+      </c>
+      <c r="D372" t="s">
+        <v>109</v>
+      </c>
+      <c r="E372">
+        <v>50</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G372">
         <v>70</v>
       </c>
-      <c r="L331">
-        <f>SUM(L2:L330)</f>
-        <v>105</v>
-      </c>
-      <c r="N331">
-        <f>SUM(N2:N330)</f>
+      <c r="H372">
+        <v>80</v>
+      </c>
+      <c r="I372" t="s">
+        <v>14</v>
+      </c>
+      <c r="J372">
+        <v>95</v>
+      </c>
+      <c r="W372" s="4"/>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>8</v>
+      </c>
+      <c r="B373">
+        <v>20</v>
+      </c>
+      <c r="D373" t="s">
+        <v>110</v>
+      </c>
+      <c r="E373">
+        <v>50</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G373">
+        <v>60</v>
+      </c>
+      <c r="H373">
+        <v>80</v>
+      </c>
+      <c r="I373" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J373">
+        <v>90</v>
+      </c>
+      <c r="W373" s="4"/>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>20</v>
+      </c>
+      <c r="D374" t="s">
+        <v>111</v>
+      </c>
+      <c r="E374">
+        <v>50</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H374">
         <v>70</v>
       </c>
-      <c r="P331">
-        <f>SUM(P2:P330)</f>
+      <c r="I374" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J374">
+        <v>80</v>
+      </c>
+      <c r="W374" s="4"/>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>112</v>
+      </c>
+      <c r="B375">
+        <v>20</v>
+      </c>
+      <c r="D375" t="s">
+        <v>10</v>
+      </c>
+      <c r="E375">
         <v>50</v>
       </c>
-      <c r="R331">
-        <f>SUM(R2:R330)</f>
+      <c r="F375" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G375">
+        <v>40</v>
+      </c>
+      <c r="H375">
+        <v>60</v>
+      </c>
+      <c r="I375" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J375">
         <v>80</v>
       </c>
-      <c r="T331">
-        <f>SUM(T2:T330)</f>
-        <v>105</v>
-      </c>
-      <c r="V331">
-        <f>SUM(V2:V330)</f>
-        <v>155</v>
-      </c>
-      <c r="W331" s="4"/>
-      <c r="X331">
-        <f>SUM(X2:X330)</f>
-        <v>85</v>
-      </c>
-      <c r="Z331">
-        <f>SUM(Z2:Z330)</f>
+      <c r="W375" s="4"/>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>10</v>
+      </c>
+      <c r="D376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376">
+        <v>50</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H376">
+        <v>60</v>
+      </c>
+      <c r="I376" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J376">
         <v>80</v>
       </c>
-      <c r="AB331">
-        <f>SUM(AB2:AB330)</f>
-        <v>-60</v>
-      </c>
-      <c r="AD331">
-        <f>SUM(AD2:AD330)</f>
-        <v>-60</v>
-      </c>
-      <c r="AF331">
-        <f>SUM(AF2:AF330)</f>
-        <v>-40</v>
-      </c>
-      <c r="AG331" s="4">
-        <f>SUM(C331:AF331)</f>
-        <v>635</v>
-      </c>
-    </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G332" s="7"/>
-      <c r="H332" s="7"/>
-      <c r="W332" s="4"/>
-    </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G333" s="7"/>
-      <c r="H333" s="7"/>
-      <c r="W333" s="4"/>
-    </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G334" s="7"/>
-      <c r="H334" s="7"/>
-      <c r="W334" s="4"/>
-    </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>107</v>
-      </c>
-      <c r="B335" t="s">
-        <v>71</v>
-      </c>
-      <c r="D335" t="s">
-        <v>75</v>
-      </c>
-      <c r="F335" t="s">
-        <v>81</v>
-      </c>
-      <c r="G335" s="7"/>
-      <c r="H335" s="7"/>
-      <c r="I335" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W335" s="4"/>
-    </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>2</v>
-      </c>
-      <c r="B336">
-        <v>45</v>
-      </c>
-      <c r="D336" t="s">
-        <v>2</v>
-      </c>
-      <c r="E336">
-        <v>85</v>
-      </c>
-      <c r="F336" t="s">
-        <v>10</v>
-      </c>
-      <c r="H336">
-        <v>95</v>
-      </c>
-      <c r="I336" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J336">
-        <v>130</v>
-      </c>
-      <c r="W336" s="4"/>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>14</v>
-      </c>
-      <c r="B337">
-        <v>45</v>
-      </c>
-      <c r="D337" t="s">
-        <v>108</v>
-      </c>
-      <c r="E337">
-        <v>75</v>
-      </c>
-      <c r="F337" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G337">
-        <v>85</v>
-      </c>
-      <c r="H337">
-        <v>85</v>
-      </c>
-      <c r="I337" s="4" t="s">
+      <c r="W376" s="4"/>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377">
+        <v>50</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G377">
+        <v>60</v>
+      </c>
+      <c r="H377">
+        <v>60</v>
+      </c>
+      <c r="I377" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J377">
+        <v>70</v>
+      </c>
+      <c r="W377" s="4"/>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378">
+        <v>40</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G378">
+        <v>60</v>
+      </c>
+      <c r="H378">
+        <v>60</v>
+      </c>
+      <c r="I378" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J378">
+        <v>70</v>
+      </c>
+      <c r="W378" s="4"/>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379">
+        <v>40</v>
+      </c>
+      <c r="F379" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G379">
+        <v>40</v>
+      </c>
+      <c r="H379">
+        <v>50</v>
+      </c>
+      <c r="I379" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>60</v>
+      </c>
+      <c r="W379" s="4"/>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s">
+        <v>3</v>
+      </c>
+      <c r="E380">
+        <v>30</v>
+      </c>
+      <c r="F380" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G380">
+        <v>50</v>
+      </c>
+      <c r="H380">
+        <v>50</v>
+      </c>
+      <c r="I380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J380">
+        <v>60</v>
+      </c>
+      <c r="W380" s="4"/>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381">
+        <v>30</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G381">
+        <v>50</v>
+      </c>
+      <c r="H381">
+        <v>50</v>
+      </c>
+      <c r="I381" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J381">
+        <v>60</v>
+      </c>
+      <c r="W381" s="4"/>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>9</v>
       </c>
-      <c r="J337">
-        <v>105</v>
-      </c>
-      <c r="W337" s="4"/>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>109</v>
-      </c>
-      <c r="B338">
-        <v>20</v>
-      </c>
-      <c r="D338" t="s">
-        <v>9</v>
-      </c>
-      <c r="E338">
-        <v>65</v>
-      </c>
-      <c r="F338" t="s">
-        <v>9</v>
-      </c>
-      <c r="H338">
-        <v>85</v>
-      </c>
-      <c r="I338" t="s">
-        <v>2</v>
-      </c>
-      <c r="J338">
-        <v>95</v>
-      </c>
-      <c r="W338" s="4"/>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>6</v>
-      </c>
-      <c r="B339">
-        <v>20</v>
-      </c>
-      <c r="D339" t="s">
-        <v>8</v>
-      </c>
-      <c r="E339">
-        <v>60</v>
-      </c>
-      <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="H339">
-        <v>85</v>
-      </c>
-      <c r="I339" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J339">
-        <v>95</v>
-      </c>
-      <c r="W339" s="4"/>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>20</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>30</v>
+      </c>
+      <c r="H382">
+        <v>40</v>
+      </c>
+      <c r="I382" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B340">
-        <v>20</v>
-      </c>
-      <c r="D340" t="s">
-        <v>110</v>
-      </c>
-      <c r="E340">
+      <c r="J382">
         <v>50</v>
       </c>
-      <c r="F340" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G340">
-        <v>70</v>
-      </c>
-      <c r="H340">
-        <v>80</v>
-      </c>
-      <c r="I340" t="s">
-        <v>14</v>
-      </c>
-      <c r="J340">
-        <v>95</v>
-      </c>
-      <c r="W340" s="4"/>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>8</v>
-      </c>
-      <c r="B341">
-        <v>20</v>
-      </c>
-      <c r="D341" t="s">
-        <v>111</v>
-      </c>
-      <c r="E341">
-        <v>50</v>
-      </c>
-      <c r="F341" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G341">
-        <v>60</v>
-      </c>
-      <c r="H341">
-        <v>80</v>
-      </c>
-      <c r="I341" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J341">
-        <v>90</v>
-      </c>
-      <c r="W341" s="4"/>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>12</v>
-      </c>
-      <c r="B342">
-        <v>20</v>
-      </c>
-      <c r="D342" t="s">
-        <v>112</v>
-      </c>
-      <c r="E342">
-        <v>50</v>
-      </c>
-      <c r="F342" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H342">
-        <v>70</v>
-      </c>
-      <c r="I342" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J342">
-        <v>80</v>
-      </c>
-      <c r="W342" s="4"/>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>113</v>
-      </c>
-      <c r="B343">
-        <v>20</v>
-      </c>
-      <c r="D343" t="s">
-        <v>10</v>
-      </c>
-      <c r="E343">
-        <v>50</v>
-      </c>
-      <c r="F343" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G343">
-        <v>40</v>
-      </c>
-      <c r="H343">
-        <v>60</v>
-      </c>
-      <c r="I343" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J343">
-        <v>80</v>
-      </c>
-      <c r="W343" s="4"/>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>3</v>
-      </c>
-      <c r="B344">
-        <v>10</v>
-      </c>
-      <c r="D344" t="s">
-        <v>12</v>
-      </c>
-      <c r="E344">
-        <v>50</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H344">
-        <v>60</v>
-      </c>
-      <c r="I344" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J344">
-        <v>80</v>
-      </c>
-      <c r="W344" s="4"/>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>4</v>
-      </c>
-      <c r="B345">
-        <v>10</v>
-      </c>
-      <c r="D345" t="s">
-        <v>15</v>
-      </c>
-      <c r="E345">
-        <v>50</v>
-      </c>
-      <c r="F345" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G345">
-        <v>60</v>
-      </c>
-      <c r="H345">
-        <v>60</v>
-      </c>
-      <c r="I345" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J345">
-        <v>70</v>
-      </c>
-      <c r="W345" s="4"/>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>10</v>
-      </c>
-      <c r="B346">
-        <v>10</v>
-      </c>
-      <c r="D346" t="s">
-        <v>7</v>
-      </c>
-      <c r="E346">
-        <v>40</v>
-      </c>
-      <c r="F346" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G346">
-        <v>60</v>
-      </c>
-      <c r="H346">
-        <v>60</v>
-      </c>
-      <c r="I346" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J346">
-        <v>70</v>
-      </c>
-      <c r="W346" s="4"/>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>11</v>
-      </c>
-      <c r="B347">
-        <v>10</v>
-      </c>
-      <c r="D347" t="s">
-        <v>11</v>
-      </c>
-      <c r="E347">
-        <v>40</v>
-      </c>
-      <c r="F347" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G347">
-        <v>40</v>
-      </c>
-      <c r="H347">
-        <v>50</v>
-      </c>
-      <c r="I347" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J347">
-        <v>60</v>
-      </c>
-      <c r="W347" s="4"/>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>15</v>
-      </c>
-      <c r="B348">
-        <v>10</v>
-      </c>
-      <c r="D348" t="s">
-        <v>3</v>
-      </c>
-      <c r="E348">
-        <v>30</v>
-      </c>
-      <c r="F348" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G348">
-        <v>50</v>
-      </c>
-      <c r="H348">
-        <v>50</v>
-      </c>
-      <c r="I348" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J348">
-        <v>60</v>
-      </c>
-      <c r="W348" s="4"/>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>0</v>
-      </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-      <c r="D349" t="s">
-        <v>4</v>
-      </c>
-      <c r="E349">
-        <v>30</v>
-      </c>
-      <c r="F349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G349">
-        <v>50</v>
-      </c>
-      <c r="H349">
-        <v>50</v>
-      </c>
-      <c r="I349" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J349">
-        <v>60</v>
-      </c>
-      <c r="W349" s="4"/>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>9</v>
-      </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-      <c r="D350" t="s">
-        <v>0</v>
-      </c>
-      <c r="E350">
-        <v>20</v>
-      </c>
-      <c r="F350" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G350">
-        <v>30</v>
-      </c>
-      <c r="H350">
-        <v>40</v>
-      </c>
-      <c r="I350" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J350">
-        <v>50</v>
-      </c>
-      <c r="W350" s="4"/>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W351" s="4"/>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W352" s="4"/>
-    </row>
-    <row r="353" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W353" s="4"/>
-    </row>
-    <row r="354" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W354" s="4"/>
-    </row>
-    <row r="355" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W355" s="4"/>
-    </row>
-    <row r="356" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W356" s="4"/>
-    </row>
-    <row r="357" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W357" s="4"/>
-    </row>
-    <row r="358" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W358" s="4"/>
-    </row>
-    <row r="359" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W359" s="4"/>
-    </row>
-    <row r="360" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W360" s="4"/>
-    </row>
-    <row r="361" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W361" s="4"/>
-    </row>
-    <row r="362" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W362" s="4"/>
-    </row>
-    <row r="363" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W363" s="4"/>
-    </row>
-    <row r="364" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W364" s="4"/>
-    </row>
-    <row r="365" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W365" s="4"/>
-    </row>
-    <row r="366" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W366" s="4"/>
-    </row>
-    <row r="367" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W367" s="4"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="7"/>
+      <c r="W382" s="4"/>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W383" s="4"/>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W384" s="4"/>
+    </row>
+    <row r="385" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W385" s="4"/>
+    </row>
+    <row r="386" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W386" s="4"/>
+    </row>
+    <row r="387" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W387" s="4"/>
+    </row>
+    <row r="388" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W388" s="4"/>
+    </row>
+    <row r="389" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W389" s="4"/>
+    </row>
+    <row r="390" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W390" s="4"/>
+    </row>
+    <row r="391" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W391" s="4"/>
+    </row>
+    <row r="392" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W392" s="4"/>
+    </row>
+    <row r="393" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W393" s="4"/>
+    </row>
+    <row r="394" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W394" s="4"/>
+    </row>
+    <row r="395" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W395" s="4"/>
+    </row>
+    <row r="396" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W396" s="4"/>
+    </row>
+    <row r="397" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W397" s="4"/>
+    </row>
+    <row r="398" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W398" s="4"/>
+    </row>
+    <row r="399" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W399" s="4"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
